--- a/Data/Dataset_Unificado.xlsx
+++ b/Data/Dataset_Unificado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f15395a9ed9a48f/Imágenes/Proyectos/Indicadores/Modelo_Prospectivo/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f15395a9ed9a48f/Proyectos_DS/PDI_2022_2025/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1370" documentId="11_C54DB9D477E07092D1C9E253F65DD242EE9209D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC4E1B31-F2FA-4057-9F79-BA07D36222A5}"/>
+  <xr:revisionPtr revIDLastSave="1371" documentId="11_C54DB9D477E07092D1C9E253F65DD242EE9209D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80F1D9A9-0416-4836-BAC9-CD5BD72E1B69}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1954,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC494"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43979,6 +43979,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AC494" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC480">
     <sortCondition ref="A2:A480"/>
     <sortCondition ref="F2:F480"/>

--- a/Data/Dataset_Unificado.xlsx
+++ b/Data/Dataset_Unificado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f15395a9ed9a48f/Proyectos_DS/PDI_2022_2025/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1959" documentId="11_C54DB9D477E07092D1C9E253F65DD242EE9209D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D9AE2F8-FD9F-4C34-94A9-7435855A4334}"/>
+  <xr:revisionPtr revIDLastSave="2034" documentId="11_C54DB9D477E07092D1C9E253F65DD242EE9209D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBBF4A51-C18F-4652-9965-8D0331824F8F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1601,9 +1601,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1680,10 +1680,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1694,7 +1694,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares 2" xfId="2" xr:uid="{2B248724-A66E-415B-8BBA-BBCDE8553B51}"/>
@@ -9838,11 +9837,11 @@
         <v>49100</v>
       </c>
       <c r="M92">
-        <f>+L92/K92</f>
+        <f t="shared" ref="M92:M97" si="16">+L92/K92</f>
         <v>0.99574122895964312</v>
       </c>
       <c r="N92">
-        <f>+L92/K92</f>
+        <f t="shared" ref="N92:N97" si="17">+L92/K92</f>
         <v>0.99574122895964312</v>
       </c>
       <c r="O92" t="s">
@@ -9929,11 +9928,11 @@
         <v>48339</v>
       </c>
       <c r="M93">
-        <f>+L93/K93</f>
+        <f t="shared" si="16"/>
         <v>1.0057843157653814</v>
       </c>
       <c r="N93">
-        <f>+L93/K93</f>
+        <f t="shared" si="17"/>
         <v>1.0057843157653814</v>
       </c>
       <c r="O93" t="s">
@@ -10017,11 +10016,11 @@
         <v>97439</v>
       </c>
       <c r="M94">
-        <f>+L94/K94</f>
+        <f t="shared" si="16"/>
         <v>1.0006983598812789</v>
       </c>
       <c r="N94">
-        <f>+L94/K94</f>
+        <f t="shared" si="17"/>
         <v>1.0006983598812789</v>
       </c>
       <c r="O94" t="s">
@@ -10108,11 +10107,11 @@
         <v>52096</v>
       </c>
       <c r="M95">
-        <f>+L95/K95</f>
+        <f t="shared" si="16"/>
         <v>1.0494762288477035</v>
       </c>
       <c r="N95">
-        <f>+L95/K95</f>
+        <f t="shared" si="17"/>
         <v>1.0494762288477035</v>
       </c>
       <c r="O95" t="s">
@@ -10199,11 +10198,11 @@
         <v>52271</v>
       </c>
       <c r="M96">
-        <f>+L96/K96</f>
+        <f t="shared" si="16"/>
         <v>1.0102823788631401</v>
       </c>
       <c r="N96">
-        <f>+L96/K96</f>
+        <f t="shared" si="17"/>
         <v>1.0102823788631401</v>
       </c>
       <c r="O96" t="s">
@@ -10287,11 +10286,11 @@
         <v>104367</v>
       </c>
       <c r="M97">
-        <f>+L97/K97</f>
+        <f t="shared" si="16"/>
         <v>1.0294735596129376</v>
       </c>
       <c r="N97">
-        <f>+L97/K97</f>
+        <f t="shared" si="17"/>
         <v>1.0294735596129376</v>
       </c>
       <c r="O97" t="s">
@@ -10360,15 +10359,15 @@
         <v>43281</v>
       </c>
       <c r="G98">
-        <f t="shared" ref="G98:G109" si="16">YEAR(F98)</f>
+        <f t="shared" ref="G98:G109" si="18">YEAR(F98)</f>
         <v>2018</v>
       </c>
       <c r="H98" t="str">
-        <f t="shared" ref="H98:H109" si="17">PROPER(TEXT(F98,"mmmm"))</f>
+        <f t="shared" ref="H98:H109" si="19">PROPER(TEXT(F98,"mmmm"))</f>
         <v>Junio</v>
       </c>
       <c r="I98" t="str">
-        <f t="shared" ref="I98:I109" si="18">IF(H98="Junio",G98&amp;"-1",G98&amp;"-2")</f>
+        <f t="shared" ref="I98:I109" si="20">IF(H98="Junio",G98&amp;"-1",G98&amp;"-2")</f>
         <v>2018-1</v>
       </c>
       <c r="J98">
@@ -10384,7 +10383,7 @@
         <v>35</v>
       </c>
       <c r="Q98" t="str">
-        <f t="shared" ref="Q98:Q109" si="19">MID(A98,1,2)&amp;"."&amp;RIGHT(A98,1)&amp;"-"&amp;TEXT(F98,"yyyy-mm-dd")</f>
+        <f t="shared" ref="Q98:Q109" si="21">MID(A98,1,2)&amp;"."&amp;RIGHT(A98,1)&amp;"-"&amp;TEXT(F98,"yyyy-mm-dd")</f>
         <v>14.4-2018-06-30</v>
       </c>
       <c r="R98">
@@ -10444,15 +10443,15 @@
         <v>43465</v>
       </c>
       <c r="G99">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Diciembre</v>
       </c>
       <c r="I99" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2018-2</v>
       </c>
       <c r="J99">
@@ -10468,7 +10467,7 @@
         <v>35</v>
       </c>
       <c r="Q99" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>14.4-2018-12-31</v>
       </c>
       <c r="R99">
@@ -10528,15 +10527,15 @@
         <v>43465</v>
       </c>
       <c r="G100">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2018</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Diciembre</v>
       </c>
       <c r="I100" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2018-2</v>
       </c>
       <c r="L100">
@@ -10549,7 +10548,7 @@
         <v>35</v>
       </c>
       <c r="Q100" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>14.4-2018-12-31</v>
       </c>
       <c r="R100">
@@ -10609,15 +10608,15 @@
         <v>43646</v>
       </c>
       <c r="G101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2019</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Junio</v>
       </c>
       <c r="I101" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2019-1</v>
       </c>
       <c r="J101">
@@ -10633,7 +10632,7 @@
         <v>35</v>
       </c>
       <c r="Q101" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>14.4-2019-06-30</v>
       </c>
       <c r="R101">
@@ -10693,15 +10692,15 @@
         <v>43830</v>
       </c>
       <c r="G102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2019</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Diciembre</v>
       </c>
       <c r="I102" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2019-2</v>
       </c>
       <c r="J102">
@@ -10717,7 +10716,7 @@
         <v>35</v>
       </c>
       <c r="Q102" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>14.4-2019-12-31</v>
       </c>
       <c r="R102">
@@ -10777,15 +10776,15 @@
         <v>43830</v>
       </c>
       <c r="G103">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2019</v>
       </c>
       <c r="H103" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Diciembre</v>
       </c>
       <c r="I103" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2019-2</v>
       </c>
       <c r="L103">
@@ -10798,7 +10797,7 @@
         <v>35</v>
       </c>
       <c r="Q103" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>14.4-2019-12-31</v>
       </c>
       <c r="R103">
@@ -10858,15 +10857,15 @@
         <v>44012</v>
       </c>
       <c r="G104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2020</v>
       </c>
       <c r="H104" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Junio</v>
       </c>
       <c r="I104" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2020-1</v>
       </c>
       <c r="J104">
@@ -10882,7 +10881,7 @@
         <v>35</v>
       </c>
       <c r="Q104" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>14.4-2020-06-30</v>
       </c>
       <c r="R104">
@@ -10942,15 +10941,15 @@
         <v>44196</v>
       </c>
       <c r="G105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2020</v>
       </c>
       <c r="H105" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Diciembre</v>
       </c>
       <c r="I105" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2020-2</v>
       </c>
       <c r="J105">
@@ -10966,7 +10965,7 @@
         <v>35</v>
       </c>
       <c r="Q105" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>14.4-2020-12-31</v>
       </c>
       <c r="R105">
@@ -11026,15 +11025,15 @@
         <v>44196</v>
       </c>
       <c r="G106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2020</v>
       </c>
       <c r="H106" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Diciembre</v>
       </c>
       <c r="I106" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2020-2</v>
       </c>
       <c r="L106">
@@ -11047,7 +11046,7 @@
         <v>35</v>
       </c>
       <c r="Q106" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>14.4-2020-12-31</v>
       </c>
       <c r="R106">
@@ -11107,15 +11106,15 @@
         <v>44377</v>
       </c>
       <c r="G107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2021</v>
       </c>
       <c r="H107" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Junio</v>
       </c>
       <c r="I107" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2021-1</v>
       </c>
       <c r="J107">
@@ -11131,7 +11130,7 @@
         <v>35</v>
       </c>
       <c r="Q107" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>14.4-2021-06-30</v>
       </c>
       <c r="R107">
@@ -11191,15 +11190,15 @@
         <v>44561</v>
       </c>
       <c r="G108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2021</v>
       </c>
       <c r="H108" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Diciembre</v>
       </c>
       <c r="I108" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2021-2</v>
       </c>
       <c r="J108">
@@ -11215,7 +11214,7 @@
         <v>35</v>
       </c>
       <c r="Q108" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>14.4-2021-12-31</v>
       </c>
       <c r="R108">
@@ -11275,15 +11274,15 @@
         <v>44561</v>
       </c>
       <c r="G109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2021</v>
       </c>
       <c r="H109" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Diciembre</v>
       </c>
       <c r="I109" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2021-2</v>
       </c>
       <c r="L109">
@@ -11296,7 +11295,7 @@
         <v>35</v>
       </c>
       <c r="Q109" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>14.4-2021-12-31</v>
       </c>
       <c r="R109">
@@ -11902,7 +11901,7 @@
         <v>3485</v>
       </c>
       <c r="M116">
-        <f>+L116/K116</f>
+        <f t="shared" ref="M116:M121" si="22">+L116/K116</f>
         <v>1.1267377950210151</v>
       </c>
       <c r="N116">
@@ -11993,11 +11992,11 @@
         <v>3666</v>
       </c>
       <c r="M117">
-        <f>+L117/K117</f>
+        <f t="shared" si="22"/>
         <v>1.2</v>
       </c>
       <c r="N117">
-        <f t="shared" ref="N117:N121" si="20">+L117/K117</f>
+        <f t="shared" ref="N117:N121" si="23">+L117/K117</f>
         <v>1.2</v>
       </c>
       <c r="O117" t="s">
@@ -12081,11 +12080,11 @@
         <v>7151</v>
       </c>
       <c r="M118">
-        <f>+L118/K118</f>
+        <f t="shared" si="22"/>
         <v>1.163142485361093</v>
       </c>
       <c r="N118">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.163142485361093</v>
       </c>
       <c r="O118" t="s">
@@ -12172,11 +12171,11 @@
         <v>4409</v>
       </c>
       <c r="M119">
-        <f>+L119/K119</f>
+        <f t="shared" si="22"/>
         <v>1.1039058587881823</v>
       </c>
       <c r="N119">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.1039058587881823</v>
       </c>
       <c r="O119" t="s">
@@ -12263,11 +12262,11 @@
         <v>4660</v>
       </c>
       <c r="M120">
-        <f>+L120/K120</f>
+        <f t="shared" si="22"/>
         <v>1.1600697037590242</v>
       </c>
       <c r="N120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.1600697037590242</v>
       </c>
       <c r="O120" t="s">
@@ -12353,11 +12352,11 @@
         <v>9069</v>
       </c>
       <c r="M121">
-        <f>+L121/K121</f>
+        <f t="shared" si="22"/>
         <v>1.13206840594183</v>
       </c>
       <c r="N121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.13206840594183</v>
       </c>
       <c r="O121" t="s">
@@ -15410,11 +15409,11 @@
         <v>3.57</v>
       </c>
       <c r="M156">
-        <f t="shared" ref="M156:M163" si="21">+L156/K156</f>
+        <f t="shared" ref="M156:M163" si="24">+L156/K156</f>
         <v>1.4279999999999999</v>
       </c>
       <c r="N156">
-        <f t="shared" ref="N156:N163" si="22">+L156/K156</f>
+        <f t="shared" ref="N156:N163" si="25">+L156/K156</f>
         <v>1.4279999999999999</v>
       </c>
       <c r="O156" t="s">
@@ -15501,11 +15500,11 @@
         <v>5.71</v>
       </c>
       <c r="M157">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.1419999999999999</v>
       </c>
       <c r="N157">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.1419999999999999</v>
       </c>
       <c r="O157" t="s">
@@ -15589,11 +15588,11 @@
         <v>5.71</v>
       </c>
       <c r="M158">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.1419999999999999</v>
       </c>
       <c r="N158">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.1419999999999999</v>
       </c>
       <c r="O158" t="s">
@@ -15680,11 +15679,11 @@
         <v>4.3</v>
       </c>
       <c r="M159">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.86</v>
       </c>
       <c r="N159">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.86</v>
       </c>
       <c r="O159" t="s">
@@ -15771,11 +15770,11 @@
         <v>6.3</v>
       </c>
       <c r="M160">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.26</v>
       </c>
       <c r="N160">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.26</v>
       </c>
       <c r="O160" t="s">
@@ -15859,11 +15858,11 @@
         <v>6.3</v>
       </c>
       <c r="M161">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.26</v>
       </c>
       <c r="N161">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.26</v>
       </c>
       <c r="O161" t="s">
@@ -15950,11 +15949,11 @@
         <v>4.08</v>
       </c>
       <c r="M162">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.02</v>
       </c>
       <c r="N162">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.02</v>
       </c>
       <c r="O162" t="s">
@@ -16038,11 +16037,11 @@
         <v>4.08</v>
       </c>
       <c r="M163">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.02</v>
       </c>
       <c r="N163">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.02</v>
       </c>
       <c r="O163" t="s">
@@ -16220,11 +16219,11 @@
         <v>92.4</v>
       </c>
       <c r="M165">
-        <f t="shared" ref="M165:M174" si="23">+L165/K165</f>
+        <f t="shared" ref="M165:M174" si="26">+L165/K165</f>
         <v>1.2157894736842105</v>
       </c>
       <c r="N165">
-        <f t="shared" ref="N165:N174" si="24">+L165/K165</f>
+        <f t="shared" ref="N165:N174" si="27">+L165/K165</f>
         <v>1.2157894736842105</v>
       </c>
       <c r="O165" t="s">
@@ -16308,11 +16307,11 @@
         <v>92.4</v>
       </c>
       <c r="M166">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.2157894736842105</v>
       </c>
       <c r="N166">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.2157894736842105</v>
       </c>
       <c r="O166" t="s">
@@ -16399,11 +16398,11 @@
         <v>91.9</v>
       </c>
       <c r="M167">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.99891304347826093</v>
       </c>
       <c r="N167">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.99891304347826093</v>
       </c>
       <c r="O167" t="s">
@@ -16490,11 +16489,11 @@
         <v>91.3</v>
       </c>
       <c r="M168">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.99239130434782608</v>
       </c>
       <c r="N168">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.99239130434782608</v>
       </c>
       <c r="O168" t="s">
@@ -16578,11 +16577,11 @@
         <v>91.3</v>
       </c>
       <c r="M169">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.99239130434782608</v>
       </c>
       <c r="N169">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.99239130434782608</v>
       </c>
       <c r="O169" t="s">
@@ -16669,11 +16668,11 @@
         <v>91.7</v>
       </c>
       <c r="M170">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.018888888888889</v>
       </c>
       <c r="N170">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.018888888888889</v>
       </c>
       <c r="O170" t="s">
@@ -16760,11 +16759,11 @@
         <v>93.5</v>
       </c>
       <c r="M171">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.038888888888889</v>
       </c>
       <c r="N171">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.038888888888889</v>
       </c>
       <c r="O171" t="s">
@@ -16848,11 +16847,11 @@
         <v>93.5</v>
       </c>
       <c r="M172">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.038888888888889</v>
       </c>
       <c r="N172">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.038888888888889</v>
       </c>
       <c r="O172" t="s">
@@ -16939,11 +16938,11 @@
         <v>96.21</v>
       </c>
       <c r="M173">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.034516129032258</v>
       </c>
       <c r="N173">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.034516129032258</v>
       </c>
       <c r="O173" t="s">
@@ -17030,11 +17029,11 @@
         <v>95</v>
       </c>
       <c r="M174">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.0106382978723405</v>
       </c>
       <c r="N174">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.0106382978723405</v>
       </c>
       <c r="O174" t="s">
@@ -17212,11 +17211,11 @@
         <v>83.11</v>
       </c>
       <c r="M176">
-        <f t="shared" ref="M176:M185" si="25">+L176/K176</f>
+        <f t="shared" ref="M176:M185" si="28">+L176/K176</f>
         <v>1.1384931506849314</v>
       </c>
       <c r="N176">
-        <f t="shared" ref="N176:N185" si="26">+L176/K176</f>
+        <f t="shared" ref="N176:N185" si="29">+L176/K176</f>
         <v>1.1384931506849314</v>
       </c>
       <c r="O176" t="s">
@@ -17300,11 +17299,11 @@
         <v>83.11</v>
       </c>
       <c r="M177">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.1384931506849314</v>
       </c>
       <c r="N177">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.1384931506849314</v>
       </c>
       <c r="O177" t="s">
@@ -17391,11 +17390,11 @@
         <v>79.180000000000007</v>
       </c>
       <c r="M178">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.98975000000000013</v>
       </c>
       <c r="N178">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.98975000000000013</v>
       </c>
       <c r="O178" t="s">
@@ -17482,11 +17481,11 @@
         <v>81.91</v>
       </c>
       <c r="M179">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.0238749999999999</v>
       </c>
       <c r="N179">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.0238749999999999</v>
       </c>
       <c r="O179" t="s">
@@ -17570,11 +17569,11 @@
         <v>81.91</v>
       </c>
       <c r="M180">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.0238749999999999</v>
       </c>
       <c r="N180">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.0238749999999999</v>
       </c>
       <c r="O180" t="s">
@@ -17661,11 +17660,11 @@
         <v>83.01</v>
       </c>
       <c r="M181">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.0248148148148148</v>
       </c>
       <c r="N181">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.0248148148148148</v>
       </c>
       <c r="O181" t="s">
@@ -17752,11 +17751,11 @@
         <v>89</v>
       </c>
       <c r="M182">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.0987654320987654</v>
       </c>
       <c r="N182">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.0987654320987654</v>
       </c>
       <c r="O182" t="s">
@@ -17840,11 +17839,11 @@
         <v>89</v>
       </c>
       <c r="M183">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.0987654320987654</v>
       </c>
       <c r="N183">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.0987654320987654</v>
       </c>
       <c r="O183" t="s">
@@ -17931,11 +17930,11 @@
         <v>90</v>
       </c>
       <c r="M184">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.125</v>
       </c>
       <c r="N184">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.125</v>
       </c>
       <c r="O184" t="s">
@@ -18022,11 +18021,11 @@
         <v>89.9</v>
       </c>
       <c r="M185">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.0576470588235294</v>
       </c>
       <c r="N185">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.0576470588235294</v>
       </c>
       <c r="O185" t="s">
@@ -18513,15 +18512,15 @@
         <v>43100</v>
       </c>
       <c r="G191">
-        <f t="shared" ref="G191:G196" si="27">YEAR(F191)</f>
+        <f t="shared" ref="G191:G196" si="30">YEAR(F191)</f>
         <v>2017</v>
       </c>
       <c r="H191" t="str">
-        <f t="shared" ref="H191:H196" si="28">PROPER(TEXT(F191,"mmmm"))</f>
+        <f t="shared" ref="H191:H196" si="31">PROPER(TEXT(F191,"mmmm"))</f>
         <v>Diciembre</v>
       </c>
       <c r="I191" t="str">
-        <f t="shared" ref="I191:I196" si="29">IF(H191="Junio",G191&amp;"-1",G191&amp;"-2")</f>
+        <f t="shared" ref="I191:I196" si="32">IF(H191="Junio",G191&amp;"-1",G191&amp;"-2")</f>
         <v>2017-2</v>
       </c>
       <c r="L191">
@@ -18534,7 +18533,7 @@
         <v>245</v>
       </c>
       <c r="Q191" t="str">
-        <f t="shared" ref="Q191:Q196" si="30">A191&amp;"-"&amp;TEXT(F191,"yyyy-mm-dd")</f>
+        <f t="shared" ref="Q191:Q196" si="33">A191&amp;"-"&amp;TEXT(F191,"yyyy-mm-dd")</f>
         <v>202-2017-12-31</v>
       </c>
       <c r="R191">
@@ -18594,15 +18593,15 @@
         <v>43100</v>
       </c>
       <c r="G192">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2017</v>
       </c>
       <c r="H192" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>Diciembre</v>
       </c>
       <c r="I192" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2017-2</v>
       </c>
       <c r="J192">
@@ -18618,7 +18617,7 @@
         <v>245</v>
       </c>
       <c r="Q192" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>202-2017-12-31</v>
       </c>
       <c r="R192">
@@ -18678,15 +18677,15 @@
         <v>43830</v>
       </c>
       <c r="G193">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="H193" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>Diciembre</v>
       </c>
       <c r="I193" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2019-2</v>
       </c>
       <c r="J193">
@@ -18702,7 +18701,7 @@
         <v>245</v>
       </c>
       <c r="Q193" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>202-2019-12-31</v>
       </c>
       <c r="R193">
@@ -18762,15 +18761,15 @@
         <v>43830</v>
       </c>
       <c r="G194">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="H194" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>Diciembre</v>
       </c>
       <c r="I194" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2019-2</v>
       </c>
       <c r="L194">
@@ -18783,7 +18782,7 @@
         <v>245</v>
       </c>
       <c r="Q194" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>202-2019-12-31</v>
       </c>
       <c r="R194">
@@ -18843,15 +18842,15 @@
         <v>44561</v>
       </c>
       <c r="G195">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2021</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>Diciembre</v>
       </c>
       <c r="I195" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2021-2</v>
       </c>
       <c r="J195">
@@ -18867,7 +18866,7 @@
         <v>245</v>
       </c>
       <c r="Q195" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>202-2021-12-31</v>
       </c>
       <c r="R195">
@@ -18927,15 +18926,15 @@
         <v>44561</v>
       </c>
       <c r="G196">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2021</v>
       </c>
       <c r="H196" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>Diciembre</v>
       </c>
       <c r="I196" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2021-2</v>
       </c>
       <c r="L196">
@@ -18948,7 +18947,7 @@
         <v>245</v>
       </c>
       <c r="Q196" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>202-2021-12-31</v>
       </c>
       <c r="R196">
@@ -19383,8 +19382,8 @@
       <c r="L201">
         <v>119144</v>
       </c>
-      <c r="M201" s="8">
-        <f t="shared" ref="M201:M210" si="31">+L201/K201</f>
+      <c r="M201">
+        <f t="shared" ref="M201:M210" si="34">+L201/K201</f>
         <v>1.0481385037652193</v>
       </c>
       <c r="N201">
@@ -19474,12 +19473,12 @@
       <c r="L202">
         <v>121738</v>
       </c>
-      <c r="M202" s="8">
-        <f t="shared" si="31"/>
+      <c r="M202">
+        <f t="shared" si="34"/>
         <v>1.0990358226202512</v>
       </c>
-      <c r="N202" s="8">
-        <f t="shared" ref="N202:N210" si="32">+L202/K202</f>
+      <c r="N202">
+        <f t="shared" ref="N202:N210" si="35">+L202/K202</f>
         <v>1.0990358226202512</v>
       </c>
       <c r="O202" t="s">
@@ -19562,12 +19561,12 @@
       <c r="L203">
         <v>241706</v>
       </c>
-      <c r="M203" s="8">
-        <f t="shared" si="31"/>
+      <c r="M203">
+        <f t="shared" si="34"/>
         <v>1.0769292461236857</v>
       </c>
-      <c r="N203" s="8">
-        <f t="shared" si="32"/>
+      <c r="N203">
+        <f t="shared" si="35"/>
         <v>1.0769292461236857</v>
       </c>
       <c r="O203" t="s">
@@ -19653,12 +19652,12 @@
       <c r="L204">
         <v>129185.069909</v>
       </c>
-      <c r="M204" s="8">
-        <f t="shared" si="31"/>
+      <c r="M204">
+        <f t="shared" si="34"/>
         <v>1.0463235542785188</v>
       </c>
-      <c r="N204" s="8">
-        <f t="shared" si="32"/>
+      <c r="N204">
+        <f t="shared" si="35"/>
         <v>1.0463235542785188</v>
       </c>
       <c r="O204" t="s">
@@ -19744,12 +19743,12 @@
       <c r="L205">
         <v>144681.981019</v>
       </c>
-      <c r="M205" s="8">
-        <f t="shared" si="31"/>
+      <c r="M205">
+        <f t="shared" si="34"/>
         <v>1.0233644861783664</v>
       </c>
-      <c r="N205" s="8">
-        <f t="shared" si="32"/>
+      <c r="N205">
+        <f t="shared" si="35"/>
         <v>1.0233644861783664</v>
       </c>
       <c r="O205" t="s">
@@ -19832,12 +19831,12 @@
       <c r="L206">
         <v>273867.05092800001</v>
       </c>
-      <c r="M206" s="8">
-        <f t="shared" si="31"/>
+      <c r="M206">
+        <f t="shared" si="34"/>
         <v>1.0340675895505487</v>
       </c>
-      <c r="N206" s="8">
-        <f t="shared" si="32"/>
+      <c r="N206">
+        <f t="shared" si="35"/>
         <v>1.0340675895505487</v>
       </c>
       <c r="O206" t="s">
@@ -19923,12 +19922,12 @@
       <c r="L207">
         <v>145741.54103414001</v>
       </c>
-      <c r="M207" s="8">
-        <f t="shared" si="31"/>
+      <c r="M207">
+        <f t="shared" si="34"/>
         <v>1.0200828539694751</v>
       </c>
-      <c r="N207" s="8">
-        <f t="shared" si="32"/>
+      <c r="N207">
+        <f t="shared" si="35"/>
         <v>1.0200828539694751</v>
       </c>
       <c r="O207" t="s">
@@ -20014,12 +20013,12 @@
       <c r="L208">
         <v>152125.58089486</v>
       </c>
-      <c r="M208" s="8">
-        <f t="shared" si="31"/>
+      <c r="M208">
+        <f t="shared" si="34"/>
         <v>1.0365164919765848</v>
       </c>
-      <c r="N208" s="8">
-        <f t="shared" si="32"/>
+      <c r="N208">
+        <f t="shared" si="35"/>
         <v>1.0365164919765848</v>
       </c>
       <c r="O208" t="s">
@@ -20102,12 +20101,12 @@
       <c r="L209">
         <v>297867.12192900002</v>
       </c>
-      <c r="M209" s="8">
-        <f t="shared" si="31"/>
+      <c r="M209">
+        <f t="shared" si="34"/>
         <v>1.0284101409296484</v>
       </c>
-      <c r="N209" s="8">
-        <f t="shared" si="32"/>
+      <c r="N209">
+        <f t="shared" si="35"/>
         <v>1.0284101409296484</v>
       </c>
       <c r="O209" t="s">
@@ -20193,12 +20192,12 @@
       <c r="L210">
         <v>167595.14529690001</v>
       </c>
-      <c r="M210" s="8">
-        <f t="shared" si="31"/>
+      <c r="M210">
+        <f t="shared" si="34"/>
         <v>1.1176678071147821</v>
       </c>
-      <c r="N210" s="8">
-        <f t="shared" si="32"/>
+      <c r="N210">
+        <f t="shared" si="35"/>
         <v>1.1176678071147821</v>
       </c>
       <c r="O210" t="s">
@@ -22319,94 +22318,94 @@
         <v>66</v>
       </c>
     </row>
-    <row r="235" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="8">
+    <row r="235" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A235">
         <v>228</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C235" s="8" t="s">
+      <c r="C235" t="s">
         <v>177</v>
       </c>
-      <c r="D235" s="8" t="s">
+      <c r="D235" t="s">
         <v>66</v>
       </c>
-      <c r="E235" s="8" t="s">
+      <c r="E235" t="s">
         <v>32</v>
       </c>
       <c r="F235" s="3">
         <v>44926</v>
       </c>
-      <c r="G235" s="8">
+      <c r="G235">
         <v>2022</v>
       </c>
-      <c r="H235" s="8" t="s">
+      <c r="H235" t="s">
         <v>44</v>
       </c>
-      <c r="I235" s="8" t="s">
+      <c r="I235" t="s">
         <v>45</v>
       </c>
-      <c r="J235" s="8">
+      <c r="J235">
         <v>2</v>
       </c>
-      <c r="K235" s="8">
+      <c r="K235">
         <v>170.99</v>
       </c>
-      <c r="L235" s="8">
+      <c r="L235">
         <v>235</v>
       </c>
-      <c r="M235" s="8">
+      <c r="M235">
         <f>+L235/K235</f>
         <v>1.3743493771565587</v>
       </c>
-      <c r="N235" s="8">
+      <c r="N235">
         <f>+L235/K235</f>
         <v>1.3743493771565587</v>
       </c>
-      <c r="O235" s="8" t="s">
+      <c r="O235" t="s">
         <v>445</v>
       </c>
-      <c r="P235" s="8" t="s">
+      <c r="P235" t="s">
         <v>445</v>
       </c>
-      <c r="Q235" s="8" t="s">
+      <c r="Q235" t="s">
         <v>178</v>
       </c>
-      <c r="R235" s="8">
-        <v>1</v>
-      </c>
-      <c r="S235" s="8">
-        <v>0</v>
-      </c>
-      <c r="T235" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U235" s="8" t="s">
+      <c r="R235">
+        <v>1</v>
+      </c>
+      <c r="S235">
+        <v>0</v>
+      </c>
+      <c r="T235" t="s">
+        <v>31</v>
+      </c>
+      <c r="U235" t="s">
         <v>37</v>
       </c>
-      <c r="V235" s="8" t="s">
+      <c r="V235" t="s">
         <v>177</v>
       </c>
-      <c r="W235" s="8" t="s">
+      <c r="W235" t="s">
         <v>145</v>
       </c>
-      <c r="X235" s="8" t="s">
+      <c r="X235" t="s">
         <v>179</v>
       </c>
-      <c r="Y235" s="8" t="s">
+      <c r="Y235" t="s">
         <v>180</v>
       </c>
-      <c r="Z235" s="8" t="s">
+      <c r="Z235" t="s">
         <v>63</v>
       </c>
-      <c r="AA235" s="8" t="s">
+      <c r="AA235" t="s">
         <v>64</v>
       </c>
-      <c r="AB235" s="8" t="s">
+      <c r="AB235" t="s">
         <v>43</v>
       </c>
-      <c r="AC235" s="8" t="s">
+      <c r="AC235" t="s">
         <v>66</v>
       </c>
     </row>
@@ -22444,12 +22443,12 @@
       <c r="L236">
         <v>235</v>
       </c>
-      <c r="M236" s="8">
-        <f t="shared" ref="M236:M240" si="33">+L236/K236</f>
+      <c r="M236">
+        <f t="shared" ref="M236:M240" si="36">+L236/K236</f>
         <v>1.3743493771565587</v>
       </c>
-      <c r="N236" s="8">
-        <f t="shared" ref="N236:N240" si="34">+L236/K236</f>
+      <c r="N236">
+        <f t="shared" ref="N236:N240" si="37">+L236/K236</f>
         <v>1.3743493771565587</v>
       </c>
       <c r="O236" t="s">
@@ -22498,94 +22497,94 @@
         <v>66</v>
       </c>
     </row>
-    <row r="237" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="8">
+    <row r="237" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A237">
         <v>228</v>
       </c>
-      <c r="B237" s="8" t="s">
+      <c r="B237" t="s">
         <v>176</v>
       </c>
-      <c r="C237" s="8" t="s">
+      <c r="C237" t="s">
         <v>177</v>
       </c>
-      <c r="D237" s="8" t="s">
+      <c r="D237" t="s">
         <v>66</v>
       </c>
-      <c r="E237" s="8" t="s">
+      <c r="E237" t="s">
         <v>32</v>
       </c>
       <c r="F237" s="3">
         <v>45291</v>
       </c>
-      <c r="G237" s="8">
+      <c r="G237">
         <v>2023</v>
       </c>
-      <c r="H237" s="8" t="s">
+      <c r="H237" t="s">
         <v>44</v>
       </c>
-      <c r="I237" s="8" t="s">
+      <c r="I237" t="s">
         <v>49</v>
       </c>
-      <c r="J237" s="8">
+      <c r="J237">
         <v>2</v>
       </c>
-      <c r="K237" s="8">
+      <c r="K237">
         <v>476.48</v>
       </c>
-      <c r="L237" s="8">
+      <c r="L237">
         <v>477</v>
       </c>
-      <c r="M237" s="8">
-        <f t="shared" si="33"/>
+      <c r="M237">
+        <f t="shared" si="36"/>
         <v>1.0010913364674279</v>
       </c>
-      <c r="N237" s="8">
-        <f t="shared" si="34"/>
+      <c r="N237">
+        <f t="shared" si="37"/>
         <v>1.0010913364674279</v>
       </c>
-      <c r="O237" s="8" t="s">
+      <c r="O237" t="s">
         <v>445</v>
       </c>
-      <c r="P237" s="8" t="s">
+      <c r="P237" t="s">
         <v>445</v>
       </c>
-      <c r="Q237" s="8" t="s">
+      <c r="Q237" t="s">
         <v>453</v>
       </c>
-      <c r="R237" s="8">
-        <v>1</v>
-      </c>
-      <c r="S237" s="8">
-        <v>0</v>
-      </c>
-      <c r="T237" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U237" s="8" t="s">
+      <c r="R237">
+        <v>1</v>
+      </c>
+      <c r="S237">
+        <v>0</v>
+      </c>
+      <c r="T237" t="s">
+        <v>31</v>
+      </c>
+      <c r="U237" t="s">
         <v>37</v>
       </c>
-      <c r="V237" s="8" t="s">
+      <c r="V237" t="s">
         <v>177</v>
       </c>
-      <c r="W237" s="8" t="s">
+      <c r="W237" t="s">
         <v>145</v>
       </c>
-      <c r="X237" s="8" t="s">
+      <c r="X237" t="s">
         <v>179</v>
       </c>
-      <c r="Y237" s="8" t="s">
+      <c r="Y237" t="s">
         <v>180</v>
       </c>
-      <c r="Z237" s="8" t="s">
+      <c r="Z237" t="s">
         <v>63</v>
       </c>
-      <c r="AA237" s="8" t="s">
+      <c r="AA237" t="s">
         <v>64</v>
       </c>
-      <c r="AB237" s="8" t="s">
+      <c r="AB237" t="s">
         <v>43</v>
       </c>
-      <c r="AC237" s="8" t="s">
+      <c r="AC237" t="s">
         <v>66</v>
       </c>
     </row>
@@ -22608,13 +22607,13 @@
       <c r="F238" s="3">
         <v>45657</v>
       </c>
-      <c r="G238" s="8">
+      <c r="G238">
         <v>2023</v>
       </c>
-      <c r="H238" s="8" t="s">
+      <c r="H238" t="s">
         <v>44</v>
       </c>
-      <c r="I238" s="8" t="s">
+      <c r="I238" t="s">
         <v>49</v>
       </c>
       <c r="K238">
@@ -22623,12 +22622,12 @@
       <c r="L238">
         <v>477</v>
       </c>
-      <c r="M238" s="8">
-        <f t="shared" si="33"/>
+      <c r="M238">
+        <f t="shared" si="36"/>
         <v>1.0010913364674279</v>
       </c>
-      <c r="N238" s="8">
-        <f t="shared" si="34"/>
+      <c r="N238">
+        <f t="shared" si="37"/>
         <v>1.0010913364674279</v>
       </c>
       <c r="O238" t="s">
@@ -22637,7 +22636,7 @@
       <c r="P238" t="s">
         <v>445</v>
       </c>
-      <c r="Q238" s="8" t="s">
+      <c r="Q238" t="s">
         <v>453</v>
       </c>
       <c r="R238">
@@ -22714,12 +22713,12 @@
       <c r="L239">
         <v>622.68999999999994</v>
       </c>
-      <c r="M239" s="8">
-        <f t="shared" si="33"/>
+      <c r="M239">
+        <f t="shared" si="36"/>
         <v>0.99999999999999978</v>
       </c>
-      <c r="N239" s="8">
-        <f t="shared" si="34"/>
+      <c r="N239">
+        <f t="shared" si="37"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="O239" t="s">
@@ -22737,7 +22736,7 @@
       <c r="S239">
         <v>1</v>
       </c>
-      <c r="T239" s="8" t="s">
+      <c r="T239" t="s">
         <v>31</v>
       </c>
       <c r="U239" t="s">
@@ -22790,24 +22789,24 @@
       <c r="G240">
         <v>2024</v>
       </c>
-      <c r="H240" s="8" t="s">
+      <c r="H240" t="s">
         <v>44</v>
       </c>
-      <c r="I240" s="8" t="s">
+      <c r="I240" t="s">
         <v>53</v>
       </c>
-      <c r="K240" s="8">
+      <c r="K240">
         <v>622.69000000000005</v>
       </c>
-      <c r="L240" s="8">
+      <c r="L240">
         <v>622.68999999999994</v>
       </c>
-      <c r="M240" s="8">
-        <f t="shared" si="33"/>
+      <c r="M240">
+        <f t="shared" si="36"/>
         <v>0.99999999999999978</v>
       </c>
-      <c r="N240" s="8">
-        <f t="shared" si="34"/>
+      <c r="N240">
+        <f t="shared" si="37"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="O240" t="s">
@@ -22816,7 +22815,7 @@
       <c r="P240" t="s">
         <v>445</v>
       </c>
-      <c r="Q240" s="8" t="s">
+      <c r="Q240" t="s">
         <v>181</v>
       </c>
       <c r="R240">
@@ -22916,7 +22915,7 @@
       <c r="S241">
         <v>0</v>
       </c>
-      <c r="T241" s="8" t="s">
+      <c r="T241" t="s">
         <v>31</v>
       </c>
       <c r="U241" t="s">
@@ -22947,91 +22946,91 @@
         <v>66</v>
       </c>
     </row>
-    <row r="242" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="8">
+    <row r="242" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A242">
         <v>244</v>
       </c>
-      <c r="B242" s="8" t="s">
+      <c r="B242" t="s">
         <v>182</v>
       </c>
-      <c r="C242" s="8" t="s">
+      <c r="C242" t="s">
         <v>177</v>
       </c>
-      <c r="D242" s="8" t="s">
+      <c r="D242" t="s">
         <v>66</v>
       </c>
-      <c r="E242" s="8" t="s">
+      <c r="E242" t="s">
         <v>171</v>
       </c>
       <c r="F242" s="3">
         <v>44926</v>
       </c>
-      <c r="G242" s="8">
+      <c r="G242">
         <v>2022</v>
       </c>
-      <c r="H242" s="8" t="s">
+      <c r="H242" t="s">
         <v>44</v>
       </c>
-      <c r="I242" s="8" t="s">
+      <c r="I242" t="s">
         <v>45</v>
       </c>
-      <c r="K242" s="8">
+      <c r="K242">
         <v>27</v>
       </c>
-      <c r="L242" s="8">
+      <c r="L242">
         <v>27</v>
       </c>
-      <c r="M242" s="8">
-        <f t="shared" ref="M242:M247" si="35">IF(K242/L242&gt;1.3,1.3,K242/L242)</f>
-        <v>1</v>
-      </c>
-      <c r="N242" s="8">
-        <f t="shared" ref="N242:N247" si="36">+K242/L242</f>
-        <v>1</v>
-      </c>
-      <c r="O242" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P242" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q242" s="8" t="s">
+      <c r="M242">
+        <f t="shared" ref="M242:M247" si="38">IF(K242/L242&gt;1.3,1.3,K242/L242)</f>
+        <v>1</v>
+      </c>
+      <c r="N242">
+        <f t="shared" ref="N242:N247" si="39">+K242/L242</f>
+        <v>1</v>
+      </c>
+      <c r="O242" t="s">
+        <v>35</v>
+      </c>
+      <c r="P242" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q242" t="s">
         <v>446</v>
       </c>
-      <c r="R242" s="8">
-        <v>0</v>
-      </c>
-      <c r="S242" s="8">
-        <v>0</v>
-      </c>
-      <c r="T242" s="8" t="s">
+      <c r="R242">
+        <v>0</v>
+      </c>
+      <c r="S242">
+        <v>0</v>
+      </c>
+      <c r="T242" t="s">
         <v>443</v>
       </c>
-      <c r="U242" s="8" t="s">
+      <c r="U242" t="s">
         <v>37</v>
       </c>
-      <c r="V242" s="8" t="s">
+      <c r="V242" t="s">
         <v>177</v>
       </c>
-      <c r="W242" s="8" t="s">
+      <c r="W242" t="s">
         <v>145</v>
       </c>
-      <c r="X242" s="8" t="s">
+      <c r="X242" t="s">
         <v>179</v>
       </c>
-      <c r="Y242" s="8" t="s">
+      <c r="Y242" t="s">
         <v>180</v>
       </c>
-      <c r="Z242" s="8" t="s">
+      <c r="Z242" t="s">
         <v>63</v>
       </c>
-      <c r="AA242" s="8" t="s">
+      <c r="AA242" t="s">
         <v>64</v>
       </c>
-      <c r="AB242" s="8" t="s">
+      <c r="AB242" t="s">
         <v>43</v>
       </c>
-      <c r="AC242" s="8" t="s">
+      <c r="AC242" t="s">
         <v>66</v>
       </c>
     </row>
@@ -23072,18 +23071,18 @@
       <c r="L243">
         <v>24</v>
       </c>
-      <c r="M243" s="8">
-        <f t="shared" si="35"/>
+      <c r="M243">
+        <f t="shared" si="38"/>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N243" s="8">
-        <f t="shared" si="36"/>
+      <c r="N243">
+        <f t="shared" si="39"/>
         <v>1.0416666666666667</v>
       </c>
-      <c r="O243" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P243" s="8" t="s">
+      <c r="O243" t="s">
+        <v>35</v>
+      </c>
+      <c r="P243" t="s">
         <v>35</v>
       </c>
       <c r="Q243" t="s">
@@ -23160,12 +23159,12 @@
       <c r="L244">
         <v>24</v>
       </c>
-      <c r="M244" s="8">
-        <f t="shared" si="35"/>
+      <c r="M244">
+        <f t="shared" si="38"/>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N244" s="8">
-        <f t="shared" si="36"/>
+      <c r="N244">
+        <f t="shared" si="39"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="O244" t="s">
@@ -23251,18 +23250,18 @@
       <c r="L245">
         <v>25</v>
       </c>
-      <c r="M245" s="8">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="N245" s="8">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="O245" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P245" s="8" t="s">
+      <c r="M245">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="N245">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="O245" t="s">
+        <v>35</v>
+      </c>
+      <c r="P245" t="s">
         <v>35</v>
       </c>
       <c r="Q245" t="s">
@@ -23339,12 +23338,12 @@
       <c r="L246">
         <v>25</v>
       </c>
-      <c r="M246" s="8">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="N246" s="8">
-        <f t="shared" si="36"/>
+      <c r="M246">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="N246">
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="O246" t="s">
@@ -23430,12 +23429,12 @@
       <c r="L247">
         <v>13</v>
       </c>
-      <c r="M247" s="8">
-        <f t="shared" si="35"/>
+      <c r="M247">
+        <f t="shared" si="38"/>
         <v>1.3</v>
       </c>
-      <c r="N247" s="8">
-        <f t="shared" si="36"/>
+      <c r="N247">
+        <f t="shared" si="39"/>
         <v>1.9230769230769231</v>
       </c>
       <c r="O247" t="s">
@@ -23612,12 +23611,12 @@
       <c r="L249">
         <v>85.9</v>
       </c>
-      <c r="M249" s="8">
-        <f t="shared" ref="M249:M258" si="37">+L249/K249</f>
+      <c r="M249">
+        <f t="shared" ref="M249:M258" si="40">+L249/K249</f>
         <v>0.97062146892655377</v>
       </c>
-      <c r="N249" s="8">
-        <f t="shared" ref="N249:N258" si="38">+L249/K249</f>
+      <c r="N249">
+        <f t="shared" ref="N249:N258" si="41">+L249/K249</f>
         <v>0.97062146892655377</v>
       </c>
       <c r="O249" t="s">
@@ -23700,12 +23699,12 @@
       <c r="L250">
         <v>85.9</v>
       </c>
-      <c r="M250" s="8">
-        <f t="shared" si="37"/>
+      <c r="M250">
+        <f t="shared" si="40"/>
         <v>0.97062146892655377</v>
       </c>
-      <c r="N250" s="8">
-        <f t="shared" si="38"/>
+      <c r="N250">
+        <f t="shared" si="41"/>
         <v>0.97062146892655377</v>
       </c>
       <c r="O250" t="s">
@@ -23791,12 +23790,12 @@
       <c r="L251">
         <v>85.12</v>
       </c>
-      <c r="M251" s="8">
-        <f t="shared" si="37"/>
+      <c r="M251">
+        <f t="shared" si="40"/>
         <v>0.97839080459770122</v>
       </c>
-      <c r="N251" s="8">
-        <f t="shared" si="38"/>
+      <c r="N251">
+        <f t="shared" si="41"/>
         <v>0.97839080459770122</v>
       </c>
       <c r="O251" t="s">
@@ -23882,12 +23881,12 @@
       <c r="L252">
         <v>85.38</v>
       </c>
-      <c r="M252" s="8">
-        <f t="shared" si="37"/>
+      <c r="M252">
+        <f t="shared" si="40"/>
         <v>0.9813793103448275</v>
       </c>
-      <c r="N252" s="8">
-        <f t="shared" si="38"/>
+      <c r="N252">
+        <f t="shared" si="41"/>
         <v>0.9813793103448275</v>
       </c>
       <c r="O252" t="s">
@@ -23970,12 +23969,12 @@
       <c r="L253">
         <v>85.38</v>
       </c>
-      <c r="M253" s="8">
-        <f t="shared" si="37"/>
+      <c r="M253">
+        <f t="shared" si="40"/>
         <v>0.9813793103448275</v>
       </c>
-      <c r="N253" s="8">
-        <f t="shared" si="38"/>
+      <c r="N253">
+        <f t="shared" si="41"/>
         <v>0.9813793103448275</v>
       </c>
       <c r="O253" t="s">
@@ -24061,12 +24060,12 @@
       <c r="L254">
         <v>85.13</v>
       </c>
-      <c r="M254" s="8">
-        <f t="shared" si="37"/>
+      <c r="M254">
+        <f t="shared" si="40"/>
         <v>1.0015294117647058</v>
       </c>
-      <c r="N254" s="8">
-        <f t="shared" si="38"/>
+      <c r="N254">
+        <f t="shared" si="41"/>
         <v>1.0015294117647058</v>
       </c>
       <c r="O254" t="s">
@@ -24152,18 +24151,18 @@
       <c r="L255">
         <v>85.19</v>
       </c>
-      <c r="M255" s="8">
-        <f t="shared" si="37"/>
+      <c r="M255">
+        <f t="shared" si="40"/>
         <v>1.0022352941176471</v>
       </c>
-      <c r="N255" s="8">
-        <f t="shared" si="38"/>
+      <c r="N255">
+        <f t="shared" si="41"/>
         <v>1.0022352941176471</v>
       </c>
-      <c r="O255" s="8" t="s">
+      <c r="O255" t="s">
         <v>58</v>
       </c>
-      <c r="P255" s="8" t="s">
+      <c r="P255" t="s">
         <v>58</v>
       </c>
       <c r="Q255" t="s">
@@ -24240,12 +24239,12 @@
       <c r="L256">
         <v>85.19</v>
       </c>
-      <c r="M256" s="8">
-        <f t="shared" si="37"/>
+      <c r="M256">
+        <f t="shared" si="40"/>
         <v>1.0022352941176471</v>
       </c>
-      <c r="N256" s="8">
-        <f t="shared" si="38"/>
+      <c r="N256">
+        <f t="shared" si="41"/>
         <v>1.0022352941176471</v>
       </c>
       <c r="O256" t="s">
@@ -24331,12 +24330,12 @@
       <c r="L257">
         <v>86.5</v>
       </c>
-      <c r="M257" s="8">
-        <f t="shared" si="37"/>
+      <c r="M257">
+        <f t="shared" si="40"/>
         <v>1.0093348891481912</v>
       </c>
-      <c r="N257" s="8">
-        <f t="shared" si="38"/>
+      <c r="N257">
+        <f t="shared" si="41"/>
         <v>1.0093348891481912</v>
       </c>
       <c r="O257" t="s">
@@ -24404,13 +24403,13 @@
       <c r="F258" s="3">
         <v>46022</v>
       </c>
-      <c r="G258" s="8">
+      <c r="G258">
         <v>2025</v>
       </c>
-      <c r="H258" s="8" t="s">
+      <c r="H258" t="s">
         <v>44</v>
       </c>
-      <c r="I258" s="8" t="s">
+      <c r="I258" t="s">
         <v>465</v>
       </c>
       <c r="J258">
@@ -24422,12 +24421,12 @@
       <c r="L258">
         <v>86.2</v>
       </c>
-      <c r="M258" s="8">
-        <f t="shared" si="37"/>
+      <c r="M258">
+        <f t="shared" si="40"/>
         <v>1.0011614401858304</v>
       </c>
-      <c r="N258" s="8">
-        <f t="shared" si="38"/>
+      <c r="N258">
+        <f t="shared" si="41"/>
         <v>1.0011614401858304</v>
       </c>
       <c r="O258" t="s">
@@ -24445,7 +24444,7 @@
       <c r="S258">
         <v>1</v>
       </c>
-      <c r="T258" s="8" t="s">
+      <c r="T258" t="s">
         <v>31</v>
       </c>
       <c r="U258" t="s">
@@ -24496,15 +24495,15 @@
         <v>43281</v>
       </c>
       <c r="G259">
-        <f t="shared" ref="G259:G270" si="39">YEAR(F259)</f>
+        <f t="shared" ref="G259:G270" si="42">YEAR(F259)</f>
         <v>2018</v>
       </c>
       <c r="H259" t="str">
-        <f t="shared" ref="H259:H270" si="40">PROPER(TEXT(F259,"mmmm"))</f>
+        <f t="shared" ref="H259:H270" si="43">PROPER(TEXT(F259,"mmmm"))</f>
         <v>Junio</v>
       </c>
       <c r="I259" t="str">
-        <f t="shared" ref="I259:I270" si="41">IF(H259="Junio",G259&amp;"-1",G259&amp;"-2")</f>
+        <f t="shared" ref="I259:I270" si="44">IF(H259="Junio",G259&amp;"-1",G259&amp;"-2")</f>
         <v>2018-1</v>
       </c>
       <c r="J259">
@@ -24520,7 +24519,7 @@
         <v>35</v>
       </c>
       <c r="Q259" t="str">
-        <f t="shared" ref="Q259:Q270" si="42">A259&amp;"-"&amp;TEXT(F259,"yyyy-mm-dd")</f>
+        <f t="shared" ref="Q259:Q270" si="45">A259&amp;"-"&amp;TEXT(F259,"yyyy-mm-dd")</f>
         <v>274-2018-06-30</v>
       </c>
       <c r="R259">
@@ -24580,15 +24579,15 @@
         <v>43465</v>
       </c>
       <c r="G260">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2018</v>
       </c>
       <c r="H260" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>Diciembre</v>
       </c>
       <c r="I260" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2018-2</v>
       </c>
       <c r="J260">
@@ -24604,7 +24603,7 @@
         <v>35</v>
       </c>
       <c r="Q260" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>274-2018-12-31</v>
       </c>
       <c r="R260">
@@ -24664,15 +24663,15 @@
         <v>43465</v>
       </c>
       <c r="G261">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2018</v>
       </c>
       <c r="H261" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>Diciembre</v>
       </c>
       <c r="I261" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2018-2</v>
       </c>
       <c r="L261" s="4">
@@ -24685,7 +24684,7 @@
         <v>35</v>
       </c>
       <c r="Q261" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>274-2018-12-31</v>
       </c>
       <c r="R261">
@@ -24745,15 +24744,15 @@
         <v>43646</v>
       </c>
       <c r="G262">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2019</v>
       </c>
       <c r="H262" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>Junio</v>
       </c>
       <c r="I262" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2019-1</v>
       </c>
       <c r="J262">
@@ -24769,7 +24768,7 @@
         <v>35</v>
       </c>
       <c r="Q262" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>274-2019-06-30</v>
       </c>
       <c r="R262">
@@ -24829,15 +24828,15 @@
         <v>43830</v>
       </c>
       <c r="G263">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2019</v>
       </c>
       <c r="H263" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>Diciembre</v>
       </c>
       <c r="I263" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2019-2</v>
       </c>
       <c r="J263">
@@ -24853,7 +24852,7 @@
         <v>35</v>
       </c>
       <c r="Q263" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>274-2019-12-31</v>
       </c>
       <c r="R263">
@@ -24913,15 +24912,15 @@
         <v>43830</v>
       </c>
       <c r="G264">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2019</v>
       </c>
       <c r="H264" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>Diciembre</v>
       </c>
       <c r="I264" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2019-2</v>
       </c>
       <c r="L264" s="4">
@@ -24934,7 +24933,7 @@
         <v>35</v>
       </c>
       <c r="Q264" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>274-2019-12-31</v>
       </c>
       <c r="R264">
@@ -24994,15 +24993,15 @@
         <v>44012</v>
       </c>
       <c r="G265">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2020</v>
       </c>
       <c r="H265" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>Junio</v>
       </c>
       <c r="I265" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2020-1</v>
       </c>
       <c r="J265">
@@ -25018,7 +25017,7 @@
         <v>35</v>
       </c>
       <c r="Q265" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>274-2020-06-30</v>
       </c>
       <c r="R265">
@@ -25078,15 +25077,15 @@
         <v>44196</v>
       </c>
       <c r="G266">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2020</v>
       </c>
       <c r="H266" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>Diciembre</v>
       </c>
       <c r="I266" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2020-2</v>
       </c>
       <c r="J266">
@@ -25102,7 +25101,7 @@
         <v>35</v>
       </c>
       <c r="Q266" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>274-2020-12-31</v>
       </c>
       <c r="R266">
@@ -25162,15 +25161,15 @@
         <v>44196</v>
       </c>
       <c r="G267">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2020</v>
       </c>
       <c r="H267" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>Diciembre</v>
       </c>
       <c r="I267" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2020-2</v>
       </c>
       <c r="L267" s="4">
@@ -25183,7 +25182,7 @@
         <v>35</v>
       </c>
       <c r="Q267" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>274-2020-12-31</v>
       </c>
       <c r="R267">
@@ -25243,15 +25242,15 @@
         <v>44377</v>
       </c>
       <c r="G268">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2021</v>
       </c>
       <c r="H268" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>Junio</v>
       </c>
       <c r="I268" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2021-1</v>
       </c>
       <c r="J268">
@@ -25267,7 +25266,7 @@
         <v>35</v>
       </c>
       <c r="Q268" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>274-2021-06-30</v>
       </c>
       <c r="R268">
@@ -25327,15 +25326,15 @@
         <v>44561</v>
       </c>
       <c r="G269">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2021</v>
       </c>
       <c r="H269" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>Diciembre</v>
       </c>
       <c r="I269" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2021-2</v>
       </c>
       <c r="J269">
@@ -25351,7 +25350,7 @@
         <v>35</v>
       </c>
       <c r="Q269" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>274-2021-12-31</v>
       </c>
       <c r="R269">
@@ -25411,15 +25410,15 @@
         <v>44561</v>
       </c>
       <c r="G270">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2021</v>
       </c>
       <c r="H270" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>Diciembre</v>
       </c>
       <c r="I270" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2021-2</v>
       </c>
       <c r="L270" s="4">
@@ -25432,7 +25431,7 @@
         <v>35</v>
       </c>
       <c r="Q270" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>274-2021-12-31</v>
       </c>
       <c r="R270">
@@ -25600,12 +25599,12 @@
       <c r="L272">
         <v>40663</v>
       </c>
-      <c r="M272" s="8">
-        <f t="shared" ref="M272:M282" si="43">+L272/K272</f>
+      <c r="M272">
+        <f t="shared" ref="M272:M282" si="46">+L272/K272</f>
         <v>1.0212472059673003</v>
       </c>
-      <c r="N272" s="8">
-        <f t="shared" ref="N272:N282" si="44">+L272/K272</f>
+      <c r="N272">
+        <f t="shared" ref="N272:N282" si="47">+L272/K272</f>
         <v>1.0212472059673003</v>
       </c>
       <c r="O272" t="s">
@@ -25688,12 +25687,12 @@
       <c r="L273">
         <v>40663</v>
       </c>
-      <c r="M273" s="8">
-        <f t="shared" si="43"/>
+      <c r="M273">
+        <f t="shared" si="46"/>
         <v>1.0212472059673003</v>
       </c>
-      <c r="N273" s="8">
-        <f t="shared" si="44"/>
+      <c r="N273">
+        <f t="shared" si="47"/>
         <v>1.0212472059673003</v>
       </c>
       <c r="O273" t="s">
@@ -25779,12 +25778,12 @@
       <c r="L274">
         <v>39091</v>
       </c>
-      <c r="M274" s="8">
-        <f t="shared" si="43"/>
+      <c r="M274">
+        <f t="shared" si="46"/>
         <v>0.97612804954178845</v>
       </c>
-      <c r="N274" s="8">
-        <f t="shared" si="44"/>
+      <c r="N274">
+        <f t="shared" si="47"/>
         <v>0.97612804954178845</v>
       </c>
       <c r="O274" t="s">
@@ -25870,12 +25869,12 @@
       <c r="L275">
         <v>40771</v>
       </c>
-      <c r="M275" s="8">
-        <f t="shared" si="43"/>
+      <c r="M275">
+        <f t="shared" si="46"/>
         <v>0.97512616297146681</v>
       </c>
-      <c r="N275" s="8">
-        <f t="shared" si="44"/>
+      <c r="N275">
+        <f t="shared" si="47"/>
         <v>0.97512616297146681</v>
       </c>
       <c r="O275" t="s">
@@ -25958,12 +25957,12 @@
       <c r="L276">
         <v>40770</v>
       </c>
-      <c r="M276" s="8">
-        <f t="shared" si="43"/>
+      <c r="M276">
+        <f t="shared" si="46"/>
         <v>0.97510224582047789</v>
       </c>
-      <c r="N276" s="8">
-        <f t="shared" si="44"/>
+      <c r="N276">
+        <f t="shared" si="47"/>
         <v>0.97510224582047789</v>
       </c>
       <c r="O276" t="s">
@@ -26049,12 +26048,12 @@
       <c r="L277">
         <v>39598</v>
       </c>
-      <c r="M277" s="8">
-        <f t="shared" si="43"/>
+      <c r="M277">
+        <f t="shared" si="46"/>
         <v>1.0202251822842863</v>
       </c>
-      <c r="N277" s="8">
-        <f t="shared" si="44"/>
+      <c r="N277">
+        <f t="shared" si="47"/>
         <v>1.0202251822842863</v>
       </c>
       <c r="O277" t="s">
@@ -26140,12 +26139,12 @@
       <c r="L278">
         <v>41436</v>
       </c>
-      <c r="M278" s="8">
-        <f t="shared" si="43"/>
+      <c r="M278">
+        <f t="shared" si="46"/>
         <v>1.0246037437254272</v>
       </c>
-      <c r="N278" s="8">
-        <f t="shared" si="44"/>
+      <c r="N278">
+        <f t="shared" si="47"/>
         <v>1.0246037437254272</v>
       </c>
       <c r="O278" t="s">
@@ -26228,12 +26227,12 @@
       <c r="L279">
         <v>41436</v>
       </c>
-      <c r="M279" s="8">
-        <f t="shared" si="43"/>
+      <c r="M279">
+        <f t="shared" si="46"/>
         <v>1.0245952787304076</v>
       </c>
-      <c r="N279" s="8">
-        <f t="shared" si="44"/>
+      <c r="N279">
+        <f t="shared" si="47"/>
         <v>1.0245952787304076</v>
       </c>
       <c r="O279" t="s">
@@ -26319,12 +26318,12 @@
       <c r="L280">
         <v>42364</v>
       </c>
-      <c r="M280" s="8">
-        <f t="shared" si="43"/>
+      <c r="M280">
+        <f t="shared" si="46"/>
         <v>1.0584120321790835</v>
       </c>
-      <c r="N280" s="8">
-        <f t="shared" si="44"/>
+      <c r="N280">
+        <f t="shared" si="47"/>
         <v>1.0584120321790835</v>
       </c>
       <c r="O280" t="s">
@@ -26411,12 +26410,12 @@
       <c r="L281" s="4">
         <v>45646</v>
       </c>
-      <c r="M281" s="8">
-        <f t="shared" si="43"/>
+      <c r="M281">
+        <f t="shared" si="46"/>
         <v>1.02031875181617</v>
       </c>
-      <c r="N281" s="8">
-        <f t="shared" si="44"/>
+      <c r="N281">
+        <f t="shared" si="47"/>
         <v>1.02031875181617</v>
       </c>
       <c r="O281" t="s">
@@ -26434,7 +26433,7 @@
       <c r="S281">
         <v>0</v>
       </c>
-      <c r="T281" s="8" t="s">
+      <c r="T281" t="s">
         <v>31</v>
       </c>
       <c r="U281" t="s">
@@ -26496,18 +26495,18 @@
         <f>IF(H282="Junio",G282&amp;"-1",G282&amp;"-2")</f>
         <v>2025-2</v>
       </c>
-      <c r="K282" s="8">
+      <c r="K282">
         <v>44737</v>
       </c>
       <c r="L282" s="4">
         <v>45646</v>
       </c>
-      <c r="M282" s="8">
-        <f t="shared" si="43"/>
+      <c r="M282">
+        <f t="shared" si="46"/>
         <v>1.02031875181617</v>
       </c>
-      <c r="N282" s="8">
-        <f t="shared" si="44"/>
+      <c r="N282">
+        <f t="shared" si="47"/>
         <v>1.02031875181617</v>
       </c>
       <c r="O282" t="s">
@@ -26526,7 +26525,7 @@
       <c r="S282">
         <v>0</v>
       </c>
-      <c r="T282" s="8" t="s">
+      <c r="T282" t="s">
         <v>443</v>
       </c>
       <c r="U282" t="s">
@@ -26602,10 +26601,10 @@
         <f>+K283/L283</f>
         <v>0.87735849056603776</v>
       </c>
-      <c r="O283" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P283" s="8" t="s">
+      <c r="O283" t="s">
+        <v>35</v>
+      </c>
+      <c r="P283" t="s">
         <v>245</v>
       </c>
       <c r="Q283" t="s">
@@ -26685,18 +26684,18 @@
       <c r="L284">
         <v>88</v>
       </c>
-      <c r="M284" s="8">
-        <f t="shared" ref="M284:M293" si="45">+K284/L284</f>
-        <v>1</v>
-      </c>
-      <c r="N284" s="8">
-        <f t="shared" ref="N284:N293" si="46">+K284/L284</f>
-        <v>1</v>
-      </c>
-      <c r="O284" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P284" s="8" t="s">
+      <c r="M284">
+        <f t="shared" ref="M284:M293" si="48">+K284/L284</f>
+        <v>1</v>
+      </c>
+      <c r="N284">
+        <f t="shared" ref="N284:N293" si="49">+K284/L284</f>
+        <v>1</v>
+      </c>
+      <c r="O284" t="s">
+        <v>35</v>
+      </c>
+      <c r="P284" t="s">
         <v>245</v>
       </c>
       <c r="Q284" t="s">
@@ -26773,12 +26772,12 @@
       <c r="L285">
         <v>88</v>
       </c>
-      <c r="M285" s="8">
-        <f t="shared" si="45"/>
-        <v>1</v>
-      </c>
-      <c r="N285" s="8">
-        <f t="shared" si="46"/>
+      <c r="M285">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="N285">
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="O285" t="s">
@@ -26864,18 +26863,18 @@
       <c r="L286">
         <v>89.99</v>
       </c>
-      <c r="M286" s="8">
-        <f t="shared" si="45"/>
+      <c r="M286">
+        <f t="shared" si="48"/>
         <v>0.94454939437715302</v>
       </c>
-      <c r="N286" s="8">
-        <f t="shared" si="46"/>
+      <c r="N286">
+        <f t="shared" si="49"/>
         <v>0.94454939437715302</v>
       </c>
-      <c r="O286" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P286" s="8" t="s">
+      <c r="O286" t="s">
+        <v>35</v>
+      </c>
+      <c r="P286" t="s">
         <v>245</v>
       </c>
       <c r="Q286" t="s">
@@ -26955,18 +26954,18 @@
       <c r="L287">
         <v>84.5</v>
       </c>
-      <c r="M287" s="8">
-        <f t="shared" si="45"/>
+      <c r="M287">
+        <f t="shared" si="48"/>
         <v>1.0059171597633136</v>
       </c>
-      <c r="N287" s="8">
-        <f t="shared" si="46"/>
+      <c r="N287">
+        <f t="shared" si="49"/>
         <v>1.0059171597633136</v>
       </c>
-      <c r="O287" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P287" s="8" t="s">
+      <c r="O287" t="s">
+        <v>35</v>
+      </c>
+      <c r="P287" t="s">
         <v>245</v>
       </c>
       <c r="Q287" t="s">
@@ -27043,12 +27042,12 @@
       <c r="L288">
         <v>84.5</v>
       </c>
-      <c r="M288" s="8">
-        <f t="shared" si="45"/>
+      <c r="M288">
+        <f t="shared" si="48"/>
         <v>1.0059171597633136</v>
       </c>
-      <c r="N288" s="8">
-        <f t="shared" si="46"/>
+      <c r="N288">
+        <f t="shared" si="49"/>
         <v>1.0059171597633136</v>
       </c>
       <c r="O288" t="s">
@@ -27134,18 +27133,18 @@
       <c r="L289">
         <v>83.65</v>
       </c>
-      <c r="M289" s="8">
-        <f t="shared" si="45"/>
+      <c r="M289">
+        <f t="shared" si="48"/>
         <v>0.89659294680215174</v>
       </c>
-      <c r="N289" s="8">
-        <f t="shared" si="46"/>
+      <c r="N289">
+        <f t="shared" si="49"/>
         <v>0.89659294680215174</v>
       </c>
-      <c r="O289" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P289" s="8" t="s">
+      <c r="O289" t="s">
+        <v>35</v>
+      </c>
+      <c r="P289" t="s">
         <v>245</v>
       </c>
       <c r="Q289" t="s">
@@ -27225,18 +27224,18 @@
       <c r="L290">
         <v>82.68</v>
       </c>
-      <c r="M290" s="8">
-        <f t="shared" si="45"/>
+      <c r="M290">
+        <f t="shared" si="48"/>
         <v>0.90711175616835982</v>
       </c>
-      <c r="N290" s="8">
-        <f t="shared" si="46"/>
+      <c r="N290">
+        <f t="shared" si="49"/>
         <v>0.90711175616835982</v>
       </c>
-      <c r="O290" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P290" s="8" t="s">
+      <c r="O290" t="s">
+        <v>35</v>
+      </c>
+      <c r="P290" t="s">
         <v>245</v>
       </c>
       <c r="Q290" t="s">
@@ -27313,12 +27312,12 @@
       <c r="L291">
         <v>82.68</v>
       </c>
-      <c r="M291" s="8">
-        <f t="shared" si="45"/>
+      <c r="M291">
+        <f t="shared" si="48"/>
         <v>0.90711175616835982</v>
       </c>
-      <c r="N291" s="8">
-        <f t="shared" si="46"/>
+      <c r="N291">
+        <f t="shared" si="49"/>
         <v>0.90711175616835982</v>
       </c>
       <c r="O291" t="s">
@@ -27404,12 +27403,12 @@
       <c r="L292">
         <v>84.18</v>
       </c>
-      <c r="M292" s="8">
-        <f t="shared" si="45"/>
+      <c r="M292">
+        <f t="shared" si="48"/>
         <v>0.96222380612972191</v>
       </c>
-      <c r="N292" s="8">
-        <f t="shared" si="46"/>
+      <c r="N292">
+        <f t="shared" si="49"/>
         <v>0.96222380612972191</v>
       </c>
       <c r="O292" t="s">
@@ -27477,13 +27476,13 @@
       <c r="F293" s="3">
         <v>46022</v>
       </c>
-      <c r="G293" s="8">
+      <c r="G293">
         <v>2025</v>
       </c>
-      <c r="H293" s="8" t="s">
+      <c r="H293" t="s">
         <v>44</v>
       </c>
-      <c r="I293" s="8" t="s">
+      <c r="I293" t="s">
         <v>465</v>
       </c>
       <c r="J293">
@@ -27495,12 +27494,12 @@
       <c r="L293">
         <v>82.81</v>
       </c>
-      <c r="M293" s="8">
-        <f t="shared" si="45"/>
+      <c r="M293">
+        <f t="shared" si="48"/>
         <v>0.97814273638449456</v>
       </c>
-      <c r="N293" s="8">
-        <f t="shared" si="46"/>
+      <c r="N293">
+        <f t="shared" si="49"/>
         <v>0.97814273638449456</v>
       </c>
       <c r="O293" t="s">
@@ -27518,7 +27517,7 @@
       <c r="S293">
         <v>1</v>
       </c>
-      <c r="T293" s="8" t="s">
+      <c r="T293" t="s">
         <v>31</v>
       </c>
       <c r="U293" t="s">
@@ -27594,10 +27593,10 @@
         <f>+K294/L294</f>
         <v>1.1114016736401673</v>
       </c>
-      <c r="O294" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P294" s="8" t="s">
+      <c r="O294" t="s">
+        <v>35</v>
+      </c>
+      <c r="P294" t="s">
         <v>245</v>
       </c>
       <c r="Q294" t="s">
@@ -27674,18 +27673,18 @@
       <c r="L295">
         <v>73.290000000000006</v>
       </c>
-      <c r="M295" s="8">
-        <f t="shared" ref="M295:M301" si="47">+K295/L295</f>
+      <c r="M295">
+        <f t="shared" ref="M295:M301" si="50">+K295/L295</f>
         <v>1.1597762314094691</v>
       </c>
-      <c r="N295" s="8">
-        <f t="shared" ref="N295:N301" si="48">+K295/L295</f>
+      <c r="N295">
+        <f t="shared" ref="N295:N301" si="51">+K295/L295</f>
         <v>1.1597762314094691</v>
       </c>
-      <c r="O295" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P295" s="8" t="s">
+      <c r="O295" t="s">
+        <v>35</v>
+      </c>
+      <c r="P295" t="s">
         <v>245</v>
       </c>
       <c r="Q295" t="s">
@@ -27759,12 +27758,12 @@
       <c r="L296">
         <v>73.290000000000006</v>
       </c>
-      <c r="M296" s="8">
-        <f t="shared" si="47"/>
+      <c r="M296">
+        <f t="shared" si="50"/>
         <v>1.1597762314094691</v>
       </c>
-      <c r="N296" s="8">
-        <f t="shared" si="48"/>
+      <c r="N296">
+        <f t="shared" si="51"/>
         <v>1.1597762314094691</v>
       </c>
       <c r="O296" t="s">
@@ -27847,18 +27846,18 @@
       <c r="L297">
         <v>71.180000000000007</v>
       </c>
-      <c r="M297" s="8">
-        <f t="shared" si="47"/>
+      <c r="M297">
+        <f t="shared" si="50"/>
         <v>1.0255689800505758</v>
       </c>
-      <c r="N297" s="8">
-        <f t="shared" si="48"/>
+      <c r="N297">
+        <f t="shared" si="51"/>
         <v>1.0255689800505758</v>
       </c>
-      <c r="O297" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P297" s="8" t="s">
+      <c r="O297" t="s">
+        <v>35</v>
+      </c>
+      <c r="P297" t="s">
         <v>245</v>
       </c>
       <c r="Q297" t="s">
@@ -27935,18 +27934,18 @@
       <c r="L298">
         <v>71.239999999999995</v>
       </c>
-      <c r="M298" s="8">
-        <f t="shared" si="47"/>
+      <c r="M298">
+        <f t="shared" si="50"/>
         <v>1.0247052217855139</v>
       </c>
-      <c r="N298" s="8">
-        <f t="shared" si="48"/>
+      <c r="N298">
+        <f t="shared" si="51"/>
         <v>1.0247052217855139</v>
       </c>
-      <c r="O298" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P298" s="8" t="s">
+      <c r="O298" t="s">
+        <v>35</v>
+      </c>
+      <c r="P298" t="s">
         <v>245</v>
       </c>
       <c r="Q298" t="s">
@@ -28020,12 +28019,12 @@
       <c r="L299">
         <v>71.239999999999995</v>
       </c>
-      <c r="M299" s="8">
-        <f t="shared" si="47"/>
+      <c r="M299">
+        <f t="shared" si="50"/>
         <v>1.0247052217855139</v>
       </c>
-      <c r="N299" s="8">
-        <f t="shared" si="48"/>
+      <c r="N299">
+        <f t="shared" si="51"/>
         <v>1.0247052217855139</v>
       </c>
       <c r="O299" t="s">
@@ -28108,12 +28107,12 @@
       <c r="L300">
         <v>69.39</v>
       </c>
-      <c r="M300" s="8">
-        <f t="shared" si="47"/>
+      <c r="M300">
+        <f t="shared" si="50"/>
         <v>1.0232021905173656</v>
       </c>
-      <c r="N300" s="8">
-        <f t="shared" si="48"/>
+      <c r="N300">
+        <f t="shared" si="51"/>
         <v>1.0232021905173656</v>
       </c>
       <c r="O300" t="s">
@@ -28178,13 +28177,13 @@
       <c r="F301" s="3">
         <v>46022</v>
       </c>
-      <c r="G301" s="8">
+      <c r="G301">
         <v>2025</v>
       </c>
-      <c r="H301" s="8" t="s">
+      <c r="H301" t="s">
         <v>44</v>
       </c>
-      <c r="I301" s="8" t="s">
+      <c r="I301" t="s">
         <v>465</v>
       </c>
       <c r="J301">
@@ -28196,12 +28195,12 @@
       <c r="L301">
         <v>68.400000000000006</v>
       </c>
-      <c r="M301" s="8">
-        <f t="shared" si="47"/>
+      <c r="M301">
+        <f t="shared" si="50"/>
         <v>1.0380116959064327</v>
       </c>
-      <c r="N301" s="8">
-        <f t="shared" si="48"/>
+      <c r="N301">
+        <f t="shared" si="51"/>
         <v>1.0380116959064327</v>
       </c>
       <c r="O301" t="s">
@@ -28219,7 +28218,7 @@
       <c r="S301">
         <v>1</v>
       </c>
-      <c r="T301" s="8" t="s">
+      <c r="T301" t="s">
         <v>31</v>
       </c>
       <c r="U301" t="s">
@@ -33894,12 +33893,12 @@
       <c r="L368">
         <v>46635</v>
       </c>
-      <c r="M368" s="8">
-        <f t="shared" ref="M368:M371" si="49">+L368/K368</f>
+      <c r="M368">
+        <f t="shared" ref="M368:M371" si="52">+L368/K368</f>
         <v>0.98094276519214996</v>
       </c>
-      <c r="N368" s="8">
-        <f t="shared" ref="N368:N371" si="50">+L368/K368</f>
+      <c r="N368">
+        <f t="shared" ref="N368:N371" si="53">+L368/K368</f>
         <v>0.98094276519214996</v>
       </c>
       <c r="O368" t="s">
@@ -33982,12 +33981,12 @@
       <c r="L369">
         <v>88704</v>
       </c>
-      <c r="M369" s="8">
-        <f t="shared" si="49"/>
+      <c r="M369">
+        <f t="shared" si="52"/>
         <v>1.119505269136114</v>
       </c>
-      <c r="N369" s="8">
-        <f t="shared" si="50"/>
+      <c r="N369">
+        <f t="shared" si="53"/>
         <v>1.119505269136114</v>
       </c>
       <c r="O369" t="s">
@@ -34073,12 +34072,12 @@
       <c r="L370">
         <v>31244</v>
       </c>
-      <c r="M370" s="8">
-        <f t="shared" si="49"/>
+      <c r="M370">
+        <f t="shared" si="52"/>
         <v>0.93885032603143126</v>
       </c>
-      <c r="N370" s="8">
-        <f t="shared" si="50"/>
+      <c r="N370">
+        <f t="shared" si="53"/>
         <v>0.93885032603143126</v>
       </c>
       <c r="O370" t="s">
@@ -34146,13 +34145,13 @@
       <c r="F371" s="3">
         <v>46022</v>
       </c>
-      <c r="G371" s="8">
+      <c r="G371">
         <v>2025</v>
       </c>
-      <c r="H371" s="8" t="s">
+      <c r="H371" t="s">
         <v>44</v>
       </c>
-      <c r="I371" s="8" t="s">
+      <c r="I371" t="s">
         <v>465</v>
       </c>
       <c r="J371">
@@ -34164,12 +34163,12 @@
       <c r="L371">
         <v>38989</v>
       </c>
-      <c r="M371" s="8">
-        <f t="shared" si="49"/>
+      <c r="M371">
+        <f t="shared" si="52"/>
         <v>0.78106093994150405</v>
       </c>
-      <c r="N371" s="8">
-        <f t="shared" si="50"/>
+      <c r="N371">
+        <f t="shared" si="53"/>
         <v>0.78106093994150405</v>
       </c>
       <c r="O371" t="s">
@@ -34187,7 +34186,7 @@
       <c r="S371">
         <v>0</v>
       </c>
-      <c r="T371" s="8" t="s">
+      <c r="T371" t="s">
         <v>31</v>
       </c>
       <c r="U371" t="s">
@@ -34253,7 +34252,7 @@
         <v>6.7</v>
       </c>
       <c r="M372">
-        <f>+L372/K372</f>
+        <f t="shared" ref="M372:M377" si="54">+L372/K372</f>
         <v>1.1754385964912282</v>
       </c>
       <c r="N372">
@@ -34343,12 +34342,12 @@
       <c r="L373">
         <v>6.25</v>
       </c>
-      <c r="M373" s="8">
-        <f>+L373/K373</f>
+      <c r="M373">
+        <f t="shared" si="54"/>
         <v>1.25</v>
       </c>
-      <c r="N373" s="8">
-        <f t="shared" ref="N373:N377" si="51">+L373/K373</f>
+      <c r="N373">
+        <f t="shared" ref="N373:N377" si="55">+L373/K373</f>
         <v>1.25</v>
       </c>
       <c r="O373" t="s">
@@ -34431,12 +34430,12 @@
       <c r="L374">
         <v>6.25</v>
       </c>
-      <c r="M374" s="8">
-        <f>+L374/K374</f>
+      <c r="M374">
+        <f t="shared" si="54"/>
         <v>1.25</v>
       </c>
-      <c r="N374" s="8">
-        <f t="shared" si="51"/>
+      <c r="N374">
+        <f t="shared" si="55"/>
         <v>1.25</v>
       </c>
       <c r="O374" t="s">
@@ -34522,12 +34521,12 @@
       <c r="L375">
         <v>4.96</v>
       </c>
-      <c r="M375" s="8">
-        <f>+L375/K375</f>
+      <c r="M375">
+        <f t="shared" si="54"/>
         <v>0.99199999999999999</v>
       </c>
-      <c r="N375" s="8">
-        <f t="shared" si="51"/>
+      <c r="N375">
+        <f t="shared" si="55"/>
         <v>0.99199999999999999</v>
       </c>
       <c r="O375" t="s">
@@ -34610,12 +34609,12 @@
       <c r="L376">
         <v>4.96</v>
       </c>
-      <c r="M376" s="8">
-        <f>+L376/K376</f>
+      <c r="M376">
+        <f t="shared" si="54"/>
         <v>0.99199999999999999</v>
       </c>
-      <c r="N376" s="8">
-        <f t="shared" si="51"/>
+      <c r="N376">
+        <f t="shared" si="55"/>
         <v>0.99199999999999999</v>
       </c>
       <c r="O376" t="s">
@@ -34695,18 +34694,18 @@
       <c r="J377">
         <v>2</v>
       </c>
-      <c r="K377" s="8">
+      <c r="K377">
         <v>5</v>
       </c>
-      <c r="L377" s="8">
+      <c r="L377">
         <v>3.82</v>
       </c>
-      <c r="M377" s="8">
-        <f>+L377/K377</f>
+      <c r="M377">
+        <f t="shared" si="54"/>
         <v>0.76400000000000001</v>
       </c>
-      <c r="N377" s="8">
-        <f t="shared" si="51"/>
+      <c r="N377">
+        <f t="shared" si="55"/>
         <v>0.76400000000000001</v>
       </c>
       <c r="O377" t="s">
@@ -35034,7 +35033,7 @@
         <v>0.76249999999999996</v>
       </c>
       <c r="N381">
-        <f>+L381/K381</f>
+        <f t="shared" ref="N381:N386" si="56">+L381/K381</f>
         <v>0.76249999999999996</v>
       </c>
       <c r="O381" t="s">
@@ -35120,12 +35119,12 @@
       <c r="L382">
         <v>77</v>
       </c>
-      <c r="M382" s="8">
-        <f t="shared" ref="M382:M385" si="52">+L382/K382</f>
+      <c r="M382">
+        <f t="shared" ref="M382:M385" si="57">+L382/K382</f>
         <v>0.71296296296296291</v>
       </c>
-      <c r="N382" s="8">
-        <f>+L382/K382</f>
+      <c r="N382">
+        <f t="shared" si="56"/>
         <v>0.71296296296296291</v>
       </c>
       <c r="O382" t="s">
@@ -35208,12 +35207,12 @@
       <c r="L383">
         <v>138</v>
       </c>
-      <c r="M383" s="8">
-        <f t="shared" si="52"/>
+      <c r="M383">
+        <f t="shared" si="57"/>
         <v>0.73404255319148937</v>
       </c>
-      <c r="N383" s="8">
-        <f>+L383/K383</f>
+      <c r="N383">
+        <f t="shared" si="56"/>
         <v>0.73404255319148937</v>
       </c>
       <c r="O383" t="s">
@@ -35299,12 +35298,12 @@
       <c r="L384">
         <v>72</v>
       </c>
-      <c r="M384" s="8">
-        <f t="shared" si="52"/>
+      <c r="M384">
+        <f t="shared" si="57"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="N384" s="8">
-        <f>+L384/K384</f>
+      <c r="N384">
+        <f t="shared" si="56"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="O384" t="s">
@@ -35372,13 +35371,13 @@
       <c r="F385" s="3">
         <v>46022</v>
       </c>
-      <c r="G385" s="8">
+      <c r="G385">
         <v>2025</v>
       </c>
-      <c r="H385" s="8" t="s">
+      <c r="H385" t="s">
         <v>44</v>
       </c>
-      <c r="I385" s="8" t="s">
+      <c r="I385" t="s">
         <v>465</v>
       </c>
       <c r="J385">
@@ -35392,12 +35391,12 @@
         <f>94+24</f>
         <v>118</v>
       </c>
-      <c r="M385" s="8">
-        <f t="shared" si="52"/>
+      <c r="M385">
+        <f t="shared" si="57"/>
         <v>1.0825688073394495</v>
       </c>
-      <c r="N385" s="8">
-        <f>+L385/K385</f>
+      <c r="N385">
+        <f t="shared" si="56"/>
         <v>1.0825688073394495</v>
       </c>
       <c r="O385" t="s">
@@ -35415,7 +35414,7 @@
       <c r="S385">
         <v>0</v>
       </c>
-      <c r="T385" s="8" t="s">
+      <c r="T385" t="s">
         <v>31</v>
       </c>
       <c r="U385" t="s">
@@ -35488,7 +35487,7 @@
         <v>1.5027390438247012</v>
       </c>
       <c r="N386">
-        <f>+L386/K386</f>
+        <f t="shared" si="56"/>
         <v>1.5027390438247012</v>
       </c>
       <c r="O386" t="s">
@@ -35571,12 +35570,12 @@
       <c r="L387">
         <v>24140</v>
       </c>
-      <c r="M387" s="8">
-        <f t="shared" ref="M387:M393" si="53">+L387/K387</f>
+      <c r="M387">
+        <f t="shared" ref="M387:M393" si="58">+L387/K387</f>
         <v>1.5027390438247012</v>
       </c>
-      <c r="N387" s="8">
-        <f t="shared" ref="N387:N393" si="54">+L387/K387</f>
+      <c r="N387">
+        <f t="shared" ref="N387:N393" si="59">+L387/K387</f>
         <v>1.5027390438247012</v>
       </c>
       <c r="O387" t="s">
@@ -35662,12 +35661,12 @@
       <c r="L388">
         <v>26403.087925999898</v>
       </c>
-      <c r="M388" s="8">
-        <f t="shared" si="53"/>
+      <c r="M388">
+        <f t="shared" si="58"/>
         <v>1.0126417845079374</v>
       </c>
-      <c r="N388" s="8">
-        <f t="shared" si="54"/>
+      <c r="N388">
+        <f t="shared" si="59"/>
         <v>1.0126417845079374</v>
       </c>
       <c r="O388" t="s">
@@ -35750,12 +35749,12 @@
       <c r="L389">
         <v>26403.087925999949</v>
       </c>
-      <c r="M389" s="8">
-        <f t="shared" si="53"/>
+      <c r="M389">
+        <f t="shared" si="58"/>
         <v>1.0126417845079394</v>
       </c>
-      <c r="N389" s="8">
-        <f t="shared" si="54"/>
+      <c r="N389">
+        <f t="shared" si="59"/>
         <v>1.0126417845079394</v>
       </c>
       <c r="O389" t="s">
@@ -35841,12 +35840,12 @@
       <c r="L390">
         <v>29467.922112</v>
       </c>
-      <c r="M390" s="8">
-        <f t="shared" si="53"/>
+      <c r="M390">
+        <f t="shared" si="58"/>
         <v>1.0909960747143497</v>
       </c>
-      <c r="N390" s="8">
-        <f t="shared" si="54"/>
+      <c r="N390">
+        <f t="shared" si="59"/>
         <v>1.0909960747143497</v>
       </c>
       <c r="O390" t="s">
@@ -35929,12 +35928,12 @@
       <c r="L391">
         <v>29467.922112</v>
       </c>
-      <c r="M391" s="8">
-        <f t="shared" si="53"/>
+      <c r="M391">
+        <f t="shared" si="58"/>
         <v>1.0909960747143497</v>
       </c>
-      <c r="N391" s="8">
-        <f t="shared" si="54"/>
+      <c r="N391">
+        <f t="shared" si="59"/>
         <v>1.0909960747143497</v>
       </c>
       <c r="O391" t="s">
@@ -36021,12 +36020,12 @@
         <f>32126882709.8297/1000000</f>
         <v>32126.882709829701</v>
       </c>
-      <c r="M392" s="8">
-        <f t="shared" si="53"/>
+      <c r="M392">
+        <f t="shared" si="58"/>
         <v>1.0000124185469585</v>
       </c>
-      <c r="N392" s="8">
-        <f t="shared" si="54"/>
+      <c r="N392">
+        <f t="shared" si="59"/>
         <v>1.0000124185469585</v>
       </c>
       <c r="O392" t="s">
@@ -36106,16 +36105,16 @@
       <c r="K393">
         <v>32126.483745582696</v>
       </c>
-      <c r="L393" s="8">
+      <c r="L393">
         <f>32126882709.8297/1000000</f>
         <v>32126.882709829701</v>
       </c>
-      <c r="M393" s="8">
-        <f t="shared" si="53"/>
+      <c r="M393">
+        <f t="shared" si="58"/>
         <v>1.0000124185469585</v>
       </c>
-      <c r="N393" s="8">
-        <f t="shared" si="54"/>
+      <c r="N393">
+        <f t="shared" si="59"/>
         <v>1.0000124185469585</v>
       </c>
       <c r="O393" t="s">
@@ -36614,15 +36613,15 @@
         <v>43281</v>
       </c>
       <c r="G399">
-        <f t="shared" ref="G399:G410" si="55">YEAR(F399)</f>
+        <f t="shared" ref="G399:G410" si="60">YEAR(F399)</f>
         <v>2018</v>
       </c>
       <c r="H399" t="str">
-        <f t="shared" ref="H399:H410" si="56">PROPER(TEXT(F399,"mmmm"))</f>
+        <f t="shared" ref="H399:H410" si="61">PROPER(TEXT(F399,"mmmm"))</f>
         <v>Junio</v>
       </c>
       <c r="I399" t="str">
-        <f t="shared" ref="I399:I410" si="57">IF(H399="Junio",G399&amp;"-1",G399&amp;"-2")</f>
+        <f t="shared" ref="I399:I410" si="62">IF(H399="Junio",G399&amp;"-1",G399&amp;"-2")</f>
         <v>2018-1</v>
       </c>
       <c r="J399">
@@ -36638,7 +36637,7 @@
         <v>35</v>
       </c>
       <c r="Q399" t="str">
-        <f t="shared" ref="Q399:Q410" si="58">A399&amp;"-"&amp;TEXT(F399,"yyyy-mm-dd")</f>
+        <f t="shared" ref="Q399:Q410" si="63">A399&amp;"-"&amp;TEXT(F399,"yyyy-mm-dd")</f>
         <v>379-2018-06-30</v>
       </c>
       <c r="R399">
@@ -36698,15 +36697,15 @@
         <v>43465</v>
       </c>
       <c r="G400">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>2018</v>
       </c>
       <c r="H400" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>Diciembre</v>
       </c>
       <c r="I400" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>2018-2</v>
       </c>
       <c r="L400">
@@ -36719,7 +36718,7 @@
         <v>35</v>
       </c>
       <c r="Q400" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>379-2018-12-31</v>
       </c>
       <c r="R400">
@@ -36779,15 +36778,15 @@
         <v>43465</v>
       </c>
       <c r="G401">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>2018</v>
       </c>
       <c r="H401" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>Diciembre</v>
       </c>
       <c r="I401" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>2018-2</v>
       </c>
       <c r="J401">
@@ -36803,7 +36802,7 @@
         <v>35</v>
       </c>
       <c r="Q401" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>379-2018-12-31</v>
       </c>
       <c r="R401">
@@ -36863,15 +36862,15 @@
         <v>43646</v>
       </c>
       <c r="G402">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>2019</v>
       </c>
       <c r="H402" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>Junio</v>
       </c>
       <c r="I402" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>2019-1</v>
       </c>
       <c r="J402">
@@ -36887,7 +36886,7 @@
         <v>35</v>
       </c>
       <c r="Q402" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>379-2019-06-30</v>
       </c>
       <c r="R402">
@@ -36947,15 +36946,15 @@
         <v>43830</v>
       </c>
       <c r="G403">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>2019</v>
       </c>
       <c r="H403" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>Diciembre</v>
       </c>
       <c r="I403" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>2019-2</v>
       </c>
       <c r="J403">
@@ -36971,7 +36970,7 @@
         <v>35</v>
       </c>
       <c r="Q403" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>379-2019-12-31</v>
       </c>
       <c r="R403">
@@ -37031,15 +37030,15 @@
         <v>43830</v>
       </c>
       <c r="G404">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>2019</v>
       </c>
       <c r="H404" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>Diciembre</v>
       </c>
       <c r="I404" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>2019-2</v>
       </c>
       <c r="L404">
@@ -37052,7 +37051,7 @@
         <v>35</v>
       </c>
       <c r="Q404" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>379-2019-12-31</v>
       </c>
       <c r="R404">
@@ -37112,15 +37111,15 @@
         <v>44012</v>
       </c>
       <c r="G405">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>2020</v>
       </c>
       <c r="H405" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>Junio</v>
       </c>
       <c r="I405" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>2020-1</v>
       </c>
       <c r="J405">
@@ -37136,7 +37135,7 @@
         <v>35</v>
       </c>
       <c r="Q405" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>379-2020-06-30</v>
       </c>
       <c r="R405">
@@ -37196,15 +37195,15 @@
         <v>44196</v>
       </c>
       <c r="G406">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>2020</v>
       </c>
       <c r="H406" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>Diciembre</v>
       </c>
       <c r="I406" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>2020-2</v>
       </c>
       <c r="J406">
@@ -37220,7 +37219,7 @@
         <v>35</v>
       </c>
       <c r="Q406" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>379-2020-12-31</v>
       </c>
       <c r="R406">
@@ -37280,15 +37279,15 @@
         <v>44196</v>
       </c>
       <c r="G407">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>2020</v>
       </c>
       <c r="H407" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>Diciembre</v>
       </c>
       <c r="I407" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>2020-2</v>
       </c>
       <c r="L407">
@@ -37301,7 +37300,7 @@
         <v>35</v>
       </c>
       <c r="Q407" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>379-2020-12-31</v>
       </c>
       <c r="R407">
@@ -37361,15 +37360,15 @@
         <v>44377</v>
       </c>
       <c r="G408">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>2021</v>
       </c>
       <c r="H408" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>Junio</v>
       </c>
       <c r="I408" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>2021-1</v>
       </c>
       <c r="J408">
@@ -37385,7 +37384,7 @@
         <v>35</v>
       </c>
       <c r="Q408" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>379-2021-06-30</v>
       </c>
       <c r="R408">
@@ -37445,15 +37444,15 @@
         <v>44561</v>
       </c>
       <c r="G409">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>2021</v>
       </c>
       <c r="H409" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>Diciembre</v>
       </c>
       <c r="I409" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>2021-2</v>
       </c>
       <c r="J409">
@@ -37469,7 +37468,7 @@
         <v>35</v>
       </c>
       <c r="Q409" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>379-2021-12-31</v>
       </c>
       <c r="R409">
@@ -37529,15 +37528,15 @@
         <v>44561</v>
       </c>
       <c r="G410">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>2021</v>
       </c>
       <c r="H410" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>Diciembre</v>
       </c>
       <c r="I410" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>2021-2</v>
       </c>
       <c r="L410">
@@ -37550,7 +37549,7 @@
         <v>35</v>
       </c>
       <c r="Q410" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>379-2021-12-31</v>
       </c>
       <c r="R410">
@@ -37718,12 +37717,12 @@
       <c r="L412">
         <v>9578</v>
       </c>
-      <c r="M412" s="8">
-        <f t="shared" ref="M412:M421" si="59">+L412/K412</f>
+      <c r="M412">
+        <f t="shared" ref="M412:M421" si="64">+L412/K412</f>
         <v>1.0419930374238469</v>
       </c>
-      <c r="N412" s="8">
-        <f t="shared" ref="N412:N421" si="60">+L412/K412</f>
+      <c r="N412">
+        <f t="shared" ref="N412:N421" si="65">+L412/K412</f>
         <v>1.0419930374238469</v>
       </c>
       <c r="O412" t="s">
@@ -37806,12 +37805,12 @@
       <c r="L413">
         <v>20590</v>
       </c>
-      <c r="M413" s="8">
-        <f t="shared" si="59"/>
+      <c r="M413">
+        <f t="shared" si="64"/>
         <v>1.0295000000000001</v>
       </c>
-      <c r="N413" s="8">
-        <f t="shared" si="60"/>
+      <c r="N413">
+        <f t="shared" si="65"/>
         <v>1.0295000000000001</v>
       </c>
       <c r="O413" t="s">
@@ -37897,12 +37896,12 @@
       <c r="L414">
         <v>12382</v>
       </c>
-      <c r="M414" s="8">
-        <f t="shared" si="59"/>
+      <c r="M414">
+        <f t="shared" si="64"/>
         <v>1.0207749381698268</v>
       </c>
-      <c r="N414" s="8">
-        <f t="shared" si="60"/>
+      <c r="N414">
+        <f t="shared" si="65"/>
         <v>1.0207749381698268</v>
       </c>
       <c r="O414" t="s">
@@ -37988,12 +37987,12 @@
       <c r="L415">
         <v>10605</v>
       </c>
-      <c r="M415" s="8">
-        <f t="shared" si="59"/>
+      <c r="M415">
+        <f t="shared" si="64"/>
         <v>1.0738153098420413</v>
       </c>
-      <c r="N415" s="8">
-        <f t="shared" si="60"/>
+      <c r="N415">
+        <f t="shared" si="65"/>
         <v>1.0738153098420413</v>
       </c>
       <c r="O415" t="s">
@@ -38076,12 +38075,12 @@
       <c r="L416">
         <v>22987</v>
       </c>
-      <c r="M416" s="8">
-        <f t="shared" si="59"/>
+      <c r="M416">
+        <f t="shared" si="64"/>
         <v>1.0445787512496592</v>
       </c>
-      <c r="N416" s="8">
-        <f t="shared" si="60"/>
+      <c r="N416">
+        <f t="shared" si="65"/>
         <v>1.0445787512496592</v>
       </c>
       <c r="O416" t="s">
@@ -38167,12 +38166,12 @@
       <c r="L417">
         <v>12987</v>
       </c>
-      <c r="M417" s="8">
-        <f t="shared" si="59"/>
+      <c r="M417">
+        <f t="shared" si="64"/>
         <v>0.95562913907284763</v>
       </c>
-      <c r="N417" s="8">
-        <f t="shared" si="60"/>
+      <c r="N417">
+        <f t="shared" si="65"/>
         <v>0.95562913907284763</v>
       </c>
       <c r="O417" t="s">
@@ -38258,12 +38257,12 @@
       <c r="L418">
         <v>10569</v>
       </c>
-      <c r="M418" s="8">
-        <f t="shared" si="59"/>
+      <c r="M418">
+        <f t="shared" si="64"/>
         <v>0.99007025761124123</v>
       </c>
-      <c r="N418" s="8">
-        <f t="shared" si="60"/>
+      <c r="N418">
+        <f t="shared" si="65"/>
         <v>0.99007025761124123</v>
       </c>
       <c r="O418" t="s">
@@ -38346,12 +38345,12 @@
       <c r="L419">
         <v>23556</v>
       </c>
-      <c r="M419" s="8">
-        <f t="shared" si="59"/>
+      <c r="M419">
+        <f t="shared" si="64"/>
         <v>0.97078096023078508</v>
       </c>
-      <c r="N419" s="8">
-        <f t="shared" si="60"/>
+      <c r="N419">
+        <f t="shared" si="65"/>
         <v>0.97078096023078508</v>
       </c>
       <c r="O419" t="s">
@@ -38437,12 +38436,12 @@
       <c r="L420">
         <v>14141</v>
       </c>
-      <c r="M420" s="8">
-        <f t="shared" si="59"/>
+      <c r="M420">
+        <f t="shared" si="64"/>
         <v>1.0390917775001838</v>
       </c>
-      <c r="N420" s="8">
-        <f t="shared" si="60"/>
+      <c r="N420">
+        <f t="shared" si="65"/>
         <v>1.0390917775001838</v>
       </c>
       <c r="O420" t="s">
@@ -38525,18 +38524,18 @@
       <c r="J421">
         <v>2</v>
       </c>
-      <c r="K421" s="8">
+      <c r="K421">
         <v>11019</v>
       </c>
       <c r="L421">
         <v>11285</v>
       </c>
-      <c r="M421" s="8">
-        <f t="shared" si="59"/>
+      <c r="M421">
+        <f t="shared" si="64"/>
         <v>1.0241401216081314</v>
       </c>
-      <c r="N421" s="8">
-        <f t="shared" si="60"/>
+      <c r="N421">
+        <f t="shared" si="65"/>
         <v>1.0241401216081314</v>
       </c>
       <c r="O421" t="s">
@@ -38711,12 +38710,12 @@
       <c r="L423">
         <v>10035.311890999999</v>
       </c>
-      <c r="M423" s="8">
-        <f t="shared" ref="M423:M428" si="61">L423/K423</f>
+      <c r="M423">
+        <f t="shared" ref="M423:M428" si="66">L423/K423</f>
         <v>0.75108988032332902</v>
       </c>
-      <c r="N423" s="8">
-        <f t="shared" ref="N423:N428" si="62">L423/K423</f>
+      <c r="N423">
+        <f t="shared" ref="N423:N428" si="67">L423/K423</f>
         <v>0.75108988032332902</v>
       </c>
       <c r="O423" t="s">
@@ -38802,12 +38801,12 @@
       <c r="L424">
         <v>17697.080526999998</v>
       </c>
-      <c r="M424" s="8">
-        <f t="shared" si="61"/>
+      <c r="M424">
+        <f t="shared" si="66"/>
         <v>1.2553149921891629</v>
       </c>
-      <c r="N424" s="8">
-        <f t="shared" si="62"/>
+      <c r="N424">
+        <f t="shared" si="67"/>
         <v>1.2553149921891629</v>
       </c>
       <c r="O424" t="s">
@@ -38890,12 +38889,12 @@
       <c r="L425">
         <v>17697.080526999998</v>
       </c>
-      <c r="M425" s="8">
-        <f t="shared" si="61"/>
+      <c r="M425">
+        <f t="shared" si="66"/>
         <v>1.2553149921891629</v>
       </c>
-      <c r="N425" s="8">
-        <f t="shared" si="62"/>
+      <c r="N425">
+        <f t="shared" si="67"/>
         <v>1.2553149921891629</v>
       </c>
       <c r="O425" t="s">
@@ -38981,12 +38980,12 @@
       <c r="L426">
         <v>13243.138849000001</v>
       </c>
-      <c r="M426" s="8">
-        <f t="shared" si="61"/>
+      <c r="M426">
+        <f t="shared" si="66"/>
         <v>0.85398321724869886</v>
       </c>
-      <c r="N426" s="8">
-        <f t="shared" si="62"/>
+      <c r="N426">
+        <f t="shared" si="67"/>
         <v>0.85398321724869886</v>
       </c>
       <c r="O426" t="s">
@@ -39069,12 +39068,12 @@
       <c r="L427">
         <v>13243.138849000001</v>
       </c>
-      <c r="M427" s="8">
-        <f t="shared" si="61"/>
+      <c r="M427">
+        <f t="shared" si="66"/>
         <v>0.85398321724869886</v>
       </c>
-      <c r="N427" s="8">
-        <f t="shared" si="62"/>
+      <c r="N427">
+        <f t="shared" si="67"/>
         <v>0.85398321724869886</v>
       </c>
       <c r="O427" t="s">
@@ -39154,7 +39153,7 @@
       <c r="J428">
         <v>2</v>
       </c>
-      <c r="K428" s="8">
+      <c r="K428">
         <f>17058242411/1000000</f>
         <v>17058.242410999999</v>
       </c>
@@ -39162,12 +39161,12 @@
         <f>17356249390/1000000</f>
         <v>17356.249390000001</v>
       </c>
-      <c r="M428" s="8">
-        <f t="shared" si="61"/>
+      <c r="M428">
+        <f t="shared" si="66"/>
         <v>1.0174699697553735</v>
       </c>
-      <c r="N428" s="8">
-        <f t="shared" si="62"/>
+      <c r="N428">
+        <f t="shared" si="67"/>
         <v>1.0174699697553735</v>
       </c>
       <c r="O428" t="s">
@@ -39241,10 +39240,22 @@
       <c r="J429">
         <v>2</v>
       </c>
+      <c r="K429">
+        <f>894406923/1000000</f>
+        <v>894.40692300000001</v>
+      </c>
       <c r="L429">
         <f>894406923/1000000</f>
         <v>894.40692300000001</v>
       </c>
+      <c r="M429">
+        <f>+L429/K429</f>
+        <v>1</v>
+      </c>
+      <c r="N429">
+        <f>+L429/K429</f>
+        <v>1</v>
+      </c>
       <c r="O429" t="s">
         <v>143</v>
       </c>
@@ -39319,10 +39330,22 @@
       <c r="I430" t="s">
         <v>45</v>
       </c>
+      <c r="K430">
+        <f>894406923/1000000</f>
+        <v>894.40692300000001</v>
+      </c>
       <c r="L430">
         <f>894406923/1000000</f>
         <v>894.40692300000001</v>
       </c>
+      <c r="M430">
+        <f>+L430/K430</f>
+        <v>1</v>
+      </c>
+      <c r="N430">
+        <f>+L430/K430</f>
+        <v>1</v>
+      </c>
       <c r="O430" t="s">
         <v>143</v>
       </c>
@@ -39400,8 +39423,20 @@
       <c r="J431">
         <v>2</v>
       </c>
+      <c r="K431">
+        <v>1357.778</v>
+      </c>
       <c r="L431">
+        <f>3779928348/1000000</f>
         <v>3779.9283479999999</v>
+      </c>
+      <c r="M431">
+        <f>IF(+L431/K431&gt;1.3,1.3,L431/K431)</f>
+        <v>1.3</v>
+      </c>
+      <c r="N431">
+        <f>+L431/K431</f>
+        <v>2.7839074929774967</v>
       </c>
       <c r="O431" t="s">
         <v>143</v>
@@ -39477,8 +39512,20 @@
       <c r="I432" t="s">
         <v>49</v>
       </c>
+      <c r="K432">
+        <v>1357.778</v>
+      </c>
       <c r="L432">
+        <f>3779928348/1000000</f>
         <v>3779.9283479999999</v>
+      </c>
+      <c r="M432">
+        <f t="shared" ref="M432:M435" si="68">IF(+L432/K432&gt;1.3,1.3,L432/K432)</f>
+        <v>1.3</v>
+      </c>
+      <c r="N432">
+        <f>+L432/K432</f>
+        <v>2.7839074929774967</v>
       </c>
       <c r="O432" t="s">
         <v>143</v>
@@ -39557,8 +39604,19 @@
       <c r="J433">
         <v>2</v>
       </c>
+      <c r="K433">
+        <v>3424.2073961999995</v>
+      </c>
       <c r="L433">
         <v>4694.2130900000002</v>
+      </c>
+      <c r="M433">
+        <f t="shared" si="68"/>
+        <v>1.3</v>
+      </c>
+      <c r="N433">
+        <f>+L433/K433</f>
+        <v>1.3708904125402521</v>
       </c>
       <c r="O433" t="s">
         <v>143</v>
@@ -39634,8 +39692,19 @@
       <c r="I434" t="s">
         <v>53</v>
       </c>
+      <c r="K434">
+        <v>3424.2073961999995</v>
+      </c>
       <c r="L434">
         <v>4694.2130900000002</v>
+      </c>
+      <c r="M434">
+        <f t="shared" si="68"/>
+        <v>1.3</v>
+      </c>
+      <c r="N434">
+        <f>+L434/K434</f>
+        <v>1.3708904125402521</v>
       </c>
       <c r="O434" t="s">
         <v>143</v>
@@ -39714,9 +39783,21 @@
       <c r="J435">
         <v>2</v>
       </c>
-      <c r="L435">
+      <c r="K435">
         <f>4042632396/1000000</f>
         <v>4042.632396</v>
+      </c>
+      <c r="L435">
+        <f>3067372669/1000000</f>
+        <v>3067.3726689999999</v>
+      </c>
+      <c r="M435">
+        <f t="shared" si="68"/>
+        <v>0.75875626783059102</v>
+      </c>
+      <c r="N435">
+        <f>+L435/K435</f>
+        <v>0.75875626783059102</v>
       </c>
       <c r="O435" t="s">
         <v>143</v>
@@ -39790,10 +39871,22 @@
       <c r="J436">
         <v>2</v>
       </c>
+      <c r="K436">
+        <f>5335242827/1000000</f>
+        <v>5335.242827</v>
+      </c>
       <c r="L436">
         <f>5335242827/1000000</f>
         <v>5335.242827</v>
       </c>
+      <c r="M436">
+        <f>L436/K436</f>
+        <v>1</v>
+      </c>
+      <c r="N436">
+        <f>L436/K436</f>
+        <v>1</v>
+      </c>
       <c r="O436" t="s">
         <v>143</v>
       </c>
@@ -39869,10 +39962,22 @@
       <c r="I437" t="s">
         <v>45</v>
       </c>
+      <c r="K437">
+        <f>5335242827/1000000</f>
+        <v>5335.242827</v>
+      </c>
       <c r="L437">
         <f>5335242827/1000000</f>
         <v>5335.242827</v>
       </c>
+      <c r="M437">
+        <f>L437/K437</f>
+        <v>1</v>
+      </c>
+      <c r="N437">
+        <f t="shared" ref="N437:N443" si="69">L437/K437</f>
+        <v>1</v>
+      </c>
       <c r="O437" t="s">
         <v>143</v>
       </c>
@@ -39950,8 +40055,20 @@
       <c r="J438">
         <v>2</v>
       </c>
+      <c r="K438">
+        <v>7082.0029999999988</v>
+      </c>
       <c r="L438">
+        <f>9868418317/1000000</f>
         <v>9868.4183169999997</v>
+      </c>
+      <c r="M438">
+        <f t="shared" ref="M438:M443" si="70">L438/K438</f>
+        <v>1.393450174618678</v>
+      </c>
+      <c r="N438">
+        <f t="shared" si="69"/>
+        <v>1.393450174618678</v>
       </c>
       <c r="O438" t="s">
         <v>143</v>
@@ -40027,8 +40144,20 @@
       <c r="I439" t="s">
         <v>49</v>
       </c>
+      <c r="K439">
+        <v>7082.0029999999988</v>
+      </c>
       <c r="L439">
+        <f>9868418317/1000000</f>
         <v>9868.4183169999997</v>
+      </c>
+      <c r="M439">
+        <f t="shared" si="70"/>
+        <v>1.393450174618678</v>
+      </c>
+      <c r="N439">
+        <f t="shared" si="69"/>
+        <v>1.393450174618678</v>
       </c>
       <c r="O439" t="s">
         <v>143</v>
@@ -40107,8 +40236,19 @@
       <c r="J440">
         <v>2</v>
       </c>
+      <c r="K440">
+        <v>7711.1257611000001</v>
+      </c>
       <c r="L440">
         <v>4170.686009</v>
+      </c>
+      <c r="M440">
+        <f t="shared" si="70"/>
+        <v>0.54086603411912804</v>
+      </c>
+      <c r="N440">
+        <f t="shared" si="69"/>
+        <v>0.54086603411912804</v>
       </c>
       <c r="O440" t="s">
         <v>143</v>
@@ -40184,8 +40324,19 @@
       <c r="I441" t="s">
         <v>53</v>
       </c>
+      <c r="K441">
+        <v>7711.1257611000001</v>
+      </c>
       <c r="L441">
         <v>4170.686009</v>
+      </c>
+      <c r="M441">
+        <f t="shared" si="70"/>
+        <v>0.54086603411912804</v>
+      </c>
+      <c r="N441">
+        <f t="shared" si="69"/>
+        <v>0.54086603411912804</v>
       </c>
       <c r="O441" t="s">
         <v>143</v>
@@ -40264,9 +40415,21 @@
       <c r="J442">
         <v>2</v>
       </c>
-      <c r="L442">
+      <c r="K442">
         <f>7446830696/1000000</f>
         <v>7446.830696</v>
+      </c>
+      <c r="L442">
+        <f>7810013171/1000000</f>
+        <v>7810.0131709999996</v>
+      </c>
+      <c r="M442">
+        <f t="shared" si="70"/>
+        <v>1.0487700727767424</v>
+      </c>
+      <c r="N442">
+        <f t="shared" si="69"/>
+        <v>1.0487700727767424</v>
       </c>
       <c r="O442" t="s">
         <v>143</v>
@@ -40336,9 +40499,21 @@
       <c r="I443" t="s">
         <v>465</v>
       </c>
-      <c r="L443">
+      <c r="K443">
         <f>7446830696/1000000</f>
         <v>7446.830696</v>
+      </c>
+      <c r="L443">
+        <f>7810013171/1000000</f>
+        <v>7810.0131709999996</v>
+      </c>
+      <c r="M443">
+        <f t="shared" si="70"/>
+        <v>1.0487700727767424</v>
+      </c>
+      <c r="N443">
+        <f t="shared" si="69"/>
+        <v>1.0487700727767424</v>
       </c>
       <c r="O443" t="s">
         <v>143</v>
@@ -40411,10 +40586,22 @@
       <c r="J444">
         <v>2</v>
       </c>
+      <c r="K444">
+        <f>3805662141/1000000</f>
+        <v>3805.6621409999998</v>
+      </c>
       <c r="L444">
         <f>3805662141/1000000</f>
         <v>3805.6621409999998</v>
       </c>
+      <c r="M444">
+        <f>IF(L444/K444&gt;1.3,1.3,L444/K444)</f>
+        <v>1</v>
+      </c>
+      <c r="N444">
+        <f>L444/K444</f>
+        <v>1</v>
+      </c>
       <c r="O444" t="s">
         <v>143</v>
       </c>
@@ -40489,10 +40676,22 @@
       <c r="I445" t="s">
         <v>45</v>
       </c>
+      <c r="K445">
+        <f>3805662141/1000000</f>
+        <v>3805.6621409999998</v>
+      </c>
       <c r="L445">
         <f>3805662141/1000000</f>
         <v>3805.6621409999998</v>
       </c>
+      <c r="M445">
+        <f t="shared" ref="M445:M451" si="71">IF(L445/K445&gt;1.3,1.3,L445/K445)</f>
+        <v>1</v>
+      </c>
+      <c r="N445">
+        <f t="shared" ref="N445:N451" si="72">L445/K445</f>
+        <v>1</v>
+      </c>
       <c r="O445" t="s">
         <v>143</v>
       </c>
@@ -40570,10 +40769,21 @@
       <c r="J446">
         <v>2</v>
       </c>
+      <c r="K446">
+        <v>5657.94</v>
+      </c>
       <c r="L446">
         <f>4048733862/1000000</f>
         <v>4048.733862</v>
       </c>
+      <c r="M446">
+        <f t="shared" si="71"/>
+        <v>0.71558444628256934</v>
+      </c>
+      <c r="N446">
+        <f t="shared" si="72"/>
+        <v>0.71558444628256934</v>
+      </c>
       <c r="O446" t="s">
         <v>143</v>
       </c>
@@ -40648,10 +40858,21 @@
       <c r="I447" t="s">
         <v>49</v>
       </c>
+      <c r="K447">
+        <v>5657.94</v>
+      </c>
       <c r="L447">
         <f>4048733862/1000000</f>
         <v>4048.733862</v>
       </c>
+      <c r="M447">
+        <f t="shared" si="71"/>
+        <v>0.71558444628256934</v>
+      </c>
+      <c r="N447">
+        <f t="shared" si="72"/>
+        <v>0.71558444628256934</v>
+      </c>
       <c r="O447" t="s">
         <v>143</v>
       </c>
@@ -40729,8 +40950,19 @@
       <c r="J448">
         <v>2</v>
       </c>
+      <c r="K448">
+        <v>4372.1599426999992</v>
+      </c>
       <c r="L448">
         <v>4378.2397499999997</v>
+      </c>
+      <c r="M448">
+        <f t="shared" si="71"/>
+        <v>1.0013905729387031</v>
+      </c>
+      <c r="N448">
+        <f t="shared" si="72"/>
+        <v>1.0013905729387031</v>
       </c>
       <c r="O448" t="s">
         <v>143</v>
@@ -40806,8 +41038,19 @@
       <c r="I449" t="s">
         <v>53</v>
       </c>
+      <c r="K449">
+        <v>4372.1599426999992</v>
+      </c>
       <c r="L449">
         <v>4378.2397499999997</v>
+      </c>
+      <c r="M449">
+        <f t="shared" si="71"/>
+        <v>1.0013905729387031</v>
+      </c>
+      <c r="N449">
+        <f t="shared" si="72"/>
+        <v>1.0013905729387031</v>
       </c>
       <c r="O449" t="s">
         <v>143</v>
@@ -40886,9 +41129,21 @@
       <c r="J450">
         <v>2</v>
       </c>
-      <c r="L450">
+      <c r="K450">
         <f>(5278611105+290168214)/1000000</f>
         <v>5568.7793190000002</v>
+      </c>
+      <c r="L450">
+        <f>6478863550/1000000</f>
+        <v>6478.86355</v>
+      </c>
+      <c r="M450">
+        <f t="shared" si="71"/>
+        <v>1.1634261619768094</v>
+      </c>
+      <c r="N450">
+        <f t="shared" si="72"/>
+        <v>1.1634261619768094</v>
       </c>
       <c r="O450" t="s">
         <v>143</v>
@@ -40958,9 +41213,21 @@
       <c r="I451" t="s">
         <v>465</v>
       </c>
-      <c r="L451">
+      <c r="K451">
         <f>(5278611105+290168214)/1000000</f>
         <v>5568.7793190000002</v>
+      </c>
+      <c r="L451">
+        <f>6478863550/1000000</f>
+        <v>6478.86355</v>
+      </c>
+      <c r="M451">
+        <f t="shared" si="71"/>
+        <v>1.1634261619768094</v>
+      </c>
+      <c r="N451">
+        <f t="shared" si="72"/>
+        <v>1.1634261619768094</v>
       </c>
       <c r="O451" t="s">
         <v>143</v>
@@ -41047,10 +41314,10 @@
         <f>+L452/K452</f>
         <v>0.88636363636363624</v>
       </c>
-      <c r="O452" s="8" t="s">
+      <c r="O452" t="s">
         <v>245</v>
       </c>
-      <c r="P452" s="8" t="s">
+      <c r="P452" t="s">
         <v>245</v>
       </c>
       <c r="Q452" t="s">
@@ -41127,12 +41394,12 @@
       <c r="L453">
         <v>7.8</v>
       </c>
-      <c r="M453" s="8">
-        <f t="shared" ref="M453:M458" si="63">+L453/K453</f>
+      <c r="M453">
+        <f t="shared" ref="M453:M458" si="73">+L453/K453</f>
         <v>0.88636363636363624</v>
       </c>
-      <c r="N453" s="8">
-        <f t="shared" ref="N453:N458" si="64">+L453/K453</f>
+      <c r="N453">
+        <f t="shared" ref="N453:N458" si="74">+L453/K453</f>
         <v>0.88636363636363624</v>
       </c>
       <c r="O453" t="s">
@@ -41218,18 +41485,18 @@
       <c r="L454">
         <v>7.9</v>
       </c>
-      <c r="M454" s="8">
-        <f t="shared" si="63"/>
+      <c r="M454">
+        <f t="shared" si="73"/>
         <v>0.94047619047619047</v>
       </c>
-      <c r="N454" s="8">
-        <f t="shared" si="64"/>
+      <c r="N454">
+        <f t="shared" si="74"/>
         <v>0.94047619047619047</v>
       </c>
-      <c r="O454" s="8" t="s">
+      <c r="O454" t="s">
         <v>245</v>
       </c>
-      <c r="P454" s="8" t="s">
+      <c r="P454" t="s">
         <v>245</v>
       </c>
       <c r="Q454" t="s">
@@ -41306,12 +41573,12 @@
       <c r="L455">
         <v>7.9</v>
       </c>
-      <c r="M455" s="8">
-        <f t="shared" si="63"/>
+      <c r="M455">
+        <f t="shared" si="73"/>
         <v>0.94047619047619047</v>
       </c>
-      <c r="N455" s="8">
-        <f t="shared" si="64"/>
+      <c r="N455">
+        <f t="shared" si="74"/>
         <v>0.94047619047619047</v>
       </c>
       <c r="O455" t="s">
@@ -41397,18 +41664,18 @@
       <c r="L456">
         <v>12.4</v>
       </c>
-      <c r="M456" s="8">
-        <f t="shared" si="63"/>
+      <c r="M456">
+        <f t="shared" si="73"/>
         <v>1.4939759036144578</v>
       </c>
-      <c r="N456" s="8">
-        <f t="shared" si="64"/>
+      <c r="N456">
+        <f t="shared" si="74"/>
         <v>1.4939759036144578</v>
       </c>
-      <c r="O456" s="8" t="s">
+      <c r="O456" t="s">
         <v>245</v>
       </c>
-      <c r="P456" s="8" t="s">
+      <c r="P456" t="s">
         <v>245</v>
       </c>
       <c r="Q456" t="s">
@@ -41485,12 +41752,12 @@
       <c r="L457">
         <v>12.4</v>
       </c>
-      <c r="M457" s="8">
-        <f t="shared" si="63"/>
+      <c r="M457">
+        <f t="shared" si="73"/>
         <v>1.4939759036144578</v>
       </c>
-      <c r="N457" s="8">
-        <f t="shared" si="64"/>
+      <c r="N457">
+        <f t="shared" si="74"/>
         <v>1.4939759036144578</v>
       </c>
       <c r="O457" t="s">
@@ -41576,12 +41843,12 @@
       <c r="L458">
         <v>15.1</v>
       </c>
-      <c r="M458" s="8">
-        <f t="shared" si="63"/>
+      <c r="M458">
+        <f t="shared" si="73"/>
         <v>1.2583333333333333</v>
       </c>
-      <c r="N458" s="8">
-        <f t="shared" si="64"/>
+      <c r="N458">
+        <f t="shared" si="74"/>
         <v>1.2583333333333333</v>
       </c>
       <c r="O458" t="s">
@@ -41675,10 +41942,10 @@
         <f>+L459/K459</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="O459" s="8" t="s">
+      <c r="O459" t="s">
         <v>245</v>
       </c>
-      <c r="P459" s="8" t="s">
+      <c r="P459" t="s">
         <v>35</v>
       </c>
       <c r="Q459" t="s">
@@ -41755,12 +42022,12 @@
       <c r="L460">
         <v>5</v>
       </c>
-      <c r="M460" s="8">
-        <f t="shared" ref="M460:M465" si="65">+L460/K460</f>
+      <c r="M460">
+        <f t="shared" ref="M460:M465" si="75">+L460/K460</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="N460" s="8">
-        <f t="shared" ref="N460:N465" si="66">+L460/K460</f>
+      <c r="N460">
+        <f t="shared" ref="N460:N465" si="76">+L460/K460</f>
         <v>0.76923076923076927</v>
       </c>
       <c r="O460" t="s">
@@ -41846,18 +42113,18 @@
       <c r="L461">
         <v>6</v>
       </c>
-      <c r="M461" s="8">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="N461" s="8">
-        <f t="shared" si="66"/>
-        <v>1</v>
-      </c>
-      <c r="O461" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P461" s="8" t="s">
+      <c r="M461">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="N461">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="O461" t="s">
+        <v>35</v>
+      </c>
+      <c r="P461" t="s">
         <v>35</v>
       </c>
       <c r="Q461" t="s">
@@ -41934,12 +42201,12 @@
       <c r="L462">
         <v>6</v>
       </c>
-      <c r="M462" s="8">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="N462" s="8">
-        <f t="shared" si="66"/>
+      <c r="M462">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="N462">
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="O462" t="s">
@@ -42025,18 +42292,18 @@
       <c r="L463">
         <v>9</v>
       </c>
-      <c r="M463" s="8">
-        <f t="shared" si="65"/>
+      <c r="M463">
+        <f t="shared" si="75"/>
         <v>1.2857142857142858</v>
       </c>
-      <c r="N463" s="8">
-        <f t="shared" si="66"/>
+      <c r="N463">
+        <f t="shared" si="76"/>
         <v>1.2857142857142858</v>
       </c>
-      <c r="O463" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P463" s="8" t="s">
+      <c r="O463" t="s">
+        <v>35</v>
+      </c>
+      <c r="P463" t="s">
         <v>35</v>
       </c>
       <c r="Q463" t="s">
@@ -42113,12 +42380,12 @@
       <c r="L464">
         <v>9</v>
       </c>
-      <c r="M464" s="8">
-        <f t="shared" si="65"/>
+      <c r="M464">
+        <f t="shared" si="75"/>
         <v>1.2857142857142858</v>
       </c>
-      <c r="N464" s="8">
-        <f t="shared" si="66"/>
+      <c r="N464">
+        <f t="shared" si="76"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="O464" t="s">
@@ -42204,12 +42471,12 @@
       <c r="L465">
         <v>11</v>
       </c>
-      <c r="M465" s="8">
-        <f t="shared" si="65"/>
+      <c r="M465">
+        <f t="shared" si="75"/>
         <v>1.2222222222222223</v>
       </c>
-      <c r="N465" s="8">
-        <f t="shared" si="66"/>
+      <c r="N465">
+        <f t="shared" si="76"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="O465" t="s">
@@ -42277,13 +42544,13 @@
       <c r="F466" s="3">
         <v>45291</v>
       </c>
-      <c r="G466" s="8">
+      <c r="G466">
         <v>2023</v>
       </c>
-      <c r="H466" s="8" t="s">
+      <c r="H466" t="s">
         <v>44</v>
       </c>
-      <c r="I466" s="8" t="s">
+      <c r="I466" t="s">
         <v>49</v>
       </c>
       <c r="J466">
@@ -42292,13 +42559,13 @@
       <c r="L466">
         <v>94.85</v>
       </c>
-      <c r="O466" s="8" t="s">
+      <c r="O466" t="s">
         <v>284</v>
       </c>
-      <c r="P466" s="8" t="s">
+      <c r="P466" t="s">
         <v>58</v>
       </c>
-      <c r="Q466" s="8" t="s">
+      <c r="Q466" t="s">
         <v>449</v>
       </c>
       <c r="R466">
@@ -42806,8 +43073,8 @@
       <c r="M472">
         <v>1.3</v>
       </c>
-      <c r="N472" s="8">
-        <f t="shared" ref="N472:N477" si="67">+L472/K472</f>
+      <c r="N472">
+        <f t="shared" ref="N472:N477" si="77">+L472/K472</f>
         <v>1.7424000000000002</v>
       </c>
       <c r="O472" t="s">
@@ -42896,8 +43163,8 @@
       <c r="M473">
         <v>1.27</v>
       </c>
-      <c r="N473" s="8">
-        <f t="shared" si="67"/>
+      <c r="N473">
+        <f t="shared" si="77"/>
         <v>1.27</v>
       </c>
       <c r="O473" t="s">
@@ -42983,8 +43250,8 @@
       <c r="M474">
         <v>1.27</v>
       </c>
-      <c r="N474" s="8">
-        <f t="shared" si="67"/>
+      <c r="N474">
+        <f t="shared" si="77"/>
         <v>1.27</v>
       </c>
       <c r="O474" t="s">
@@ -43073,8 +43340,8 @@
       <c r="M475">
         <v>1.0760000000000001</v>
       </c>
-      <c r="N475" s="8">
-        <f t="shared" si="67"/>
+      <c r="N475">
+        <f t="shared" si="77"/>
         <v>1.0759999999999998</v>
       </c>
       <c r="O475" t="s">
@@ -43160,8 +43427,8 @@
       <c r="M476">
         <v>1.0760000000000001</v>
       </c>
-      <c r="N476" s="8">
-        <f t="shared" si="67"/>
+      <c r="N476">
+        <f t="shared" si="77"/>
         <v>1.0759999999999998</v>
       </c>
       <c r="O476" t="s">
@@ -43241,18 +43508,18 @@
       <c r="J477">
         <v>2</v>
       </c>
-      <c r="K477" s="8">
+      <c r="K477">
         <v>55</v>
       </c>
-      <c r="L477" s="8">
+      <c r="L477">
         <v>58.6</v>
       </c>
       <c r="M477">
-        <f>+L477/K477</f>
+        <f t="shared" ref="M477:M482" si="78">+L477/K477</f>
         <v>1.0654545454545454</v>
       </c>
-      <c r="N477" s="8">
-        <f t="shared" si="67"/>
+      <c r="N477">
+        <f t="shared" si="77"/>
         <v>1.0654545454545454</v>
       </c>
       <c r="O477" t="s">
@@ -43343,11 +43610,11 @@
         <v>165190.90430007299</v>
       </c>
       <c r="M478">
-        <f>+L478/K478</f>
+        <f t="shared" si="78"/>
         <v>1.0366289952280319</v>
       </c>
-      <c r="N478" s="8">
-        <f t="shared" ref="N478:N479" si="68">+L478/K478</f>
+      <c r="N478">
+        <f t="shared" ref="N478:N479" si="79">+L478/K478</f>
         <v>1.0366289952280319</v>
       </c>
       <c r="O478" t="s">
@@ -43432,16 +43699,16 @@
         <f>309304697290/1000000</f>
         <v>309304.69728999998</v>
       </c>
-      <c r="L479" s="8">
+      <c r="L479">
         <f>332786049596.973/1000000</f>
         <v>332786.049596973</v>
       </c>
-      <c r="M479" s="8">
-        <f>+L479/K479</f>
+      <c r="M479">
+        <f t="shared" si="78"/>
         <v>1.0759165719522106</v>
       </c>
-      <c r="N479" s="8">
-        <f t="shared" si="68"/>
+      <c r="N479">
+        <f t="shared" si="79"/>
         <v>1.0759165719522106</v>
       </c>
       <c r="O479" t="s">
@@ -43529,7 +43796,7 @@
         <v>6.78</v>
       </c>
       <c r="M480">
-        <f>+L480/K480</f>
+        <f t="shared" si="78"/>
         <v>1.3560000000000001</v>
       </c>
       <c r="N480">
@@ -43616,11 +43883,11 @@
       <c r="L481">
         <v>58.6</v>
       </c>
-      <c r="M481" s="8">
-        <f>+L481/K481</f>
+      <c r="M481">
+        <f t="shared" si="78"/>
         <v>1.0654545454545454</v>
       </c>
-      <c r="N481" s="8">
+      <c r="N481">
         <f>+L481/K481</f>
         <v>1.0654545454545454</v>
       </c>
@@ -43708,7 +43975,7 @@
         <v>94</v>
       </c>
       <c r="M482">
-        <f>+L482/K482</f>
+        <f t="shared" si="78"/>
         <v>1.175</v>
       </c>
       <c r="N482">
@@ -43785,9 +44052,21 @@
       <c r="I483" t="s">
         <v>465</v>
       </c>
-      <c r="L483">
+      <c r="K483">
         <f>4042632396/1000000</f>
         <v>4042.632396</v>
+      </c>
+      <c r="L483">
+        <f>3067372669/1000000</f>
+        <v>3067.3726689999999</v>
+      </c>
+      <c r="M483">
+        <f>IF(+L483/K483&gt;1.3,1.3,L483/K483)</f>
+        <v>0.75875626783059102</v>
+      </c>
+      <c r="N483">
+        <f>+L483/K483</f>
+        <v>0.75875626783059102</v>
       </c>
       <c r="O483" t="s">
         <v>143</v>
@@ -43857,19 +44136,19 @@
       <c r="I484" t="s">
         <v>465</v>
       </c>
-      <c r="K484" s="8">
+      <c r="K484">
         <f>17058242411/1000000</f>
         <v>17058.242410999999</v>
       </c>
-      <c r="L484" s="8">
+      <c r="L484">
         <f>17356249390/1000000</f>
         <v>17356.249390000001</v>
       </c>
-      <c r="M484" s="8">
+      <c r="M484">
         <f>L484/K484</f>
         <v>1.0174699697553735</v>
       </c>
-      <c r="N484" s="8">
+      <c r="N484">
         <f>L484/K484</f>
         <v>1.0174699697553735</v>
       </c>
@@ -43947,11 +44226,11 @@
       <c r="L485">
         <v>15.1</v>
       </c>
-      <c r="M485" s="8">
+      <c r="M485">
         <f>+L485/K485</f>
         <v>1.2583333333333333</v>
       </c>
-      <c r="N485" s="8">
+      <c r="N485">
         <f>+L485/K485</f>
         <v>1.2583333333333333</v>
       </c>
@@ -44035,11 +44314,11 @@
       <c r="L486">
         <v>11</v>
       </c>
-      <c r="M486" s="8">
+      <c r="M486">
         <f>+L486/K486</f>
         <v>1.2222222222222223</v>
       </c>
-      <c r="N486" s="8">
+      <c r="N486">
         <f>+L486/K486</f>
         <v>1.2222222222222223</v>
       </c>
@@ -44200,11 +44479,11 @@
       <c r="L488">
         <v>3.82</v>
       </c>
-      <c r="M488" s="8">
+      <c r="M488">
         <f>+L488/K488</f>
         <v>0.76400000000000001</v>
       </c>
-      <c r="N488" s="8">
+      <c r="N488">
         <f>+L488/K488</f>
         <v>0.76400000000000001</v>
       </c>
@@ -44223,7 +44502,7 @@
       <c r="S488">
         <v>2</v>
       </c>
-      <c r="T488" s="8" t="s">
+      <c r="T488" t="s">
         <v>443</v>
       </c>
       <c r="U488" t="s">
@@ -44288,11 +44567,11 @@
       <c r="L489">
         <v>13</v>
       </c>
-      <c r="M489" s="8">
+      <c r="M489">
         <f>IF(K489/L489&gt;1.3,1.3,K489/L489)</f>
         <v>1.3</v>
       </c>
-      <c r="N489" s="8">
+      <c r="N489">
         <f>+K489/L489</f>
         <v>1.9230769230769231</v>
       </c>
@@ -44311,7 +44590,7 @@
       <c r="S489">
         <v>0</v>
       </c>
-      <c r="T489" s="8" t="s">
+      <c r="T489" t="s">
         <v>443</v>
       </c>
       <c r="U489" t="s">
@@ -44818,11 +45097,11 @@
         <v>89.9</v>
       </c>
       <c r="M495">
-        <f t="shared" ref="M495" si="69">+L495/K495</f>
+        <f t="shared" ref="M495" si="80">+L495/K495</f>
         <v>1.0576470588235294</v>
       </c>
       <c r="N495">
-        <f t="shared" ref="N495" si="70">+L495/K495</f>
+        <f t="shared" ref="N495" si="81">+L495/K495</f>
         <v>1.0576470588235294</v>
       </c>
       <c r="O495" t="s">
@@ -45051,446 +45330,446 @@
         <v>66</v>
       </c>
     </row>
-    <row r="498" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A498" s="8">
+    <row r="498" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A498">
         <v>245</v>
       </c>
-      <c r="B498" s="8" t="s">
+      <c r="B498" t="s">
         <v>185</v>
       </c>
-      <c r="C498" s="8" t="s">
+      <c r="C498" t="s">
         <v>186</v>
       </c>
-      <c r="D498" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E498" s="8" t="s">
+      <c r="D498" t="s">
+        <v>31</v>
+      </c>
+      <c r="E498" t="s">
         <v>32</v>
       </c>
       <c r="F498" s="3">
         <v>46022</v>
       </c>
-      <c r="G498" s="8">
+      <c r="G498">
         <v>2025</v>
       </c>
-      <c r="H498" s="8" t="s">
+      <c r="H498" t="s">
         <v>44</v>
       </c>
-      <c r="I498" s="8" t="s">
+      <c r="I498" t="s">
         <v>465</v>
       </c>
-      <c r="J498" s="8">
+      <c r="J498">
         <v>2</v>
       </c>
-      <c r="K498" s="8">
+      <c r="K498">
         <v>86.1</v>
       </c>
-      <c r="L498" s="8">
+      <c r="L498">
         <v>86.2</v>
       </c>
-      <c r="M498" s="8">
-        <f t="shared" ref="M498" si="71">+L498/K498</f>
+      <c r="M498">
+        <f t="shared" ref="M498" si="82">+L498/K498</f>
         <v>1.0011614401858304</v>
       </c>
-      <c r="N498" s="8">
-        <f t="shared" ref="N498" si="72">+L498/K498</f>
+      <c r="N498">
+        <f t="shared" ref="N498" si="83">+L498/K498</f>
         <v>1.0011614401858304</v>
       </c>
-      <c r="O498" s="8" t="s">
+      <c r="O498" t="s">
         <v>58</v>
       </c>
-      <c r="P498" s="8" t="s">
+      <c r="P498" t="s">
         <v>58</v>
       </c>
-      <c r="Q498" s="8" t="s">
+      <c r="Q498" t="s">
         <v>421</v>
       </c>
-      <c r="R498" s="8">
-        <v>1</v>
-      </c>
-      <c r="S498" s="8">
-        <v>1</v>
-      </c>
-      <c r="T498" s="8" t="s">
+      <c r="R498">
+        <v>1</v>
+      </c>
+      <c r="S498">
+        <v>1</v>
+      </c>
+      <c r="T498" t="s">
         <v>443</v>
       </c>
-      <c r="U498" s="8" t="s">
+      <c r="U498" t="s">
         <v>37</v>
       </c>
-      <c r="V498" s="8" t="s">
+      <c r="V498" t="s">
         <v>186</v>
       </c>
-      <c r="W498" s="8" t="s">
+      <c r="W498" t="s">
         <v>112</v>
       </c>
-      <c r="X498" s="8" t="s">
+      <c r="X498" t="s">
         <v>113</v>
       </c>
-      <c r="Y498" s="8" t="s">
+      <c r="Y498" t="s">
         <v>123</v>
       </c>
-      <c r="Z498" s="8" t="s">
+      <c r="Z498" t="s">
         <v>41</v>
       </c>
-      <c r="AA498" s="8" t="s">
+      <c r="AA498" t="s">
         <v>42</v>
       </c>
-      <c r="AB498" s="8" t="s">
+      <c r="AB498" t="s">
         <v>65</v>
       </c>
-      <c r="AC498" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="499" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A499" s="8">
+      <c r="AC498" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="499" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A499">
         <v>276</v>
       </c>
-      <c r="B499" s="8" t="s">
+      <c r="B499" t="s">
         <v>201</v>
       </c>
-      <c r="C499" s="8" t="s">
+      <c r="C499" t="s">
         <v>202</v>
       </c>
-      <c r="D499" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E499" s="8" t="s">
+      <c r="D499" t="s">
+        <v>31</v>
+      </c>
+      <c r="E499" t="s">
         <v>171</v>
       </c>
       <c r="F499" s="3">
         <v>46022</v>
       </c>
-      <c r="G499" s="8">
+      <c r="G499">
         <v>2025</v>
       </c>
-      <c r="H499" s="8" t="s">
+      <c r="H499" t="s">
         <v>44</v>
       </c>
-      <c r="I499" s="8" t="s">
+      <c r="I499" t="s">
         <v>465</v>
       </c>
-      <c r="K499" s="8">
+      <c r="K499">
         <v>81</v>
       </c>
-      <c r="L499" s="8">
+      <c r="L499">
         <v>82.81</v>
       </c>
-      <c r="M499" s="8">
-        <f t="shared" ref="M499:M500" si="73">+K499/L499</f>
+      <c r="M499">
+        <f t="shared" ref="M499:M500" si="84">+K499/L499</f>
         <v>0.97814273638449456</v>
       </c>
-      <c r="N499" s="8">
-        <f t="shared" ref="N499:N500" si="74">+K499/L499</f>
+      <c r="N499">
+        <f t="shared" ref="N499:N500" si="85">+K499/L499</f>
         <v>0.97814273638449456</v>
       </c>
-      <c r="O499" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P499" s="8" t="s">
+      <c r="O499" t="s">
+        <v>35</v>
+      </c>
+      <c r="P499" t="s">
         <v>245</v>
       </c>
-      <c r="Q499" s="8" t="s">
+      <c r="Q499" t="s">
         <v>514</v>
       </c>
-      <c r="R499" s="8">
-        <v>0</v>
-      </c>
-      <c r="S499" s="8">
-        <v>1</v>
-      </c>
-      <c r="T499" s="8" t="s">
+      <c r="R499">
+        <v>0</v>
+      </c>
+      <c r="S499">
+        <v>1</v>
+      </c>
+      <c r="T499" t="s">
         <v>443</v>
       </c>
-      <c r="U499" s="8" t="s">
+      <c r="U499" t="s">
         <v>37</v>
       </c>
-      <c r="V499" s="8" t="s">
+      <c r="V499" t="s">
         <v>202</v>
       </c>
-      <c r="W499" s="8" t="s">
+      <c r="W499" t="s">
         <v>73</v>
       </c>
-      <c r="X499" s="8" t="s">
+      <c r="X499" t="s">
         <v>74</v>
       </c>
-      <c r="Y499" s="8" t="s">
+      <c r="Y499" t="s">
         <v>75</v>
       </c>
-      <c r="Z499" s="8" t="s">
+      <c r="Z499" t="s">
         <v>86</v>
       </c>
-      <c r="AA499" s="8" t="s">
+      <c r="AA499" t="s">
         <v>204</v>
       </c>
-      <c r="AB499" s="8" t="s">
+      <c r="AB499" t="s">
         <v>65</v>
       </c>
-      <c r="AC499" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="500" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A500" s="8">
+      <c r="AC499" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="500" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A500">
         <v>277</v>
       </c>
-      <c r="B500" s="8" t="s">
+      <c r="B500" t="s">
         <v>210</v>
       </c>
-      <c r="C500" s="8" t="s">
+      <c r="C500" t="s">
         <v>202</v>
       </c>
-      <c r="D500" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E500" s="8" t="s">
+      <c r="D500" t="s">
+        <v>31</v>
+      </c>
+      <c r="E500" t="s">
         <v>171</v>
       </c>
       <c r="F500" s="3">
         <v>46022</v>
       </c>
-      <c r="G500" s="8">
+      <c r="G500">
         <v>2025</v>
       </c>
-      <c r="H500" s="8" t="s">
+      <c r="H500" t="s">
         <v>44</v>
       </c>
-      <c r="I500" s="8" t="s">
+      <c r="I500" t="s">
         <v>465</v>
       </c>
-      <c r="K500" s="8">
+      <c r="K500">
         <v>71</v>
       </c>
-      <c r="L500" s="8">
+      <c r="L500">
         <v>68.400000000000006</v>
       </c>
-      <c r="M500" s="8">
-        <f t="shared" si="73"/>
+      <c r="M500">
+        <f t="shared" si="84"/>
         <v>1.0380116959064327</v>
       </c>
-      <c r="N500" s="8">
-        <f t="shared" si="74"/>
+      <c r="N500">
+        <f t="shared" si="85"/>
         <v>1.0380116959064327</v>
       </c>
-      <c r="O500" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P500" s="8" t="s">
+      <c r="O500" t="s">
+        <v>35</v>
+      </c>
+      <c r="P500" t="s">
         <v>245</v>
       </c>
-      <c r="Q500" s="8" t="s">
+      <c r="Q500" t="s">
         <v>515</v>
       </c>
-      <c r="R500" s="8">
-        <v>1</v>
-      </c>
-      <c r="S500" s="8">
-        <v>1</v>
-      </c>
-      <c r="T500" s="8" t="s">
+      <c r="R500">
+        <v>1</v>
+      </c>
+      <c r="S500">
+        <v>1</v>
+      </c>
+      <c r="T500" t="s">
         <v>443</v>
       </c>
-      <c r="U500" s="8" t="s">
+      <c r="U500" t="s">
         <v>37</v>
       </c>
-      <c r="V500" s="8" t="s">
+      <c r="V500" t="s">
         <v>202</v>
       </c>
-      <c r="W500" s="8" t="s">
+      <c r="W500" t="s">
         <v>73</v>
       </c>
-      <c r="X500" s="8" t="s">
+      <c r="X500" t="s">
         <v>74</v>
       </c>
-      <c r="Z500" s="8" t="s">
+      <c r="Z500" t="s">
         <v>86</v>
       </c>
-      <c r="AA500" s="8" t="s">
+      <c r="AA500" t="s">
         <v>204</v>
       </c>
-      <c r="AB500" s="8" t="s">
+      <c r="AB500" t="s">
         <v>65</v>
       </c>
-      <c r="AC500" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="501" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A501" s="8">
+      <c r="AC500" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="501" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A501">
         <v>364</v>
       </c>
-      <c r="B501" s="8" t="s">
+      <c r="B501" t="s">
         <v>271</v>
       </c>
-      <c r="C501" s="8" t="s">
+      <c r="C501" t="s">
         <v>267</v>
       </c>
-      <c r="D501" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E501" s="8" t="s">
+      <c r="D501" t="s">
+        <v>31</v>
+      </c>
+      <c r="E501" t="s">
         <v>171</v>
       </c>
       <c r="F501" s="3">
         <v>46022</v>
       </c>
-      <c r="G501" s="8">
+      <c r="G501">
         <v>2025</v>
       </c>
-      <c r="H501" s="8" t="s">
+      <c r="H501" t="s">
         <v>44</v>
       </c>
-      <c r="I501" s="8" t="s">
+      <c r="I501" t="s">
         <v>465</v>
       </c>
-      <c r="J501" s="8">
+      <c r="J501">
         <v>2</v>
       </c>
-      <c r="K501" s="8">
+      <c r="K501">
         <v>83197</v>
       </c>
-      <c r="L501" s="8">
+      <c r="L501">
         <v>70233</v>
       </c>
-      <c r="M501" s="8">
-        <f t="shared" ref="M501:M502" si="75">+L501/K501</f>
+      <c r="M501">
+        <f t="shared" ref="M501:M502" si="86">+L501/K501</f>
         <v>0.84417707369256101</v>
       </c>
-      <c r="N501" s="8">
-        <f t="shared" ref="N501" si="76">+L501/K501</f>
+      <c r="N501">
+        <f t="shared" ref="N501" si="87">+L501/K501</f>
         <v>0.84417707369256101</v>
       </c>
-      <c r="O501" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P501" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q501" s="8" t="s">
+      <c r="O501" t="s">
+        <v>35</v>
+      </c>
+      <c r="P501" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q501" t="s">
         <v>516</v>
       </c>
-      <c r="R501" s="8">
-        <v>0</v>
-      </c>
-      <c r="S501" s="8">
-        <v>0</v>
-      </c>
-      <c r="T501" s="8" t="s">
+      <c r="R501">
+        <v>0</v>
+      </c>
+      <c r="S501">
+        <v>0</v>
+      </c>
+      <c r="T501" t="s">
         <v>443</v>
       </c>
-      <c r="U501" s="8" t="s">
+      <c r="U501" t="s">
         <v>37</v>
       </c>
-      <c r="V501" s="8" t="s">
+      <c r="V501" t="s">
         <v>267</v>
       </c>
-      <c r="W501" s="8" t="s">
+      <c r="W501" t="s">
         <v>145</v>
       </c>
-      <c r="X501" s="8" t="s">
+      <c r="X501" t="s">
         <v>179</v>
       </c>
-      <c r="Y501" s="8" t="s">
+      <c r="Y501" t="s">
         <v>273</v>
       </c>
-      <c r="Z501" s="8" t="s">
+      <c r="Z501" t="s">
         <v>274</v>
       </c>
-      <c r="AA501" s="8" t="s">
+      <c r="AA501" t="s">
         <v>275</v>
       </c>
-      <c r="AB501" s="8" t="s">
+      <c r="AB501" t="s">
         <v>78</v>
       </c>
-      <c r="AC501" s="8" t="s">
+      <c r="AC501" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="502" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="8">
+    <row r="502" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A502">
         <v>369</v>
       </c>
-      <c r="B502" s="8" t="s">
+      <c r="B502" t="s">
         <v>283</v>
       </c>
-      <c r="C502" s="8" t="s">
+      <c r="C502" t="s">
         <v>267</v>
       </c>
-      <c r="D502" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E502" s="8" t="s">
+      <c r="D502" t="s">
+        <v>31</v>
+      </c>
+      <c r="E502" t="s">
         <v>32</v>
       </c>
       <c r="F502" s="3">
         <v>46022</v>
       </c>
-      <c r="G502" s="8">
+      <c r="G502">
         <v>2025</v>
       </c>
-      <c r="H502" s="8" t="s">
+      <c r="H502" t="s">
         <v>44</v>
       </c>
-      <c r="I502" s="8" t="s">
+      <c r="I502" t="s">
         <v>465</v>
       </c>
-      <c r="K502" s="8">
+      <c r="K502">
         <v>190</v>
       </c>
-      <c r="L502" s="8">
+      <c r="L502">
         <v>190</v>
       </c>
-      <c r="M502" s="8">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="N502" s="8">
+      <c r="M502">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="N502">
         <f>+L502/K502</f>
         <v>1</v>
       </c>
-      <c r="O502" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P502" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q502" s="8" t="s">
+      <c r="O502" t="s">
+        <v>35</v>
+      </c>
+      <c r="P502" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q502" t="s">
         <v>517</v>
       </c>
-      <c r="R502" s="8">
-        <v>0</v>
-      </c>
-      <c r="S502" s="8">
-        <v>0</v>
-      </c>
-      <c r="T502" s="8" t="s">
+      <c r="R502">
+        <v>0</v>
+      </c>
+      <c r="S502">
+        <v>0</v>
+      </c>
+      <c r="T502" t="s">
         <v>443</v>
       </c>
-      <c r="U502" s="8" t="s">
+      <c r="U502" t="s">
         <v>37</v>
       </c>
-      <c r="V502" s="8" t="s">
+      <c r="V502" t="s">
         <v>267</v>
       </c>
-      <c r="W502" s="8" t="s">
+      <c r="W502" t="s">
         <v>145</v>
       </c>
-      <c r="X502" s="8" t="s">
+      <c r="X502" t="s">
         <v>179</v>
       </c>
-      <c r="Y502" s="8" t="s">
+      <c r="Y502" t="s">
         <v>273</v>
       </c>
-      <c r="Z502" s="8" t="s">
+      <c r="Z502" t="s">
         <v>41</v>
       </c>
-      <c r="AA502" s="8" t="s">
+      <c r="AA502" t="s">
         <v>42</v>
       </c>
-      <c r="AB502" s="8" t="s">
+      <c r="AB502" t="s">
         <v>78</v>
       </c>
-      <c r="AC502" s="8" t="s">
+      <c r="AC502" t="s">
         <v>66</v>
       </c>
     </row>
@@ -45526,15 +45805,15 @@
         <f>+K421+K420</f>
         <v>24628</v>
       </c>
-      <c r="L503" s="8">
+      <c r="L503">
         <f>+L421+L420</f>
         <v>25426</v>
       </c>
-      <c r="M503" s="8">
+      <c r="M503">
         <f>+L503/K503</f>
         <v>1.0324021439012505</v>
       </c>
-      <c r="N503" s="8">
+      <c r="N503">
         <f>+L503/K503</f>
         <v>1.0324021439012505</v>
       </c>

--- a/Data/Dataset_Unificado.xlsx
+++ b/Data/Dataset_Unificado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f15395a9ed9a48f/Proyectos_DS/PDI_2022_2025/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2034" documentId="11_C54DB9D477E07092D1C9E253F65DD242EE9209D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBBF4A51-C18F-4652-9965-8D0331824F8F}"/>
+  <xr:revisionPtr revIDLastSave="2175" documentId="11_C54DB9D477E07092D1C9E253F65DD242EE9209D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47272230-57A3-4A1B-8397-976C1A73F68E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Base_Indicadores!$A$1:$M$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unificado!$A$1:$AC$503</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unificado!$A$1:$AC$526</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14244" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14696" uniqueCount="520">
   <si>
     <t>Id</t>
   </si>
@@ -1595,6 +1595,12 @@
   <si>
     <t>369-2025-12-31</t>
   </si>
+  <si>
+    <t>Avance</t>
+  </si>
+  <si>
+    <t>205-2022-12-31</t>
+  </si>
 </sst>
 </file>
 
@@ -1999,9 +2005,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC503"/>
+  <dimension ref="A1:AC527"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14033,10 +14041,10 @@
         <v>2</v>
       </c>
       <c r="K140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M140">
         <v>1</v>
@@ -14119,10 +14127,10 @@
         <v>45</v>
       </c>
       <c r="K141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M141">
         <v>1</v>
@@ -14803,17 +14811,14 @@
       <c r="I149" t="s">
         <v>465</v>
       </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
       <c r="K149">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L149">
-        <v>10</v>
-      </c>
-      <c r="M149">
-        <v>1</v>
-      </c>
-      <c r="N149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O149" t="s">
         <v>35</v>
@@ -14831,7 +14836,7 @@
         <v>0</v>
       </c>
       <c r="T149" t="s">
-        <v>443</v>
+        <v>31</v>
       </c>
       <c r="U149" t="s">
         <v>37</v>
@@ -15318,7 +15323,7 @@
         <v>4.66</v>
       </c>
       <c r="M155">
-        <f>+L155/K155</f>
+        <f>IF(+L155/K155&gt;1.3,1.3,L155/K155)</f>
         <v>0.93200000000000005</v>
       </c>
       <c r="N155">
@@ -15409,8 +15414,8 @@
         <v>3.57</v>
       </c>
       <c r="M156">
-        <f t="shared" ref="M156:M163" si="24">+L156/K156</f>
-        <v>1.4279999999999999</v>
+        <f t="shared" ref="M156:M163" si="24">IF(+L156/K156&gt;1.3,1.3,L156/K156)</f>
+        <v>1.3</v>
       </c>
       <c r="N156">
         <f t="shared" ref="N156:N163" si="25">+L156/K156</f>
@@ -16019,30 +16024,33 @@
         <v>32</v>
       </c>
       <c r="F163" s="3">
-        <v>45838</v>
+        <v>46022</v>
       </c>
       <c r="G163">
         <v>2025</v>
       </c>
       <c r="H163" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I163" t="s">
-        <v>404</v>
+        <v>465</v>
+      </c>
+      <c r="J163">
+        <v>2</v>
       </c>
       <c r="K163">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L163">
-        <v>4.08</v>
+        <v>6.78</v>
       </c>
       <c r="M163">
         <f t="shared" si="24"/>
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="N163">
-        <f t="shared" si="25"/>
-        <v>1.02</v>
+        <f>+L163/K163</f>
+        <v>1.3560000000000001</v>
       </c>
       <c r="O163" t="s">
         <v>58</v>
@@ -16051,7 +16059,7 @@
         <v>58</v>
       </c>
       <c r="Q163" t="s">
-        <v>406</v>
+        <v>510</v>
       </c>
       <c r="R163">
         <v>0</v>
@@ -16060,7 +16068,7 @@
         <v>1</v>
       </c>
       <c r="T163" t="s">
-        <v>443</v>
+        <v>31</v>
       </c>
       <c r="U163" t="s">
         <v>37</v>
@@ -20705,6 +20713,10 @@
       <c r="I216" t="s">
         <v>465</v>
       </c>
+      <c r="K216">
+        <f>128448131182/1000000</f>
+        <v>128448.131182</v>
+      </c>
       <c r="L216">
         <f>128448131182/1000000</f>
         <v>128448.131182</v>
@@ -20885,7 +20897,7 @@
         <v>143</v>
       </c>
       <c r="Q218" t="s">
-        <v>163</v>
+        <v>519</v>
       </c>
       <c r="R218">
         <v>0</v>
@@ -21569,6 +21581,9 @@
       <c r="I226" t="s">
         <v>465</v>
       </c>
+      <c r="K226">
+        <v>4684</v>
+      </c>
       <c r="L226">
         <v>4684</v>
       </c>
@@ -39253,7 +39268,7 @@
         <v>1</v>
       </c>
       <c r="N429">
-        <f>+L429/K429</f>
+        <f t="shared" ref="N429:N435" si="68">+L429/K429</f>
         <v>1</v>
       </c>
       <c r="O429" t="s">
@@ -39343,7 +39358,7 @@
         <v>1</v>
       </c>
       <c r="N430">
-        <f>+L430/K430</f>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="O430" t="s">
@@ -39435,7 +39450,7 @@
         <v>1.3</v>
       </c>
       <c r="N431">
-        <f>+L431/K431</f>
+        <f t="shared" si="68"/>
         <v>2.7839074929774967</v>
       </c>
       <c r="O431" t="s">
@@ -39520,11 +39535,11 @@
         <v>3779.9283479999999</v>
       </c>
       <c r="M432">
-        <f t="shared" ref="M432:M435" si="68">IF(+L432/K432&gt;1.3,1.3,L432/K432)</f>
+        <f t="shared" ref="M432:M435" si="69">IF(+L432/K432&gt;1.3,1.3,L432/K432)</f>
         <v>1.3</v>
       </c>
       <c r="N432">
-        <f>+L432/K432</f>
+        <f t="shared" si="68"/>
         <v>2.7839074929774967</v>
       </c>
       <c r="O432" t="s">
@@ -39611,11 +39626,11 @@
         <v>4694.2130900000002</v>
       </c>
       <c r="M433">
+        <f t="shared" si="69"/>
+        <v>1.3</v>
+      </c>
+      <c r="N433">
         <f t="shared" si="68"/>
-        <v>1.3</v>
-      </c>
-      <c r="N433">
-        <f>+L433/K433</f>
         <v>1.3708904125402521</v>
       </c>
       <c r="O433" t="s">
@@ -39699,11 +39714,11 @@
         <v>4694.2130900000002</v>
       </c>
       <c r="M434">
+        <f t="shared" si="69"/>
+        <v>1.3</v>
+      </c>
+      <c r="N434">
         <f t="shared" si="68"/>
-        <v>1.3</v>
-      </c>
-      <c r="N434">
-        <f>+L434/K434</f>
         <v>1.3708904125402521</v>
       </c>
       <c r="O434" t="s">
@@ -39792,11 +39807,11 @@
         <v>3067.3726689999999</v>
       </c>
       <c r="M435">
+        <f t="shared" si="69"/>
+        <v>0.75875626783059102</v>
+      </c>
+      <c r="N435">
         <f t="shared" si="68"/>
-        <v>0.75875626783059102</v>
-      </c>
-      <c r="N435">
-        <f>+L435/K435</f>
         <v>0.75875626783059102</v>
       </c>
       <c r="O435" t="s">
@@ -39975,7 +39990,7 @@
         <v>1</v>
       </c>
       <c r="N437">
-        <f t="shared" ref="N437:N443" si="69">L437/K437</f>
+        <f t="shared" ref="N437:N443" si="70">L437/K437</f>
         <v>1</v>
       </c>
       <c r="O437" t="s">
@@ -40063,11 +40078,11 @@
         <v>9868.4183169999997</v>
       </c>
       <c r="M438">
-        <f t="shared" ref="M438:M443" si="70">L438/K438</f>
+        <f t="shared" ref="M438:M443" si="71">L438/K438</f>
         <v>1.393450174618678</v>
       </c>
       <c r="N438">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1.393450174618678</v>
       </c>
       <c r="O438" t="s">
@@ -40152,11 +40167,11 @@
         <v>9868.4183169999997</v>
       </c>
       <c r="M439">
+        <f t="shared" si="71"/>
+        <v>1.393450174618678</v>
+      </c>
+      <c r="N439">
         <f t="shared" si="70"/>
-        <v>1.393450174618678</v>
-      </c>
-      <c r="N439">
-        <f t="shared" si="69"/>
         <v>1.393450174618678</v>
       </c>
       <c r="O439" t="s">
@@ -40243,11 +40258,11 @@
         <v>4170.686009</v>
       </c>
       <c r="M440">
+        <f t="shared" si="71"/>
+        <v>0.54086603411912804</v>
+      </c>
+      <c r="N440">
         <f t="shared" si="70"/>
-        <v>0.54086603411912804</v>
-      </c>
-      <c r="N440">
-        <f t="shared" si="69"/>
         <v>0.54086603411912804</v>
       </c>
       <c r="O440" t="s">
@@ -40331,11 +40346,11 @@
         <v>4170.686009</v>
       </c>
       <c r="M441">
+        <f t="shared" si="71"/>
+        <v>0.54086603411912804</v>
+      </c>
+      <c r="N441">
         <f t="shared" si="70"/>
-        <v>0.54086603411912804</v>
-      </c>
-      <c r="N441">
-        <f t="shared" si="69"/>
         <v>0.54086603411912804</v>
       </c>
       <c r="O441" t="s">
@@ -40424,11 +40439,11 @@
         <v>7810.0131709999996</v>
       </c>
       <c r="M442">
+        <f t="shared" si="71"/>
+        <v>1.0487700727767424</v>
+      </c>
+      <c r="N442">
         <f t="shared" si="70"/>
-        <v>1.0487700727767424</v>
-      </c>
-      <c r="N442">
-        <f t="shared" si="69"/>
         <v>1.0487700727767424</v>
       </c>
       <c r="O442" t="s">
@@ -40508,11 +40523,11 @@
         <v>7810.0131709999996</v>
       </c>
       <c r="M443">
+        <f t="shared" si="71"/>
+        <v>1.0487700727767424</v>
+      </c>
+      <c r="N443">
         <f t="shared" si="70"/>
-        <v>1.0487700727767424</v>
-      </c>
-      <c r="N443">
-        <f t="shared" si="69"/>
         <v>1.0487700727767424</v>
       </c>
       <c r="O443" t="s">
@@ -40685,11 +40700,11 @@
         <v>3805.6621409999998</v>
       </c>
       <c r="M445">
-        <f t="shared" ref="M445:M451" si="71">IF(L445/K445&gt;1.3,1.3,L445/K445)</f>
+        <f t="shared" ref="M445:M451" si="72">IF(L445/K445&gt;1.3,1.3,L445/K445)</f>
         <v>1</v>
       </c>
       <c r="N445">
-        <f t="shared" ref="N445:N451" si="72">L445/K445</f>
+        <f t="shared" ref="N445:N451" si="73">L445/K445</f>
         <v>1</v>
       </c>
       <c r="O445" t="s">
@@ -40777,11 +40792,11 @@
         <v>4048.733862</v>
       </c>
       <c r="M446">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.71558444628256934</v>
       </c>
       <c r="N446">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.71558444628256934</v>
       </c>
       <c r="O446" t="s">
@@ -40866,11 +40881,11 @@
         <v>4048.733862</v>
       </c>
       <c r="M447">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.71558444628256934</v>
       </c>
       <c r="N447">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.71558444628256934</v>
       </c>
       <c r="O447" t="s">
@@ -40957,11 +40972,11 @@
         <v>4378.2397499999997</v>
       </c>
       <c r="M448">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1.0013905729387031</v>
       </c>
       <c r="N448">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1.0013905729387031</v>
       </c>
       <c r="O448" t="s">
@@ -41045,11 +41060,11 @@
         <v>4378.2397499999997</v>
       </c>
       <c r="M449">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1.0013905729387031</v>
       </c>
       <c r="N449">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1.0013905729387031</v>
       </c>
       <c r="O449" t="s">
@@ -41138,11 +41153,11 @@
         <v>6478.86355</v>
       </c>
       <c r="M450">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1.1634261619768094</v>
       </c>
       <c r="N450">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1.1634261619768094</v>
       </c>
       <c r="O450" t="s">
@@ -41222,11 +41237,11 @@
         <v>6478.86355</v>
       </c>
       <c r="M451">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1.1634261619768094</v>
       </c>
       <c r="N451">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1.1634261619768094</v>
       </c>
       <c r="O451" t="s">
@@ -41395,11 +41410,11 @@
         <v>7.8</v>
       </c>
       <c r="M453">
-        <f t="shared" ref="M453:M458" si="73">+L453/K453</f>
+        <f t="shared" ref="M453:M458" si="74">+L453/K453</f>
         <v>0.88636363636363624</v>
       </c>
       <c r="N453">
-        <f t="shared" ref="N453:N458" si="74">+L453/K453</f>
+        <f t="shared" ref="N453:N458" si="75">+L453/K453</f>
         <v>0.88636363636363624</v>
       </c>
       <c r="O453" t="s">
@@ -41486,11 +41501,11 @@
         <v>7.9</v>
       </c>
       <c r="M454">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.94047619047619047</v>
       </c>
       <c r="N454">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.94047619047619047</v>
       </c>
       <c r="O454" t="s">
@@ -41574,11 +41589,11 @@
         <v>7.9</v>
       </c>
       <c r="M455">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.94047619047619047</v>
       </c>
       <c r="N455">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.94047619047619047</v>
       </c>
       <c r="O455" t="s">
@@ -41665,11 +41680,11 @@
         <v>12.4</v>
       </c>
       <c r="M456">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1.4939759036144578</v>
       </c>
       <c r="N456">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1.4939759036144578</v>
       </c>
       <c r="O456" t="s">
@@ -41753,11 +41768,11 @@
         <v>12.4</v>
       </c>
       <c r="M457">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1.4939759036144578</v>
       </c>
       <c r="N457">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1.4939759036144578</v>
       </c>
       <c r="O457" t="s">
@@ -41844,11 +41859,11 @@
         <v>15.1</v>
       </c>
       <c r="M458">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1.2583333333333333</v>
       </c>
       <c r="N458">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1.2583333333333333</v>
       </c>
       <c r="O458" t="s">
@@ -42023,11 +42038,11 @@
         <v>5</v>
       </c>
       <c r="M460">
-        <f t="shared" ref="M460:M465" si="75">+L460/K460</f>
+        <f t="shared" ref="M460:M465" si="76">+L460/K460</f>
         <v>0.76923076923076927</v>
       </c>
       <c r="N460">
-        <f t="shared" ref="N460:N465" si="76">+L460/K460</f>
+        <f t="shared" ref="N460:N465" si="77">+L460/K460</f>
         <v>0.76923076923076927</v>
       </c>
       <c r="O460" t="s">
@@ -42114,11 +42129,11 @@
         <v>6</v>
       </c>
       <c r="M461">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="N461">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="O461" t="s">
@@ -42202,11 +42217,11 @@
         <v>6</v>
       </c>
       <c r="M462">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="N462">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="O462" t="s">
@@ -42293,11 +42308,11 @@
         <v>9</v>
       </c>
       <c r="M463">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="N463">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="O463" t="s">
@@ -42381,11 +42396,11 @@
         <v>9</v>
       </c>
       <c r="M464">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="N464">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="O464" t="s">
@@ -42472,11 +42487,11 @@
         <v>11</v>
       </c>
       <c r="M465">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="N465">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="O465" t="s">
@@ -43074,7 +43089,7 @@
         <v>1.3</v>
       </c>
       <c r="N472">
-        <f t="shared" ref="N472:N477" si="77">+L472/K472</f>
+        <f t="shared" ref="N472:N477" si="78">+L472/K472</f>
         <v>1.7424000000000002</v>
       </c>
       <c r="O472" t="s">
@@ -43164,7 +43179,7 @@
         <v>1.27</v>
       </c>
       <c r="N473">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>1.27</v>
       </c>
       <c r="O473" t="s">
@@ -43251,7 +43266,7 @@
         <v>1.27</v>
       </c>
       <c r="N474">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>1.27</v>
       </c>
       <c r="O474" t="s">
@@ -43341,7 +43356,7 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="N475">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>1.0759999999999998</v>
       </c>
       <c r="O475" t="s">
@@ -43428,7 +43443,7 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="N476">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>1.0759999999999998</v>
       </c>
       <c r="O476" t="s">
@@ -43515,11 +43530,11 @@
         <v>58.6</v>
       </c>
       <c r="M477">
-        <f t="shared" ref="M477:M482" si="78">+L477/K477</f>
+        <f t="shared" ref="M477:M482" si="79">+L477/K477</f>
         <v>1.0654545454545454</v>
       </c>
       <c r="N477">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>1.0654545454545454</v>
       </c>
       <c r="O477" t="s">
@@ -43610,11 +43625,11 @@
         <v>165190.90430007299</v>
       </c>
       <c r="M478">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>1.0366289952280319</v>
       </c>
       <c r="N478">
-        <f t="shared" ref="N478:N479" si="79">+L478/K478</f>
+        <f t="shared" ref="N478:N479" si="80">+L478/K478</f>
         <v>1.0366289952280319</v>
       </c>
       <c r="O478" t="s">
@@ -43704,11 +43719,11 @@
         <v>332786.049596973</v>
       </c>
       <c r="M479">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>1.0759165719522106</v>
       </c>
       <c r="N479">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1.0759165719522106</v>
       </c>
       <c r="O479" t="s">
@@ -43796,8 +43811,8 @@
         <v>6.78</v>
       </c>
       <c r="M480">
-        <f t="shared" si="78"/>
-        <v>1.3560000000000001</v>
+        <f>IF(+L480/K480&gt;1.3,1.3,L480/K480)</f>
+        <v>1.3</v>
       </c>
       <c r="N480">
         <f>+L480/K480</f>
@@ -43819,7 +43834,7 @@
         <v>1</v>
       </c>
       <c r="T480" t="s">
-        <v>31</v>
+        <v>443</v>
       </c>
       <c r="U480" t="s">
         <v>37</v>
@@ -43884,7 +43899,7 @@
         <v>58.6</v>
       </c>
       <c r="M481">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>1.0654545454545454</v>
       </c>
       <c r="N481">
@@ -43975,7 +43990,7 @@
         <v>94</v>
       </c>
       <c r="M482">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>1.175</v>
       </c>
       <c r="N482">
@@ -45097,11 +45112,11 @@
         <v>89.9</v>
       </c>
       <c r="M495">
-        <f t="shared" ref="M495" si="80">+L495/K495</f>
+        <f t="shared" ref="M495" si="81">+L495/K495</f>
         <v>1.0576470588235294</v>
       </c>
       <c r="N495">
-        <f t="shared" ref="N495" si="81">+L495/K495</f>
+        <f t="shared" ref="N495" si="82">+L495/K495</f>
         <v>1.0576470588235294</v>
       </c>
       <c r="O495" t="s">
@@ -45358,9 +45373,6 @@
       <c r="I498" t="s">
         <v>465</v>
       </c>
-      <c r="J498">
-        <v>2</v>
-      </c>
       <c r="K498">
         <v>86.1</v>
       </c>
@@ -45368,11 +45380,11 @@
         <v>86.2</v>
       </c>
       <c r="M498">
-        <f t="shared" ref="M498" si="82">+L498/K498</f>
+        <f t="shared" ref="M498" si="83">+L498/K498</f>
         <v>1.0011614401858304</v>
       </c>
       <c r="N498">
-        <f t="shared" ref="N498" si="83">+L498/K498</f>
+        <f t="shared" ref="N498" si="84">+L498/K498</f>
         <v>1.0011614401858304</v>
       </c>
       <c r="O498" t="s">
@@ -45456,11 +45468,11 @@
         <v>82.81</v>
       </c>
       <c r="M499">
-        <f t="shared" ref="M499:M500" si="84">+K499/L499</f>
+        <f t="shared" ref="M499:M500" si="85">+K499/L499</f>
         <v>0.97814273638449456</v>
       </c>
       <c r="N499">
-        <f t="shared" ref="N499:N500" si="85">+K499/L499</f>
+        <f t="shared" ref="N499:N500" si="86">+K499/L499</f>
         <v>0.97814273638449456</v>
       </c>
       <c r="O499" t="s">
@@ -45544,11 +45556,11 @@
         <v>68.400000000000006</v>
       </c>
       <c r="M500">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1.0380116959064327</v>
       </c>
       <c r="N500">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1.0380116959064327</v>
       </c>
       <c r="O500" t="s">
@@ -45632,11 +45644,11 @@
         <v>70233</v>
       </c>
       <c r="M501">
-        <f t="shared" ref="M501:M502" si="86">+L501/K501</f>
+        <f t="shared" ref="M501:M502" si="87">+L501/K501</f>
         <v>0.84417707369256101</v>
       </c>
       <c r="N501">
-        <f t="shared" ref="N501" si="87">+L501/K501</f>
+        <f t="shared" ref="N501" si="88">+L501/K501</f>
         <v>0.84417707369256101</v>
       </c>
       <c r="O501" t="s">
@@ -45720,7 +45732,7 @@
         <v>190</v>
       </c>
       <c r="M502">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="N502">
@@ -45862,6 +45874,2106 @@
       </c>
       <c r="AC503" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="504" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>14</v>
+      </c>
+      <c r="B504" t="s">
+        <v>29</v>
+      </c>
+      <c r="C504" t="s">
+        <v>186</v>
+      </c>
+      <c r="D504" t="s">
+        <v>31</v>
+      </c>
+      <c r="E504" t="s">
+        <v>32</v>
+      </c>
+      <c r="F504" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G504">
+        <v>2026</v>
+      </c>
+      <c r="H504" t="s">
+        <v>518</v>
+      </c>
+      <c r="I504" t="s">
+        <v>518</v>
+      </c>
+      <c r="K504">
+        <v>55756</v>
+      </c>
+      <c r="L504" s="4">
+        <v>56931</v>
+      </c>
+      <c r="M504">
+        <f>+L504/K504</f>
+        <v>1.0210739651337972</v>
+      </c>
+      <c r="N504">
+        <f>+L504/K504</f>
+        <v>1.0210739651337972</v>
+      </c>
+      <c r="O504" t="s">
+        <v>35</v>
+      </c>
+      <c r="P504" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q504" t="s">
+        <v>481</v>
+      </c>
+      <c r="R504">
+        <v>0</v>
+      </c>
+      <c r="S504">
+        <v>0</v>
+      </c>
+      <c r="T504" t="s">
+        <v>518</v>
+      </c>
+      <c r="U504" t="s">
+        <v>37</v>
+      </c>
+      <c r="V504" t="s">
+        <v>30</v>
+      </c>
+      <c r="W504" t="s">
+        <v>38</v>
+      </c>
+      <c r="X504" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y504" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z504" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA504" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB504" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC504" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="505" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>14.1</v>
+      </c>
+      <c r="B505" t="s">
+        <v>353</v>
+      </c>
+      <c r="C505" t="s">
+        <v>186</v>
+      </c>
+      <c r="D505" t="s">
+        <v>31</v>
+      </c>
+      <c r="E505" t="s">
+        <v>32</v>
+      </c>
+      <c r="F505" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G505">
+        <v>2026</v>
+      </c>
+      <c r="H505" t="s">
+        <v>518</v>
+      </c>
+      <c r="I505" t="s">
+        <v>518</v>
+      </c>
+      <c r="K505">
+        <v>16981</v>
+      </c>
+      <c r="L505">
+        <v>17472</v>
+      </c>
+      <c r="M505">
+        <f>+L505/K505</f>
+        <v>1.0289146693363171</v>
+      </c>
+      <c r="N505">
+        <f>+L505/K505</f>
+        <v>1.0289146693363171</v>
+      </c>
+      <c r="O505" t="s">
+        <v>35</v>
+      </c>
+      <c r="P505" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q505" t="s">
+        <v>482</v>
+      </c>
+      <c r="R505">
+        <v>0</v>
+      </c>
+      <c r="S505">
+        <v>0</v>
+      </c>
+      <c r="T505" t="s">
+        <v>518</v>
+      </c>
+      <c r="U505" t="s">
+        <v>37</v>
+      </c>
+      <c r="V505" t="s">
+        <v>30</v>
+      </c>
+      <c r="W505" t="s">
+        <v>38</v>
+      </c>
+      <c r="X505" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y505" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z505" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA505" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB505" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC505" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="506" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>14.2</v>
+      </c>
+      <c r="B506" t="s">
+        <v>359</v>
+      </c>
+      <c r="C506" t="s">
+        <v>186</v>
+      </c>
+      <c r="D506" t="s">
+        <v>31</v>
+      </c>
+      <c r="E506" t="s">
+        <v>32</v>
+      </c>
+      <c r="F506" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G506">
+        <v>2026</v>
+      </c>
+      <c r="H506" t="s">
+        <v>518</v>
+      </c>
+      <c r="I506" t="s">
+        <v>518</v>
+      </c>
+      <c r="K506">
+        <v>92409</v>
+      </c>
+      <c r="L506">
+        <v>95964</v>
+      </c>
+      <c r="M506">
+        <f>+L506/K506</f>
+        <v>1.0384702788689413</v>
+      </c>
+      <c r="N506">
+        <f>+L506/K506</f>
+        <v>1.0384702788689413</v>
+      </c>
+      <c r="O506" t="s">
+        <v>35</v>
+      </c>
+      <c r="P506" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q506" t="s">
+        <v>415</v>
+      </c>
+      <c r="R506">
+        <v>0</v>
+      </c>
+      <c r="S506">
+        <v>0</v>
+      </c>
+      <c r="T506" t="s">
+        <v>518</v>
+      </c>
+      <c r="U506" t="s">
+        <v>37</v>
+      </c>
+      <c r="V506" t="s">
+        <v>30</v>
+      </c>
+      <c r="W506" t="s">
+        <v>38</v>
+      </c>
+      <c r="X506" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y506" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z506" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA506" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB506" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC506" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="507" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>14.3</v>
+      </c>
+      <c r="B507" t="s">
+        <v>365</v>
+      </c>
+      <c r="C507" t="s">
+        <v>186</v>
+      </c>
+      <c r="D507" t="s">
+        <v>31</v>
+      </c>
+      <c r="E507" t="s">
+        <v>32</v>
+      </c>
+      <c r="F507" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G507">
+        <v>2026</v>
+      </c>
+      <c r="H507" t="s">
+        <v>518</v>
+      </c>
+      <c r="I507" t="s">
+        <v>518</v>
+      </c>
+      <c r="K507">
+        <v>101379</v>
+      </c>
+      <c r="L507">
+        <v>104367</v>
+      </c>
+      <c r="M507">
+        <f t="shared" ref="M507:M508" si="89">+L507/K507</f>
+        <v>1.0294735596129376</v>
+      </c>
+      <c r="N507">
+        <f t="shared" ref="N507:N508" si="90">+L507/K507</f>
+        <v>1.0294735596129376</v>
+      </c>
+      <c r="O507" t="s">
+        <v>35</v>
+      </c>
+      <c r="P507" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q507" t="s">
+        <v>484</v>
+      </c>
+      <c r="R507">
+        <v>0</v>
+      </c>
+      <c r="S507">
+        <v>0</v>
+      </c>
+      <c r="T507" t="s">
+        <v>518</v>
+      </c>
+      <c r="U507" t="s">
+        <v>37</v>
+      </c>
+      <c r="V507" t="s">
+        <v>30</v>
+      </c>
+      <c r="W507" t="s">
+        <v>38</v>
+      </c>
+      <c r="X507" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y507" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z507" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA507" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB507" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC507" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="508" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>14.4</v>
+      </c>
+      <c r="B508" t="s">
+        <v>371</v>
+      </c>
+      <c r="C508" t="s">
+        <v>186</v>
+      </c>
+      <c r="D508" t="s">
+        <v>31</v>
+      </c>
+      <c r="E508" t="s">
+        <v>32</v>
+      </c>
+      <c r="F508" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G508">
+        <v>2026</v>
+      </c>
+      <c r="H508" t="s">
+        <v>518</v>
+      </c>
+      <c r="I508" t="s">
+        <v>518</v>
+      </c>
+      <c r="K508">
+        <f>+K506+K507</f>
+        <v>193788</v>
+      </c>
+      <c r="L508">
+        <f>+L506+L507</f>
+        <v>200331</v>
+      </c>
+      <c r="M508">
+        <f t="shared" si="89"/>
+        <v>1.033763700538733</v>
+      </c>
+      <c r="N508">
+        <f t="shared" si="90"/>
+        <v>1.033763700538733</v>
+      </c>
+      <c r="O508" t="s">
+        <v>35</v>
+      </c>
+      <c r="P508" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q508" t="s">
+        <v>485</v>
+      </c>
+      <c r="R508">
+        <v>0</v>
+      </c>
+      <c r="S508">
+        <v>0</v>
+      </c>
+      <c r="T508" t="s">
+        <v>518</v>
+      </c>
+      <c r="U508" t="s">
+        <v>37</v>
+      </c>
+      <c r="V508" t="s">
+        <v>30</v>
+      </c>
+      <c r="W508" t="s">
+        <v>38</v>
+      </c>
+      <c r="X508" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y508" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z508" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA508" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB508" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC508" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="509" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>77</v>
+      </c>
+      <c r="B509" t="s">
+        <v>55</v>
+      </c>
+      <c r="C509" t="s">
+        <v>56</v>
+      </c>
+      <c r="D509" t="s">
+        <v>57</v>
+      </c>
+      <c r="E509" t="s">
+        <v>32</v>
+      </c>
+      <c r="F509" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G509">
+        <v>2026</v>
+      </c>
+      <c r="H509" t="s">
+        <v>518</v>
+      </c>
+      <c r="I509" t="s">
+        <v>518</v>
+      </c>
+      <c r="K509">
+        <v>97</v>
+      </c>
+      <c r="L509">
+        <v>97.17</v>
+      </c>
+      <c r="M509">
+        <f>+L509/K509</f>
+        <v>1.0017525773195877</v>
+      </c>
+      <c r="N509">
+        <f>+L509/K509</f>
+        <v>1.0017525773195877</v>
+      </c>
+      <c r="O509" t="s">
+        <v>58</v>
+      </c>
+      <c r="P509" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q509" t="s">
+        <v>503</v>
+      </c>
+      <c r="R509">
+        <v>0</v>
+      </c>
+      <c r="S509">
+        <v>1</v>
+      </c>
+      <c r="T509" t="s">
+        <v>518</v>
+      </c>
+      <c r="U509" t="s">
+        <v>37</v>
+      </c>
+      <c r="V509" t="s">
+        <v>56</v>
+      </c>
+      <c r="W509" t="s">
+        <v>60</v>
+      </c>
+      <c r="X509" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y509" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z509" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA509" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB509" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC509" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="510" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>96</v>
+      </c>
+      <c r="B510" t="s">
+        <v>70</v>
+      </c>
+      <c r="C510" t="s">
+        <v>71</v>
+      </c>
+      <c r="D510" t="s">
+        <v>66</v>
+      </c>
+      <c r="E510" t="s">
+        <v>32</v>
+      </c>
+      <c r="F510" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G510">
+        <v>2026</v>
+      </c>
+      <c r="H510" t="s">
+        <v>518</v>
+      </c>
+      <c r="I510" t="s">
+        <v>518</v>
+      </c>
+      <c r="K510">
+        <v>2531</v>
+      </c>
+      <c r="L510">
+        <v>2169</v>
+      </c>
+      <c r="M510">
+        <f>+L510/K510</f>
+        <v>0.85697352824970363</v>
+      </c>
+      <c r="N510">
+        <f>+L510/K510</f>
+        <v>0.85697352824970363</v>
+      </c>
+      <c r="O510" t="s">
+        <v>35</v>
+      </c>
+      <c r="P510" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q510" t="s">
+        <v>507</v>
+      </c>
+      <c r="R510">
+        <v>0</v>
+      </c>
+      <c r="S510">
+        <v>0</v>
+      </c>
+      <c r="T510" t="s">
+        <v>518</v>
+      </c>
+      <c r="U510" t="s">
+        <v>37</v>
+      </c>
+      <c r="V510" t="s">
+        <v>71</v>
+      </c>
+      <c r="W510" t="s">
+        <v>73</v>
+      </c>
+      <c r="X510" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y510" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z510" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA510" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB510" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC510" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="511" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>98</v>
+      </c>
+      <c r="B511" t="s">
+        <v>91</v>
+      </c>
+      <c r="C511" t="s">
+        <v>83</v>
+      </c>
+      <c r="D511" t="s">
+        <v>31</v>
+      </c>
+      <c r="E511" t="s">
+        <v>32</v>
+      </c>
+      <c r="F511" s="3">
+        <v>46022</v>
+      </c>
+      <c r="G511">
+        <v>2025</v>
+      </c>
+      <c r="H511" t="s">
+        <v>44</v>
+      </c>
+      <c r="I511" t="s">
+        <v>465</v>
+      </c>
+      <c r="K511">
+        <v>10</v>
+      </c>
+      <c r="L511">
+        <v>10</v>
+      </c>
+      <c r="M511">
+        <v>1</v>
+      </c>
+      <c r="N511">
+        <v>1</v>
+      </c>
+      <c r="O511" t="s">
+        <v>35</v>
+      </c>
+      <c r="P511" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q511" t="s">
+        <v>509</v>
+      </c>
+      <c r="R511">
+        <v>0</v>
+      </c>
+      <c r="S511">
+        <v>0</v>
+      </c>
+      <c r="T511" t="s">
+        <v>443</v>
+      </c>
+      <c r="U511" t="s">
+        <v>37</v>
+      </c>
+      <c r="V511" t="s">
+        <v>83</v>
+      </c>
+      <c r="W511" t="s">
+        <v>38</v>
+      </c>
+      <c r="X511" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y511" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z511" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA511" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB511" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC511" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="512" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>98</v>
+      </c>
+      <c r="B512" t="s">
+        <v>91</v>
+      </c>
+      <c r="C512" t="s">
+        <v>83</v>
+      </c>
+      <c r="D512" t="s">
+        <v>31</v>
+      </c>
+      <c r="E512" t="s">
+        <v>32</v>
+      </c>
+      <c r="F512" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G512">
+        <v>2026</v>
+      </c>
+      <c r="H512" t="s">
+        <v>518</v>
+      </c>
+      <c r="I512" t="s">
+        <v>518</v>
+      </c>
+      <c r="K512">
+        <f>+K141+K144+K147+K511</f>
+        <v>20</v>
+      </c>
+      <c r="L512">
+        <f>+L141+L144+L147+L511</f>
+        <v>20</v>
+      </c>
+      <c r="M512">
+        <v>1</v>
+      </c>
+      <c r="N512">
+        <v>1</v>
+      </c>
+      <c r="O512" t="s">
+        <v>35</v>
+      </c>
+      <c r="P512" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q512" t="s">
+        <v>509</v>
+      </c>
+      <c r="R512">
+        <v>0</v>
+      </c>
+      <c r="S512">
+        <v>0</v>
+      </c>
+      <c r="T512" t="s">
+        <v>518</v>
+      </c>
+      <c r="U512" t="s">
+        <v>37</v>
+      </c>
+      <c r="V512" t="s">
+        <v>83</v>
+      </c>
+      <c r="W512" t="s">
+        <v>38</v>
+      </c>
+      <c r="X512" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y512" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z512" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA512" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB512" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC512" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="513" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>109</v>
+      </c>
+      <c r="B513" t="s">
+        <v>96</v>
+      </c>
+      <c r="C513" t="s">
+        <v>99</v>
+      </c>
+      <c r="D513" t="s">
+        <v>66</v>
+      </c>
+      <c r="E513" t="s">
+        <v>32</v>
+      </c>
+      <c r="F513" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G513">
+        <v>2026</v>
+      </c>
+      <c r="H513" t="s">
+        <v>518</v>
+      </c>
+      <c r="I513" t="s">
+        <v>518</v>
+      </c>
+      <c r="K513">
+        <v>80</v>
+      </c>
+      <c r="L513">
+        <v>94</v>
+      </c>
+      <c r="M513">
+        <f t="shared" ref="M513:M514" si="91">+L513/K513</f>
+        <v>1.175</v>
+      </c>
+      <c r="N513">
+        <v>1.0625</v>
+      </c>
+      <c r="O513" t="s">
+        <v>58</v>
+      </c>
+      <c r="P513" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q513" t="s">
+        <v>488</v>
+      </c>
+      <c r="R513">
+        <v>0</v>
+      </c>
+      <c r="S513">
+        <v>0</v>
+      </c>
+      <c r="T513" t="s">
+        <v>518</v>
+      </c>
+      <c r="U513" t="s">
+        <v>37</v>
+      </c>
+      <c r="V513" t="s">
+        <v>99</v>
+      </c>
+      <c r="W513" t="s">
+        <v>60</v>
+      </c>
+      <c r="X513" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z513" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA513" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB513" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC513" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="514" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>148</v>
+      </c>
+      <c r="B514" t="s">
+        <v>104</v>
+      </c>
+      <c r="C514" t="s">
+        <v>105</v>
+      </c>
+      <c r="D514" t="s">
+        <v>31</v>
+      </c>
+      <c r="E514" t="s">
+        <v>32</v>
+      </c>
+      <c r="F514" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G514">
+        <v>2026</v>
+      </c>
+      <c r="H514" t="s">
+        <v>518</v>
+      </c>
+      <c r="I514" t="s">
+        <v>518</v>
+      </c>
+      <c r="J514">
+        <v>2</v>
+      </c>
+      <c r="K514">
+        <v>5</v>
+      </c>
+      <c r="L514">
+        <v>5.8624999999999998</v>
+      </c>
+      <c r="M514">
+        <f>IF(+L514/K514&gt;1.3,1.3,L514/K514)</f>
+        <v>1.1724999999999999</v>
+      </c>
+      <c r="N514">
+        <f>+L514/K514</f>
+        <v>1.1724999999999999</v>
+      </c>
+      <c r="O514" t="s">
+        <v>58</v>
+      </c>
+      <c r="P514" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q514" t="s">
+        <v>510</v>
+      </c>
+      <c r="R514">
+        <v>0</v>
+      </c>
+      <c r="S514">
+        <v>1</v>
+      </c>
+      <c r="T514" t="s">
+        <v>518</v>
+      </c>
+      <c r="U514" t="s">
+        <v>37</v>
+      </c>
+      <c r="V514" t="s">
+        <v>105</v>
+      </c>
+      <c r="W514" t="s">
+        <v>73</v>
+      </c>
+      <c r="X514" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y514" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z514" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA514" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB514" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC514" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="515" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>193</v>
+      </c>
+      <c r="B515" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C515" t="s">
+        <v>30</v>
+      </c>
+      <c r="D515" t="s">
+        <v>31</v>
+      </c>
+      <c r="E515" t="s">
+        <v>32</v>
+      </c>
+      <c r="F515" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G515">
+        <v>2026</v>
+      </c>
+      <c r="H515" t="s">
+        <v>518</v>
+      </c>
+      <c r="I515" t="s">
+        <v>518</v>
+      </c>
+      <c r="K515">
+        <v>94</v>
+      </c>
+      <c r="L515">
+        <v>95</v>
+      </c>
+      <c r="M515">
+        <f>+L515/K515</f>
+        <v>1.0106382978723405</v>
+      </c>
+      <c r="N515">
+        <f>+L515/K515</f>
+        <v>1.0106382978723405</v>
+      </c>
+      <c r="O515" t="s">
+        <v>58</v>
+      </c>
+      <c r="P515" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q515" t="s">
+        <v>511</v>
+      </c>
+      <c r="R515">
+        <v>1</v>
+      </c>
+      <c r="S515">
+        <v>1</v>
+      </c>
+      <c r="T515" t="s">
+        <v>518</v>
+      </c>
+      <c r="U515" t="s">
+        <v>37</v>
+      </c>
+      <c r="V515" t="s">
+        <v>30</v>
+      </c>
+      <c r="W515" t="s">
+        <v>112</v>
+      </c>
+      <c r="X515" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y515" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z515" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA515" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB515" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC515" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="516" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>194</v>
+      </c>
+      <c r="B516" t="s">
+        <v>121</v>
+      </c>
+      <c r="C516" t="s">
+        <v>30</v>
+      </c>
+      <c r="D516" t="s">
+        <v>31</v>
+      </c>
+      <c r="E516" t="s">
+        <v>32</v>
+      </c>
+      <c r="F516" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G516">
+        <v>2026</v>
+      </c>
+      <c r="H516" t="s">
+        <v>518</v>
+      </c>
+      <c r="I516" t="s">
+        <v>518</v>
+      </c>
+      <c r="K516">
+        <v>85</v>
+      </c>
+      <c r="L516">
+        <v>89.9</v>
+      </c>
+      <c r="M516">
+        <f t="shared" ref="M516" si="92">+L516/K516</f>
+        <v>1.0576470588235294</v>
+      </c>
+      <c r="N516">
+        <f t="shared" ref="N516" si="93">+L516/K516</f>
+        <v>1.0576470588235294</v>
+      </c>
+      <c r="O516" t="s">
+        <v>58</v>
+      </c>
+      <c r="P516" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q516" t="s">
+        <v>419</v>
+      </c>
+      <c r="R516">
+        <v>0</v>
+      </c>
+      <c r="S516">
+        <v>0</v>
+      </c>
+      <c r="T516" t="s">
+        <v>518</v>
+      </c>
+      <c r="U516" t="s">
+        <v>37</v>
+      </c>
+      <c r="V516" t="s">
+        <v>30</v>
+      </c>
+      <c r="W516" t="s">
+        <v>112</v>
+      </c>
+      <c r="X516" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y516" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z516" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA516" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB516" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC516" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="517" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A517" s="7">
+        <v>200</v>
+      </c>
+      <c r="B517" t="s">
+        <v>129</v>
+      </c>
+      <c r="C517" t="s">
+        <v>130</v>
+      </c>
+      <c r="D517" t="s">
+        <v>66</v>
+      </c>
+      <c r="E517" t="s">
+        <v>32</v>
+      </c>
+      <c r="F517" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G517">
+        <v>2026</v>
+      </c>
+      <c r="H517" t="s">
+        <v>518</v>
+      </c>
+      <c r="I517" t="s">
+        <v>518</v>
+      </c>
+      <c r="J517">
+        <v>2</v>
+      </c>
+      <c r="K517">
+        <v>80</v>
+      </c>
+      <c r="L517">
+        <v>87.4</v>
+      </c>
+      <c r="M517">
+        <f>+L517/K517</f>
+        <v>1.0925</v>
+      </c>
+      <c r="N517">
+        <v>1.0925</v>
+      </c>
+      <c r="O517" t="s">
+        <v>58</v>
+      </c>
+      <c r="P517" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q517" t="s">
+        <v>512</v>
+      </c>
+      <c r="R517">
+        <v>0</v>
+      </c>
+      <c r="S517">
+        <v>1</v>
+      </c>
+      <c r="T517" t="s">
+        <v>518</v>
+      </c>
+      <c r="U517" t="s">
+        <v>37</v>
+      </c>
+      <c r="V517" t="s">
+        <v>130</v>
+      </c>
+      <c r="W517" t="s">
+        <v>60</v>
+      </c>
+      <c r="X517" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y517" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z517" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA517" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB517" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC517" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="518" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>202</v>
+      </c>
+      <c r="B518" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C518" t="s">
+        <v>130</v>
+      </c>
+      <c r="D518" t="s">
+        <v>66</v>
+      </c>
+      <c r="E518" t="s">
+        <v>32</v>
+      </c>
+      <c r="F518" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G518">
+        <v>2026</v>
+      </c>
+      <c r="H518" t="s">
+        <v>518</v>
+      </c>
+      <c r="I518" t="s">
+        <v>518</v>
+      </c>
+      <c r="K518">
+        <v>68.7</v>
+      </c>
+      <c r="L518">
+        <v>81</v>
+      </c>
+      <c r="M518">
+        <f>+L518/K518</f>
+        <v>1.1790393013100435</v>
+      </c>
+      <c r="N518">
+        <f>+L518/K518</f>
+        <v>1.1790393013100435</v>
+      </c>
+      <c r="O518" t="s">
+        <v>245</v>
+      </c>
+      <c r="P518" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q518" t="s">
+        <v>513</v>
+      </c>
+      <c r="R518">
+        <v>1</v>
+      </c>
+      <c r="S518">
+        <v>1</v>
+      </c>
+      <c r="T518" t="s">
+        <v>518</v>
+      </c>
+      <c r="U518" t="s">
+        <v>37</v>
+      </c>
+      <c r="V518" t="s">
+        <v>130</v>
+      </c>
+      <c r="W518" t="s">
+        <v>60</v>
+      </c>
+      <c r="X518" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y518" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z518" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA518" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB518" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC518" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="519" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>203</v>
+      </c>
+      <c r="B519" t="s">
+        <v>141</v>
+      </c>
+      <c r="C519" t="s">
+        <v>142</v>
+      </c>
+      <c r="D519" t="s">
+        <v>31</v>
+      </c>
+      <c r="E519" t="s">
+        <v>32</v>
+      </c>
+      <c r="F519" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G519">
+        <v>2026</v>
+      </c>
+      <c r="H519" t="s">
+        <v>518</v>
+      </c>
+      <c r="I519" t="s">
+        <v>518</v>
+      </c>
+      <c r="K519">
+        <f>+K203+K206+K209+K479</f>
+        <v>1088227.5892360001</v>
+      </c>
+      <c r="L519">
+        <f>+L203+L206+L209+L479</f>
+        <v>1146226.222453973</v>
+      </c>
+      <c r="M519">
+        <f t="shared" ref="M519" si="94">+L519/K519</f>
+        <v>1.053296418682687</v>
+      </c>
+      <c r="N519">
+        <f t="shared" ref="N519" si="95">+L519/K519</f>
+        <v>1.053296418682687</v>
+      </c>
+      <c r="O519" t="s">
+        <v>143</v>
+      </c>
+      <c r="P519" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q519" t="str">
+        <f>A519&amp;"-"&amp;TEXT(F519,"yyyy-mm-dd")</f>
+        <v>203-2026-01-01</v>
+      </c>
+      <c r="R519">
+        <v>0</v>
+      </c>
+      <c r="S519">
+        <v>0</v>
+      </c>
+      <c r="T519" t="s">
+        <v>518</v>
+      </c>
+      <c r="U519" t="s">
+        <v>37</v>
+      </c>
+      <c r="V519" t="s">
+        <v>142</v>
+      </c>
+      <c r="W519" t="s">
+        <v>145</v>
+      </c>
+      <c r="X519" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y519" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z519" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA519" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB519" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC519" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="520" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>204</v>
+      </c>
+      <c r="B520" t="s">
+        <v>154</v>
+      </c>
+      <c r="C520" t="s">
+        <v>142</v>
+      </c>
+      <c r="D520" t="s">
+        <v>31</v>
+      </c>
+      <c r="E520" t="s">
+        <v>32</v>
+      </c>
+      <c r="F520" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G520">
+        <v>2026</v>
+      </c>
+      <c r="H520" t="s">
+        <v>518</v>
+      </c>
+      <c r="I520" t="s">
+        <v>518</v>
+      </c>
+      <c r="L520">
+        <f>128448131182/1000000</f>
+        <v>128448.131182</v>
+      </c>
+      <c r="O520" t="s">
+        <v>143</v>
+      </c>
+      <c r="P520" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q520" t="s">
+        <v>496</v>
+      </c>
+      <c r="R520">
+        <v>0</v>
+      </c>
+      <c r="S520">
+        <v>0</v>
+      </c>
+      <c r="T520" t="s">
+        <v>518</v>
+      </c>
+      <c r="U520" t="s">
+        <v>37</v>
+      </c>
+      <c r="V520" t="s">
+        <v>142</v>
+      </c>
+      <c r="W520" t="s">
+        <v>145</v>
+      </c>
+      <c r="X520" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y520" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z520" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA520" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB520" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC520" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="521" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>205</v>
+      </c>
+      <c r="B521" t="s">
+        <v>161</v>
+      </c>
+      <c r="C521" t="s">
+        <v>142</v>
+      </c>
+      <c r="D521" t="s">
+        <v>31</v>
+      </c>
+      <c r="E521" t="s">
+        <v>32</v>
+      </c>
+      <c r="F521" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G521">
+        <v>2026</v>
+      </c>
+      <c r="H521" t="s">
+        <v>518</v>
+      </c>
+      <c r="I521" t="s">
+        <v>518</v>
+      </c>
+      <c r="K521">
+        <v>4684</v>
+      </c>
+      <c r="L521">
+        <v>4684</v>
+      </c>
+      <c r="M521">
+        <v>1.3</v>
+      </c>
+      <c r="N521">
+        <v>1.8631019332578229</v>
+      </c>
+      <c r="O521" t="s">
+        <v>143</v>
+      </c>
+      <c r="P521" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q521" t="s">
+        <v>422</v>
+      </c>
+      <c r="R521">
+        <v>0</v>
+      </c>
+      <c r="S521">
+        <v>0</v>
+      </c>
+      <c r="T521" t="s">
+        <v>518</v>
+      </c>
+      <c r="U521" t="s">
+        <v>37</v>
+      </c>
+      <c r="V521" t="s">
+        <v>142</v>
+      </c>
+      <c r="W521" t="s">
+        <v>145</v>
+      </c>
+      <c r="X521" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y521" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z521" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA521" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB521" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC521" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="522" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>244</v>
+      </c>
+      <c r="B522" t="s">
+        <v>182</v>
+      </c>
+      <c r="C522" t="s">
+        <v>177</v>
+      </c>
+      <c r="D522" t="s">
+        <v>66</v>
+      </c>
+      <c r="E522" t="s">
+        <v>171</v>
+      </c>
+      <c r="F522" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G522">
+        <v>2026</v>
+      </c>
+      <c r="H522" t="s">
+        <v>518</v>
+      </c>
+      <c r="I522" t="s">
+        <v>518</v>
+      </c>
+      <c r="K522">
+        <v>25</v>
+      </c>
+      <c r="L522">
+        <v>13</v>
+      </c>
+      <c r="M522">
+        <f>IF(K522/L522&gt;1.3,1.3,K522/L522)</f>
+        <v>1.3</v>
+      </c>
+      <c r="N522">
+        <f>+K522/L522</f>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="O522" t="s">
+        <v>35</v>
+      </c>
+      <c r="P522" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q522" t="s">
+        <v>501</v>
+      </c>
+      <c r="R522">
+        <v>0</v>
+      </c>
+      <c r="S522">
+        <v>0</v>
+      </c>
+      <c r="T522" t="s">
+        <v>518</v>
+      </c>
+      <c r="U522" t="s">
+        <v>37</v>
+      </c>
+      <c r="V522" t="s">
+        <v>177</v>
+      </c>
+      <c r="W522" t="s">
+        <v>145</v>
+      </c>
+      <c r="X522" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y522" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z522" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA522" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB522" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC522" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="523" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>245</v>
+      </c>
+      <c r="B523" t="s">
+        <v>185</v>
+      </c>
+      <c r="C523" t="s">
+        <v>186</v>
+      </c>
+      <c r="D523" t="s">
+        <v>31</v>
+      </c>
+      <c r="E523" t="s">
+        <v>32</v>
+      </c>
+      <c r="F523" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G523">
+        <v>2026</v>
+      </c>
+      <c r="H523" t="s">
+        <v>518</v>
+      </c>
+      <c r="I523" t="s">
+        <v>518</v>
+      </c>
+      <c r="K523">
+        <v>86.1</v>
+      </c>
+      <c r="L523">
+        <v>86.2</v>
+      </c>
+      <c r="M523">
+        <f t="shared" ref="M523:M524" si="96">+L523/K523</f>
+        <v>1.0011614401858304</v>
+      </c>
+      <c r="N523">
+        <f t="shared" ref="N523:N524" si="97">+L523/K523</f>
+        <v>1.0011614401858304</v>
+      </c>
+      <c r="O523" t="s">
+        <v>58</v>
+      </c>
+      <c r="P523" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q523" t="s">
+        <v>421</v>
+      </c>
+      <c r="R523">
+        <v>1</v>
+      </c>
+      <c r="S523">
+        <v>1</v>
+      </c>
+      <c r="T523" t="s">
+        <v>518</v>
+      </c>
+      <c r="U523" t="s">
+        <v>37</v>
+      </c>
+      <c r="V523" t="s">
+        <v>186</v>
+      </c>
+      <c r="W523" t="s">
+        <v>112</v>
+      </c>
+      <c r="X523" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y523" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z523" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA523" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB523" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC523" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="524" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>274</v>
+      </c>
+      <c r="B524" t="s">
+        <v>480</v>
+      </c>
+      <c r="C524" t="s">
+        <v>194</v>
+      </c>
+      <c r="D524" t="s">
+        <v>31</v>
+      </c>
+      <c r="E524" t="s">
+        <v>32</v>
+      </c>
+      <c r="F524" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G524">
+        <v>2026</v>
+      </c>
+      <c r="H524" t="s">
+        <v>518</v>
+      </c>
+      <c r="I524" t="s">
+        <v>518</v>
+      </c>
+      <c r="K524">
+        <v>44737</v>
+      </c>
+      <c r="L524" s="4">
+        <v>45646</v>
+      </c>
+      <c r="M524">
+        <f t="shared" si="96"/>
+        <v>1.02031875181617</v>
+      </c>
+      <c r="N524">
+        <f t="shared" si="97"/>
+        <v>1.02031875181617</v>
+      </c>
+      <c r="O524" t="s">
+        <v>35</v>
+      </c>
+      <c r="P524" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q524" t="str">
+        <f>A524&amp;"-"&amp;TEXT(F524,"yyyy-mm-dd")</f>
+        <v>274-2026-01-01</v>
+      </c>
+      <c r="R524">
+        <v>0</v>
+      </c>
+      <c r="S524">
+        <v>0</v>
+      </c>
+      <c r="T524" t="s">
+        <v>518</v>
+      </c>
+      <c r="U524" t="s">
+        <v>37</v>
+      </c>
+      <c r="V524" t="s">
+        <v>194</v>
+      </c>
+      <c r="W524" t="s">
+        <v>38</v>
+      </c>
+      <c r="X524" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y524" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z524" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA524" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB524" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC524" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="525" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>276</v>
+      </c>
+      <c r="B525" t="s">
+        <v>201</v>
+      </c>
+      <c r="C525" t="s">
+        <v>202</v>
+      </c>
+      <c r="D525" t="s">
+        <v>31</v>
+      </c>
+      <c r="E525" t="s">
+        <v>171</v>
+      </c>
+      <c r="F525" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G525">
+        <v>2026</v>
+      </c>
+      <c r="H525" t="s">
+        <v>518</v>
+      </c>
+      <c r="I525" t="s">
+        <v>518</v>
+      </c>
+      <c r="K525">
+        <v>81</v>
+      </c>
+      <c r="L525">
+        <v>82.81</v>
+      </c>
+      <c r="M525">
+        <f t="shared" ref="M525:M526" si="98">+K525/L525</f>
+        <v>0.97814273638449456</v>
+      </c>
+      <c r="N525">
+        <f t="shared" ref="N525:N526" si="99">+K525/L525</f>
+        <v>0.97814273638449456</v>
+      </c>
+      <c r="O525" t="s">
+        <v>35</v>
+      </c>
+      <c r="P525" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q525" t="s">
+        <v>514</v>
+      </c>
+      <c r="R525">
+        <v>0</v>
+      </c>
+      <c r="S525">
+        <v>1</v>
+      </c>
+      <c r="T525" t="s">
+        <v>518</v>
+      </c>
+      <c r="U525" t="s">
+        <v>37</v>
+      </c>
+      <c r="V525" t="s">
+        <v>202</v>
+      </c>
+      <c r="W525" t="s">
+        <v>73</v>
+      </c>
+      <c r="X525" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y525" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z525" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA525" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB525" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC525" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="526" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>277</v>
+      </c>
+      <c r="B526" t="s">
+        <v>210</v>
+      </c>
+      <c r="C526" t="s">
+        <v>202</v>
+      </c>
+      <c r="D526" t="s">
+        <v>31</v>
+      </c>
+      <c r="E526" t="s">
+        <v>171</v>
+      </c>
+      <c r="F526" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G526">
+        <v>2026</v>
+      </c>
+      <c r="H526" t="s">
+        <v>518</v>
+      </c>
+      <c r="I526" t="s">
+        <v>518</v>
+      </c>
+      <c r="K526">
+        <v>71</v>
+      </c>
+      <c r="L526">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="M526">
+        <f t="shared" si="98"/>
+        <v>1.0380116959064327</v>
+      </c>
+      <c r="N526">
+        <f t="shared" si="99"/>
+        <v>1.0380116959064327</v>
+      </c>
+      <c r="O526" t="s">
+        <v>35</v>
+      </c>
+      <c r="P526" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q526" t="s">
+        <v>515</v>
+      </c>
+      <c r="R526">
+        <v>1</v>
+      </c>
+      <c r="S526">
+        <v>1</v>
+      </c>
+      <c r="T526" t="s">
+        <v>518</v>
+      </c>
+      <c r="U526" t="s">
+        <v>37</v>
+      </c>
+      <c r="V526" t="s">
+        <v>202</v>
+      </c>
+      <c r="W526" t="s">
+        <v>73</v>
+      </c>
+      <c r="X526" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z526" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA526" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB526" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC526" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="527" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>332</v>
+      </c>
+      <c r="B527" t="s">
+        <v>239</v>
+      </c>
+      <c r="C527" t="s">
+        <v>130</v>
+      </c>
+      <c r="D527" t="s">
+        <v>31</v>
+      </c>
+      <c r="E527" t="s">
+        <v>171</v>
+      </c>
+      <c r="F527" s="3">
+        <v>45838</v>
+      </c>
+      <c r="G527">
+        <v>2025</v>
+      </c>
+      <c r="H527" t="s">
+        <v>33</v>
+      </c>
+      <c r="I527" t="s">
+        <v>404</v>
+      </c>
+      <c r="K527">
+        <v>1.4</v>
+      </c>
+      <c r="L527">
+        <v>0.85</v>
+      </c>
+      <c r="M527">
+        <v>1.3</v>
+      </c>
+      <c r="N527">
+        <v>1.6470588235294119</v>
+      </c>
+      <c r="O527" t="s">
+        <v>245</v>
+      </c>
+      <c r="P527" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q527" t="s">
+        <v>431</v>
+      </c>
+      <c r="R527">
+        <v>2</v>
+      </c>
+      <c r="S527">
+        <v>2</v>
+      </c>
+      <c r="T527" t="s">
+        <v>443</v>
+      </c>
+      <c r="U527" t="s">
+        <v>37</v>
+      </c>
+      <c r="V527" t="s">
+        <v>130</v>
+      </c>
+      <c r="W527" t="s">
+        <v>60</v>
+      </c>
+      <c r="X527" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y527" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z527" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA527" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB527" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC527" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Dataset_Unificado.xlsx
+++ b/Data/Dataset_Unificado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f15395a9ed9a48f/Proyectos_DS/PDI_2022_2025/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2175" documentId="11_C54DB9D477E07092D1C9E253F65DD242EE9209D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47272230-57A3-4A1B-8397-976C1A73F68E}"/>
+  <xr:revisionPtr revIDLastSave="2244" documentId="11_C54DB9D477E07092D1C9E253F65DD242EE9209D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{776C814E-F7F9-406C-8AA9-212BF40FB006}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Base_Indicadores!$A$1:$M$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unificado!$A$1:$AC$526</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unificado!$A$1:$AC$539</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14696" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14915" uniqueCount="520">
   <si>
     <t>Id</t>
   </si>
@@ -2005,11 +2005,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC527"/>
+  <dimension ref="A1:AC539"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15418,7 +15416,7 @@
         <v>1.3</v>
       </c>
       <c r="N156">
-        <f t="shared" ref="N156:N163" si="25">+L156/K156</f>
+        <f t="shared" ref="N156:N162" si="25">+L156/K156</f>
         <v>1.4279999999999999</v>
       </c>
       <c r="O156" t="s">
@@ -45634,9 +45632,6 @@
       <c r="I501" t="s">
         <v>465</v>
       </c>
-      <c r="J501">
-        <v>2</v>
-      </c>
       <c r="K501">
         <v>83197</v>
       </c>
@@ -46703,7 +46698,7 @@
         <v>94</v>
       </c>
       <c r="M513">
-        <f t="shared" ref="M513:M514" si="91">+L513/K513</f>
+        <f t="shared" ref="M513" si="91">+L513/K513</f>
         <v>1.175</v>
       </c>
       <c r="N513">
@@ -47907,16 +47902,16 @@
         <v>171</v>
       </c>
       <c r="F527" s="3">
-        <v>45838</v>
+        <v>46023</v>
       </c>
       <c r="G527">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="H527" t="s">
-        <v>33</v>
+        <v>518</v>
       </c>
       <c r="I527" t="s">
-        <v>404</v>
+        <v>518</v>
       </c>
       <c r="K527">
         <v>1.4</v>
@@ -47946,7 +47941,7 @@
         <v>2</v>
       </c>
       <c r="T527" t="s">
-        <v>443</v>
+        <v>518</v>
       </c>
       <c r="U527" t="s">
         <v>37</v>
@@ -47973,6 +47968,1055 @@
         <v>65</v>
       </c>
       <c r="AC527" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="528" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>364</v>
+      </c>
+      <c r="B528" t="s">
+        <v>271</v>
+      </c>
+      <c r="C528" t="s">
+        <v>267</v>
+      </c>
+      <c r="D528" t="s">
+        <v>31</v>
+      </c>
+      <c r="E528" t="s">
+        <v>171</v>
+      </c>
+      <c r="F528" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G528">
+        <v>2026</v>
+      </c>
+      <c r="H528" t="s">
+        <v>518</v>
+      </c>
+      <c r="I528" t="s">
+        <v>518</v>
+      </c>
+      <c r="K528">
+        <f>+K369+K501</f>
+        <v>162432</v>
+      </c>
+      <c r="L528">
+        <f>+L369+L501</f>
+        <v>158937</v>
+      </c>
+      <c r="M528">
+        <f t="shared" ref="M528" si="100">+L528/K528</f>
+        <v>0.97848330378250592</v>
+      </c>
+      <c r="N528">
+        <f t="shared" ref="N528" si="101">+L528/K528</f>
+        <v>0.97848330378250592</v>
+      </c>
+      <c r="O528" t="s">
+        <v>35</v>
+      </c>
+      <c r="P528" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q528" t="s">
+        <v>516</v>
+      </c>
+      <c r="R528">
+        <v>0</v>
+      </c>
+      <c r="S528">
+        <v>0</v>
+      </c>
+      <c r="T528" t="s">
+        <v>518</v>
+      </c>
+      <c r="U528" t="s">
+        <v>37</v>
+      </c>
+      <c r="V528" t="s">
+        <v>267</v>
+      </c>
+      <c r="W528" t="s">
+        <v>145</v>
+      </c>
+      <c r="X528" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y528" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z528" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA528" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB528" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC528" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="529" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>367</v>
+      </c>
+      <c r="B529" t="s">
+        <v>500</v>
+      </c>
+      <c r="C529" t="s">
+        <v>267</v>
+      </c>
+      <c r="D529" t="s">
+        <v>66</v>
+      </c>
+      <c r="E529" t="s">
+        <v>32</v>
+      </c>
+      <c r="F529" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G529">
+        <v>2026</v>
+      </c>
+      <c r="H529" t="s">
+        <v>518</v>
+      </c>
+      <c r="I529" t="s">
+        <v>518</v>
+      </c>
+      <c r="K529">
+        <v>5</v>
+      </c>
+      <c r="L529">
+        <v>5.43</v>
+      </c>
+      <c r="M529">
+        <f>+L529/K529</f>
+        <v>1.0859999999999999</v>
+      </c>
+      <c r="N529">
+        <f>+L529/K529</f>
+        <v>1.0859999999999999</v>
+      </c>
+      <c r="O529" t="s">
+        <v>58</v>
+      </c>
+      <c r="P529" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q529" t="s">
+        <v>499</v>
+      </c>
+      <c r="R529">
+        <v>1</v>
+      </c>
+      <c r="S529">
+        <v>2</v>
+      </c>
+      <c r="T529" t="s">
+        <v>518</v>
+      </c>
+      <c r="U529" t="s">
+        <v>37</v>
+      </c>
+      <c r="V529" t="s">
+        <v>267</v>
+      </c>
+      <c r="W529" t="s">
+        <v>145</v>
+      </c>
+      <c r="X529" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y529" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z529" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA529" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB529" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC529" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="530" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>369</v>
+      </c>
+      <c r="B530" t="s">
+        <v>283</v>
+      </c>
+      <c r="C530" t="s">
+        <v>267</v>
+      </c>
+      <c r="D530" t="s">
+        <v>31</v>
+      </c>
+      <c r="E530" t="s">
+        <v>32</v>
+      </c>
+      <c r="F530" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G530">
+        <v>2026</v>
+      </c>
+      <c r="H530" t="s">
+        <v>518</v>
+      </c>
+      <c r="I530" t="s">
+        <v>518</v>
+      </c>
+      <c r="K530">
+        <f>+K502+K383</f>
+        <v>378</v>
+      </c>
+      <c r="L530">
+        <f>+L502+L383</f>
+        <v>328</v>
+      </c>
+      <c r="M530">
+        <f t="shared" ref="M530:M531" si="102">+L530/K530</f>
+        <v>0.86772486772486768</v>
+      </c>
+      <c r="N530">
+        <f>+L530/K530</f>
+        <v>0.86772486772486768</v>
+      </c>
+      <c r="O530" t="s">
+        <v>35</v>
+      </c>
+      <c r="P530" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q530" t="s">
+        <v>517</v>
+      </c>
+      <c r="R530">
+        <v>0</v>
+      </c>
+      <c r="S530">
+        <v>0</v>
+      </c>
+      <c r="T530" t="s">
+        <v>518</v>
+      </c>
+      <c r="U530" t="s">
+        <v>37</v>
+      </c>
+      <c r="V530" t="s">
+        <v>267</v>
+      </c>
+      <c r="W530" t="s">
+        <v>145</v>
+      </c>
+      <c r="X530" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y530" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z530" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA530" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB530" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC530" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="531" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>376</v>
+      </c>
+      <c r="B531" t="s">
+        <v>473</v>
+      </c>
+      <c r="C531" t="s">
+        <v>142</v>
+      </c>
+      <c r="D531" t="s">
+        <v>31</v>
+      </c>
+      <c r="E531" t="s">
+        <v>32</v>
+      </c>
+      <c r="F531" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G531">
+        <v>2026</v>
+      </c>
+      <c r="H531" t="s">
+        <v>518</v>
+      </c>
+      <c r="I531" t="s">
+        <v>518</v>
+      </c>
+      <c r="K531">
+        <f>+K393+K391+K389+K387</f>
+        <v>101274.06472913575</v>
+      </c>
+      <c r="L531">
+        <f>+L393+L391+L389+L387</f>
+        <v>112137.89274782965</v>
+      </c>
+      <c r="M531">
+        <f t="shared" si="102"/>
+        <v>1.1072715709372378</v>
+      </c>
+      <c r="N531">
+        <f t="shared" ref="N531" si="103">+L531/K531</f>
+        <v>1.1072715709372378</v>
+      </c>
+      <c r="O531" t="s">
+        <v>143</v>
+      </c>
+      <c r="P531" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q531" t="s">
+        <v>498</v>
+      </c>
+      <c r="R531">
+        <v>0</v>
+      </c>
+      <c r="S531">
+        <v>0</v>
+      </c>
+      <c r="T531" t="s">
+        <v>518</v>
+      </c>
+      <c r="U531" t="s">
+        <v>37</v>
+      </c>
+      <c r="V531" t="s">
+        <v>142</v>
+      </c>
+      <c r="W531" t="s">
+        <v>145</v>
+      </c>
+      <c r="X531" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y531" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z531" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA531" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB531" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC531" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="532" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>379</v>
+      </c>
+      <c r="B532" t="s">
+        <v>301</v>
+      </c>
+      <c r="C532" t="s">
+        <v>302</v>
+      </c>
+      <c r="D532" t="s">
+        <v>31</v>
+      </c>
+      <c r="E532" t="s">
+        <v>32</v>
+      </c>
+      <c r="F532" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G532">
+        <v>2026</v>
+      </c>
+      <c r="H532" t="s">
+        <v>518</v>
+      </c>
+      <c r="I532" t="s">
+        <v>518</v>
+      </c>
+      <c r="K532">
+        <f>+K413+K416+K419+K503</f>
+        <v>90899</v>
+      </c>
+      <c r="L532">
+        <f>+L413+L416+L419+L503</f>
+        <v>92559</v>
+      </c>
+      <c r="M532">
+        <f>+L532/K532</f>
+        <v>1.0182620270850065</v>
+      </c>
+      <c r="N532">
+        <f>+L532/K532</f>
+        <v>1.0182620270850065</v>
+      </c>
+      <c r="O532" t="s">
+        <v>35</v>
+      </c>
+      <c r="P532" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q532" t="str">
+        <f>A532&amp;"-"&amp;TEXT(F532,"yyyy-mm-dd")</f>
+        <v>379-2026-01-01</v>
+      </c>
+      <c r="R532">
+        <v>0</v>
+      </c>
+      <c r="S532">
+        <v>0</v>
+      </c>
+      <c r="T532" t="s">
+        <v>518</v>
+      </c>
+      <c r="U532" t="s">
+        <v>37</v>
+      </c>
+      <c r="V532" t="s">
+        <v>302</v>
+      </c>
+      <c r="W532" t="s">
+        <v>38</v>
+      </c>
+      <c r="X532" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y532" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z532" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA532" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB532" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC532" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="533" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>385</v>
+      </c>
+      <c r="B533" t="s">
+        <v>309</v>
+      </c>
+      <c r="C533" t="s">
+        <v>310</v>
+      </c>
+      <c r="D533" t="s">
+        <v>31</v>
+      </c>
+      <c r="E533" t="s">
+        <v>32</v>
+      </c>
+      <c r="F533" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G533">
+        <v>2026</v>
+      </c>
+      <c r="H533" t="s">
+        <v>518</v>
+      </c>
+      <c r="I533" t="s">
+        <v>518</v>
+      </c>
+      <c r="K533">
+        <f>+K484+K427+K425+K423</f>
+        <v>60024.456511000004</v>
+      </c>
+      <c r="L533">
+        <f>+L484+L427+L425+L423</f>
+        <v>58331.780656999996</v>
+      </c>
+      <c r="M533">
+        <f>L533/K533</f>
+        <v>0.97180023023299156</v>
+      </c>
+      <c r="N533">
+        <f>L533/K533</f>
+        <v>0.97180023023299156</v>
+      </c>
+      <c r="O533" t="s">
+        <v>143</v>
+      </c>
+      <c r="P533" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q533" t="s">
+        <v>486</v>
+      </c>
+      <c r="R533">
+        <v>0</v>
+      </c>
+      <c r="S533">
+        <v>0</v>
+      </c>
+      <c r="T533" t="s">
+        <v>518</v>
+      </c>
+      <c r="U533" t="s">
+        <v>37</v>
+      </c>
+      <c r="V533" t="s">
+        <v>310</v>
+      </c>
+      <c r="W533" t="s">
+        <v>312</v>
+      </c>
+      <c r="X533" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y533" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB533" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC533" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="534" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>386.1</v>
+      </c>
+      <c r="B534" t="s">
+        <v>377</v>
+      </c>
+      <c r="C534" t="s">
+        <v>310</v>
+      </c>
+      <c r="D534" t="s">
+        <v>31</v>
+      </c>
+      <c r="E534" t="s">
+        <v>32</v>
+      </c>
+      <c r="F534" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G534">
+        <v>2026</v>
+      </c>
+      <c r="H534" t="s">
+        <v>518</v>
+      </c>
+      <c r="I534" t="s">
+        <v>518</v>
+      </c>
+      <c r="K534">
+        <f>+K483+K434+K432+K430</f>
+        <v>9719.0247151999993</v>
+      </c>
+      <c r="L534">
+        <f>+L483+L434+L432+L430</f>
+        <v>12435.92103</v>
+      </c>
+      <c r="M534">
+        <f>IF(+L534/K534&gt;1.3,1.3,L534/K534)</f>
+        <v>1.2795441306524233</v>
+      </c>
+      <c r="N534">
+        <f>+L534/K534</f>
+        <v>1.2795441306524233</v>
+      </c>
+      <c r="O534" t="s">
+        <v>143</v>
+      </c>
+      <c r="P534" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q534" t="s">
+        <v>490</v>
+      </c>
+      <c r="R534">
+        <v>0</v>
+      </c>
+      <c r="S534">
+        <v>0</v>
+      </c>
+      <c r="T534" t="s">
+        <v>518</v>
+      </c>
+      <c r="U534" t="s">
+        <v>37</v>
+      </c>
+      <c r="V534" t="s">
+        <v>310</v>
+      </c>
+      <c r="W534" t="s">
+        <v>312</v>
+      </c>
+      <c r="X534" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y534" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB534" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC534" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="535" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>386.2</v>
+      </c>
+      <c r="B535" t="s">
+        <v>382</v>
+      </c>
+      <c r="C535" t="s">
+        <v>310</v>
+      </c>
+      <c r="D535" t="s">
+        <v>31</v>
+      </c>
+      <c r="E535" t="s">
+        <v>32</v>
+      </c>
+      <c r="F535" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G535">
+        <v>2026</v>
+      </c>
+      <c r="H535" t="s">
+        <v>518</v>
+      </c>
+      <c r="I535" t="s">
+        <v>518</v>
+      </c>
+      <c r="K535">
+        <f>+K443+K441+K439+K437</f>
+        <v>27575.2022841</v>
+      </c>
+      <c r="L535">
+        <f>+L443+L441+L439+L437</f>
+        <v>27184.360324000001</v>
+      </c>
+      <c r="M535">
+        <f t="shared" ref="M535" si="104">L535/K535</f>
+        <v>0.98582632482354049</v>
+      </c>
+      <c r="N535">
+        <f t="shared" ref="N535:N536" si="105">L535/K535</f>
+        <v>0.98582632482354049</v>
+      </c>
+      <c r="O535" t="s">
+        <v>143</v>
+      </c>
+      <c r="P535" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q535" t="s">
+        <v>489</v>
+      </c>
+      <c r="R535">
+        <v>0</v>
+      </c>
+      <c r="S535">
+        <v>0</v>
+      </c>
+      <c r="T535" t="s">
+        <v>518</v>
+      </c>
+      <c r="U535" t="s">
+        <v>37</v>
+      </c>
+      <c r="V535" t="s">
+        <v>310</v>
+      </c>
+      <c r="W535" t="s">
+        <v>312</v>
+      </c>
+      <c r="X535" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y535" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB535" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC535" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="536" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>386.3</v>
+      </c>
+      <c r="B536" t="s">
+        <v>387</v>
+      </c>
+      <c r="C536" t="s">
+        <v>310</v>
+      </c>
+      <c r="D536" t="s">
+        <v>31</v>
+      </c>
+      <c r="E536" t="s">
+        <v>32</v>
+      </c>
+      <c r="F536" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G536">
+        <v>2026</v>
+      </c>
+      <c r="H536" t="s">
+        <v>518</v>
+      </c>
+      <c r="I536" t="s">
+        <v>518</v>
+      </c>
+      <c r="K536">
+        <f>+K451+K449+K447+K445</f>
+        <v>19404.541402700001</v>
+      </c>
+      <c r="L536">
+        <f>+L451+L449+L447+L445</f>
+        <v>18711.499303000001</v>
+      </c>
+      <c r="M536">
+        <f t="shared" ref="M536" si="106">IF(L536/K536&gt;1.3,1.3,L536/K536)</f>
+        <v>0.96428454116397888</v>
+      </c>
+      <c r="N536">
+        <f t="shared" si="105"/>
+        <v>0.96428454116397888</v>
+      </c>
+      <c r="O536" t="s">
+        <v>143</v>
+      </c>
+      <c r="P536" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q536" t="s">
+        <v>492</v>
+      </c>
+      <c r="R536">
+        <v>0</v>
+      </c>
+      <c r="S536">
+        <v>0</v>
+      </c>
+      <c r="T536" t="s">
+        <v>518</v>
+      </c>
+      <c r="U536" t="s">
+        <v>37</v>
+      </c>
+      <c r="V536" t="s">
+        <v>310</v>
+      </c>
+      <c r="W536" t="s">
+        <v>312</v>
+      </c>
+      <c r="X536" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y536" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB536" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC536" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="537" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>423</v>
+      </c>
+      <c r="B537" t="s">
+        <v>320</v>
+      </c>
+      <c r="C537" t="s">
+        <v>83</v>
+      </c>
+      <c r="D537" t="s">
+        <v>66</v>
+      </c>
+      <c r="E537" t="s">
+        <v>32</v>
+      </c>
+      <c r="F537" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G537">
+        <v>2026</v>
+      </c>
+      <c r="H537" t="s">
+        <v>518</v>
+      </c>
+      <c r="I537" t="s">
+        <v>518</v>
+      </c>
+      <c r="K537">
+        <v>12</v>
+      </c>
+      <c r="L537">
+        <v>15.1</v>
+      </c>
+      <c r="M537">
+        <f>+L537/K537</f>
+        <v>1.2583333333333333</v>
+      </c>
+      <c r="N537">
+        <f>+L537/K537</f>
+        <v>1.2583333333333333</v>
+      </c>
+      <c r="O537" t="s">
+        <v>245</v>
+      </c>
+      <c r="P537" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q537" t="s">
+        <v>494</v>
+      </c>
+      <c r="R537">
+        <v>1</v>
+      </c>
+      <c r="S537">
+        <v>1</v>
+      </c>
+      <c r="T537" t="s">
+        <v>518</v>
+      </c>
+      <c r="U537" t="s">
+        <v>37</v>
+      </c>
+      <c r="V537" t="s">
+        <v>83</v>
+      </c>
+      <c r="W537" t="s">
+        <v>38</v>
+      </c>
+      <c r="X537" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y537" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z537" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA537" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB537" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC537" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="538" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>424</v>
+      </c>
+      <c r="B538" t="s">
+        <v>325</v>
+      </c>
+      <c r="C538" t="s">
+        <v>83</v>
+      </c>
+      <c r="D538" t="s">
+        <v>66</v>
+      </c>
+      <c r="E538" t="s">
+        <v>32</v>
+      </c>
+      <c r="F538" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G538">
+        <v>2026</v>
+      </c>
+      <c r="H538" t="s">
+        <v>518</v>
+      </c>
+      <c r="I538" t="s">
+        <v>518</v>
+      </c>
+      <c r="K538">
+        <v>9</v>
+      </c>
+      <c r="L538">
+        <v>11</v>
+      </c>
+      <c r="M538">
+        <f>+L538/K538</f>
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="N538">
+        <f>+L538/K538</f>
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="O538" t="s">
+        <v>35</v>
+      </c>
+      <c r="P538" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q538" t="s">
+        <v>495</v>
+      </c>
+      <c r="R538">
+        <v>0</v>
+      </c>
+      <c r="S538">
+        <v>0</v>
+      </c>
+      <c r="T538" t="s">
+        <v>518</v>
+      </c>
+      <c r="U538" t="s">
+        <v>37</v>
+      </c>
+      <c r="V538" t="s">
+        <v>83</v>
+      </c>
+      <c r="W538" t="s">
+        <v>38</v>
+      </c>
+      <c r="X538" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y538" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z538" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA538" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB538" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC538" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="539" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>466</v>
+      </c>
+      <c r="B539" t="s">
+        <v>341</v>
+      </c>
+      <c r="C539" t="s">
+        <v>30</v>
+      </c>
+      <c r="D539" t="s">
+        <v>31</v>
+      </c>
+      <c r="E539" t="s">
+        <v>32</v>
+      </c>
+      <c r="F539" s="3">
+        <v>46023</v>
+      </c>
+      <c r="G539">
+        <v>2026</v>
+      </c>
+      <c r="H539" t="s">
+        <v>518</v>
+      </c>
+      <c r="I539" t="s">
+        <v>518</v>
+      </c>
+      <c r="K539">
+        <v>55</v>
+      </c>
+      <c r="L539">
+        <v>58.6</v>
+      </c>
+      <c r="M539">
+        <f t="shared" ref="M539" si="107">+L539/K539</f>
+        <v>1.0654545454545454</v>
+      </c>
+      <c r="N539">
+        <f>+L539/K539</f>
+        <v>1.0654545454545454</v>
+      </c>
+      <c r="O539" t="s">
+        <v>35</v>
+      </c>
+      <c r="P539" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q539" t="s">
+        <v>487</v>
+      </c>
+      <c r="R539">
+        <v>1</v>
+      </c>
+      <c r="S539">
+        <v>1</v>
+      </c>
+      <c r="T539" t="s">
+        <v>518</v>
+      </c>
+      <c r="U539" t="s">
+        <v>37</v>
+      </c>
+      <c r="V539" t="s">
+        <v>342</v>
+      </c>
+      <c r="W539" t="s">
+        <v>112</v>
+      </c>
+      <c r="X539" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y539" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z539" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA539" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB539" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC539" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Data/Dataset_Unificado.xlsx
+++ b/Data/Dataset_Unificado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f15395a9ed9a48f/Proyectos_DS/PDI_2022_2025/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2996" documentId="11_C54DB9D477E07092D1C9E253F65DD242EE9209D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D8C1E99-0B6E-4F14-BF5D-9A4222FDDE76}"/>
+  <xr:revisionPtr revIDLastSave="3002" documentId="11_C54DB9D477E07092D1C9E253F65DD242EE9209D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A25C1709-7A35-4170-BBC8-1EF08AF0E8A1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Base_Indicadores!$A$1:$M$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Cierres_Original!$A$1:$T$180</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unificado!$A$1:$AD$637</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unificado!$A$1:$AD$652</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16938" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16906" uniqueCount="751">
   <si>
     <t>Id</t>
   </si>
@@ -2255,18 +2255,6 @@
     <t>Diseño del Gobierno de IT</t>
   </si>
   <si>
-    <t>Prov-11</t>
-  </si>
-  <si>
-    <t>Arquitectura de Microservicios</t>
-  </si>
-  <si>
-    <t>Prov-12</t>
-  </si>
-  <si>
-    <t>Smart Assistant</t>
-  </si>
-  <si>
     <t>Prov-13</t>
   </si>
   <si>
@@ -2318,7 +2306,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2350,13 +2338,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2409,7 +2390,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2430,11 +2411,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares 2" xfId="2" xr:uid="{2B248724-A66E-415B-8BBA-BBCDE8553B51}"/>
@@ -2911,11 +2890,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD654"/>
+  <dimension ref="A1:AD652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A633" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A654" sqref="A654"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61106,7 +61085,7 @@
       <c r="A638" s="16" t="s">
         <v>719</v>
       </c>
-      <c r="B638" s="17" t="s">
+      <c r="B638" s="6" t="s">
         <v>720</v>
       </c>
       <c r="C638" s="3" t="s">
@@ -61135,10 +61114,10 @@
       <c r="L638" s="3"/>
       <c r="M638" s="3"/>
       <c r="N638" s="3"/>
-      <c r="O638" s="18" t="s">
+      <c r="O638" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="P638" s="18" t="s">
+      <c r="P638" s="3" t="s">
         <v>644</v>
       </c>
       <c r="Q638" s="3"/>
@@ -61176,7 +61155,7 @@
       <c r="A639" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="B639" s="17" t="s">
+      <c r="B639" s="6" t="s">
         <v>722</v>
       </c>
       <c r="C639" s="3" t="s">
@@ -61205,10 +61184,10 @@
       <c r="L639" s="3"/>
       <c r="M639" s="3"/>
       <c r="N639" s="3"/>
-      <c r="O639" s="18" t="s">
+      <c r="O639" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="P639" s="18" t="s">
+      <c r="P639" s="3" t="s">
         <v>644</v>
       </c>
       <c r="Q639" s="3"/>
@@ -61275,10 +61254,10 @@
       <c r="L640" s="3"/>
       <c r="M640" s="3"/>
       <c r="N640" s="3"/>
-      <c r="O640" s="18" t="s">
+      <c r="O640" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="P640" s="18" t="s">
+      <c r="P640" s="3" t="s">
         <v>644</v>
       </c>
       <c r="Q640" s="3"/>
@@ -61289,7 +61268,7 @@
         <v>37</v>
       </c>
       <c r="V640" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="W640" s="3" t="s">
         <v>73</v>
@@ -61298,7 +61277,7 @@
         <v>218</v>
       </c>
       <c r="Y640" s="3" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="Z640" s="3"/>
       <c r="AA640" s="3"/>
@@ -61345,10 +61324,10 @@
       <c r="L641" s="3"/>
       <c r="M641" s="3"/>
       <c r="N641" s="3"/>
-      <c r="O641" s="18" t="s">
+      <c r="O641" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="P641" s="18" t="s">
+      <c r="P641" s="3" t="s">
         <v>644</v>
       </c>
       <c r="Q641" s="3"/>
@@ -61415,10 +61394,10 @@
       <c r="L642" s="3"/>
       <c r="M642" s="3"/>
       <c r="N642" s="3"/>
-      <c r="O642" s="18" t="s">
+      <c r="O642" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="P642" s="18" t="s">
+      <c r="P642" s="3" t="s">
         <v>644</v>
       </c>
       <c r="Q642" s="3"/>
@@ -61485,10 +61464,10 @@
       <c r="L643" s="3"/>
       <c r="M643" s="3"/>
       <c r="N643" s="3"/>
-      <c r="O643" s="18" t="s">
+      <c r="O643" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="P643" s="18" t="s">
+      <c r="P643" s="3" t="s">
         <v>644</v>
       </c>
       <c r="Q643" s="3"/>
@@ -61555,10 +61534,10 @@
       <c r="L644" s="3"/>
       <c r="M644" s="3"/>
       <c r="N644" s="3"/>
-      <c r="O644" s="18" t="s">
+      <c r="O644" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="P644" s="18" t="s">
+      <c r="P644" s="3" t="s">
         <v>644</v>
       </c>
       <c r="Q644" s="3"/>
@@ -61625,10 +61604,10 @@
       <c r="L645" s="3"/>
       <c r="M645" s="3"/>
       <c r="N645" s="3"/>
-      <c r="O645" s="18" t="s">
+      <c r="O645" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="P645" s="18" t="s">
+      <c r="P645" s="3" t="s">
         <v>644</v>
       </c>
       <c r="Q645" s="3"/>
@@ -61695,10 +61674,10 @@
       <c r="L646" s="3"/>
       <c r="M646" s="3"/>
       <c r="N646" s="3"/>
-      <c r="O646" s="18" t="s">
+      <c r="O646" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="P646" s="18" t="s">
+      <c r="P646" s="3" t="s">
         <v>644</v>
       </c>
       <c r="Q646" s="3"/>
@@ -61765,10 +61744,10 @@
       <c r="L647" s="3"/>
       <c r="M647" s="3"/>
       <c r="N647" s="3"/>
-      <c r="O647" s="18" t="s">
+      <c r="O647" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="P647" s="18" t="s">
+      <c r="P647" s="3" t="s">
         <v>644</v>
       </c>
       <c r="Q647" s="3"/>
@@ -61779,16 +61758,16 @@
         <v>37</v>
       </c>
       <c r="V647" s="3" t="s">
-        <v>559</v>
+        <v>30</v>
       </c>
       <c r="W647" s="3" t="s">
         <v>60</v>
       </c>
       <c r="X647" s="3" t="s">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="Y647" s="3" t="s">
-        <v>62</v>
+        <v>637</v>
       </c>
       <c r="Z647" s="3"/>
       <c r="AA647" s="3"/>
@@ -61835,10 +61814,10 @@
       <c r="L648" s="3"/>
       <c r="M648" s="3"/>
       <c r="N648" s="3"/>
-      <c r="O648" s="18" t="s">
+      <c r="O648" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="P648" s="18" t="s">
+      <c r="P648" s="3" t="s">
         <v>644</v>
       </c>
       <c r="Q648" s="3"/>
@@ -61849,16 +61828,16 @@
         <v>37</v>
       </c>
       <c r="V648" s="3" t="s">
-        <v>559</v>
+        <v>260</v>
       </c>
       <c r="W648" s="3" t="s">
         <v>60</v>
       </c>
       <c r="X648" s="3" t="s">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="Y648" s="3" t="s">
-        <v>62</v>
+        <v>263</v>
       </c>
       <c r="Z648" s="3"/>
       <c r="AA648" s="3"/>
@@ -61905,10 +61884,10 @@
       <c r="L649" s="3"/>
       <c r="M649" s="3"/>
       <c r="N649" s="3"/>
-      <c r="O649" s="18" t="s">
+      <c r="O649" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="P649" s="18" t="s">
+      <c r="P649" s="3" t="s">
         <v>644</v>
       </c>
       <c r="Q649" s="3"/>
@@ -61919,7 +61898,7 @@
         <v>37</v>
       </c>
       <c r="V649" s="3" t="s">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="W649" s="3" t="s">
         <v>60</v>
@@ -61928,7 +61907,7 @@
         <v>262</v>
       </c>
       <c r="Y649" s="3" t="s">
-        <v>637</v>
+        <v>263</v>
       </c>
       <c r="Z649" s="3"/>
       <c r="AA649" s="3"/>
@@ -61946,7 +61925,7 @@
       <c r="A650" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="B650" s="6" t="s">
+      <c r="B650" s="3" t="s">
         <v>744</v>
       </c>
       <c r="C650" s="3" t="s">
@@ -61975,10 +61954,10 @@
       <c r="L650" s="3"/>
       <c r="M650" s="3"/>
       <c r="N650" s="3"/>
-      <c r="O650" s="18" t="s">
+      <c r="O650" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="P650" s="18" t="s">
+      <c r="P650" s="3" t="s">
         <v>644</v>
       </c>
       <c r="Q650" s="3"/>
@@ -62045,10 +62024,10 @@
       <c r="L651" s="3"/>
       <c r="M651" s="3"/>
       <c r="N651" s="3"/>
-      <c r="O651" s="18" t="s">
+      <c r="O651" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="P651" s="18" t="s">
+      <c r="P651" s="3" t="s">
         <v>644</v>
       </c>
       <c r="Q651" s="3"/>
@@ -62059,16 +62038,16 @@
         <v>37</v>
       </c>
       <c r="V651" s="3" t="s">
-        <v>260</v>
+        <v>560</v>
       </c>
       <c r="W651" s="3" t="s">
-        <v>60</v>
+        <v>312</v>
       </c>
       <c r="X651" s="3" t="s">
-        <v>262</v>
+        <v>629</v>
       </c>
       <c r="Y651" s="3" t="s">
-        <v>263</v>
+        <v>630</v>
       </c>
       <c r="Z651" s="3"/>
       <c r="AA651" s="3"/>
@@ -62086,7 +62065,7 @@
       <c r="A652" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="B652" s="3" t="s">
+      <c r="B652" s="6" t="s">
         <v>748</v>
       </c>
       <c r="C652" s="3" t="s">
@@ -62115,10 +62094,10 @@
       <c r="L652" s="3"/>
       <c r="M652" s="3"/>
       <c r="N652" s="3"/>
-      <c r="O652" s="18" t="s">
+      <c r="O652" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="P652" s="18" t="s">
+      <c r="P652" s="3" t="s">
         <v>644</v>
       </c>
       <c r="Q652" s="3"/>
@@ -62129,16 +62108,16 @@
         <v>37</v>
       </c>
       <c r="V652" s="3" t="s">
-        <v>260</v>
+        <v>560</v>
       </c>
       <c r="W652" s="3" t="s">
-        <v>60</v>
+        <v>312</v>
       </c>
       <c r="X652" s="3" t="s">
-        <v>262</v>
+        <v>629</v>
       </c>
       <c r="Y652" s="3" t="s">
-        <v>263</v>
+        <v>630</v>
       </c>
       <c r="Z652" s="3"/>
       <c r="AA652" s="3"/>
@@ -62149,146 +62128,6 @@
         <v>66</v>
       </c>
       <c r="AD652" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="653" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A653" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="B653" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="C653" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D653" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E653" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F653" s="12">
-        <v>46023</v>
-      </c>
-      <c r="G653" s="8">
-        <v>2026</v>
-      </c>
-      <c r="H653" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="I653" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="J653" s="3"/>
-      <c r="K653" s="3"/>
-      <c r="L653" s="3"/>
-      <c r="M653" s="3"/>
-      <c r="N653" s="3"/>
-      <c r="O653" s="18" t="s">
-        <v>644</v>
-      </c>
-      <c r="P653" s="18" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q653" s="3"/>
-      <c r="R653" s="3"/>
-      <c r="S653" s="3"/>
-      <c r="T653" s="3"/>
-      <c r="U653" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V653" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="W653" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="X653" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="Y653" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="Z653" s="3"/>
-      <c r="AA653" s="3"/>
-      <c r="AB653" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC653" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD653" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="654" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A654" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="B654" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="C654" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D654" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E654" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F654" s="12">
-        <v>46023</v>
-      </c>
-      <c r="G654" s="8">
-        <v>2026</v>
-      </c>
-      <c r="H654" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="I654" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="J654" s="3"/>
-      <c r="K654" s="3"/>
-      <c r="L654" s="3"/>
-      <c r="M654" s="3"/>
-      <c r="N654" s="3"/>
-      <c r="O654" s="18" t="s">
-        <v>644</v>
-      </c>
-      <c r="P654" s="18" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q654" s="3"/>
-      <c r="R654" s="3"/>
-      <c r="S654" s="3"/>
-      <c r="T654" s="3"/>
-      <c r="U654" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V654" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="W654" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="X654" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="Y654" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="Z654" s="3"/>
-      <c r="AA654" s="3"/>
-      <c r="AB654" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC654" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD654" s="3">
         <v>0</v>
       </c>
     </row>
@@ -62315,26 +62154,26 @@
     <cfRule type="duplicateValues" dxfId="8" priority="12"/>
     <cfRule type="duplicateValues" dxfId="7" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A638:A654">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  <conditionalFormatting sqref="A638:A652">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A638:A652">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+  <conditionalFormatting sqref="A651">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B638:B652">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  <conditionalFormatting sqref="A652">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A653">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="B651">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B653">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="B652">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A654">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="A638:A650">
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B654">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B638:B650">
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/Dataset_Unificado.xlsx
+++ b/Data/Dataset_Unificado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f15395a9ed9a48f/Proyectos_DS/PDI_2022_2025/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxisilva\OneDrive - Politécnico Grancolombiano\Documentos\Proyectos\PDI_2022_2025\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3002" documentId="11_C54DB9D477E07092D1C9E253F65DD242EE9209D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A25C1709-7A35-4170-BBC8-1EF08AF0E8A1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B958CC5F-D87C-4215-86B7-821913CB77A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16906" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16911" uniqueCount="751">
   <si>
     <t>Id</t>
   </si>
@@ -2893,7 +2893,7 @@
   <dimension ref="A1:AD652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -54361,7 +54361,9 @@
       <c r="S563" s="3">
         <v>0</v>
       </c>
-      <c r="T563" s="3"/>
+      <c r="T563" s="3" t="s">
+        <v>518</v>
+      </c>
       <c r="U563" s="3" t="s">
         <v>37</v>
       </c>
@@ -61403,7 +61405,9 @@
       <c r="Q642" s="3"/>
       <c r="R642" s="3"/>
       <c r="S642" s="3"/>
-      <c r="T642" s="3"/>
+      <c r="T642" s="3" t="s">
+        <v>518</v>
+      </c>
       <c r="U642" s="3" t="s">
         <v>37</v>
       </c>
@@ -61473,7 +61477,9 @@
       <c r="Q643" s="3"/>
       <c r="R643" s="3"/>
       <c r="S643" s="3"/>
-      <c r="T643" s="3"/>
+      <c r="T643" s="3" t="s">
+        <v>518</v>
+      </c>
       <c r="U643" s="3" t="s">
         <v>37</v>
       </c>
@@ -62033,7 +62039,9 @@
       <c r="Q651" s="3"/>
       <c r="R651" s="3"/>
       <c r="S651" s="3"/>
-      <c r="T651" s="3"/>
+      <c r="T651" s="3" t="s">
+        <v>518</v>
+      </c>
       <c r="U651" s="3" t="s">
         <v>37</v>
       </c>
@@ -62103,7 +62111,9 @@
       <c r="Q652" s="3"/>
       <c r="R652" s="3"/>
       <c r="S652" s="3"/>
-      <c r="T652" s="3"/>
+      <c r="T652" s="3" t="s">
+        <v>518</v>
+      </c>
       <c r="U652" s="3" t="s">
         <v>37</v>
       </c>
@@ -62132,6 +62142,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AD652" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC477">
     <sortCondition ref="A2:A477"/>
     <sortCondition ref="F2:F477"/>
@@ -62154,26 +62165,26 @@
     <cfRule type="duplicateValues" dxfId="8" priority="12"/>
     <cfRule type="duplicateValues" dxfId="7" priority="13"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A638:A650">
+    <cfRule type="duplicateValues" dxfId="6" priority="18"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A638:A652">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A651">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A652">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B638:B650">
+    <cfRule type="duplicateValues" dxfId="2" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B651">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B652">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A638:A650">
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B638:B650">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/Dataset_Unificado.xlsx
+++ b/Data/Dataset_Unificado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f15395a9ed9a48f/Proyectos_DS/PDI_2022_2025/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3002" documentId="11_C54DB9D477E07092D1C9E253F65DD242EE9209D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A25C1709-7A35-4170-BBC8-1EF08AF0E8A1}"/>
+  <xr:revisionPtr revIDLastSave="3058" documentId="11_C54DB9D477E07092D1C9E253F65DD242EE9209D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9A5194C-65E8-4894-BF0E-9587B1D19ABE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Base_Indicadores!$A$1:$M$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Cierres_Original!$A$1:$T$180</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unificado!$A$1:$AD$652</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unificado!$A$1:$AD$650</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16906" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16901" uniqueCount="750">
   <si>
     <t>Id</t>
   </si>
@@ -2219,12 +2219,6 @@
     <t>N° Programas con nuevo modelo evaluativo implementado</t>
   </si>
   <si>
-    <t>Prov-4</t>
-  </si>
-  <si>
-    <t>Programas en modalidad virtual y hibrida en 2025</t>
-  </si>
-  <si>
     <t>Prov-5</t>
   </si>
   <si>
@@ -2247,12 +2241,6 @@
   </si>
   <si>
     <t>Índice de Permanencia Administrativos (NPS)</t>
-  </si>
-  <si>
-    <t>Prov-10</t>
-  </si>
-  <si>
-    <t>Diseño del Gobierno de IT</t>
   </si>
   <si>
     <t>Prov-13</t>
@@ -2295,6 +2283,15 @@
   </si>
   <si>
     <t>Diseñar e implemetar nuevos modelo de evaluación institucional de programas</t>
+  </si>
+  <si>
+    <t>Contar con una estrategia de comunicaciones integrada  que apalanque  la cultura y el posicionamiento institucional</t>
+  </si>
+  <si>
+    <t>Al 2025 alcanzar la acreditación institucional en alta calidad de la sede Bogotá</t>
+  </si>
+  <si>
+    <t>Implementar el Plan Talento para colaboradores alineado con la estrategia</t>
   </si>
 </sst>
 </file>
@@ -2890,7 +2887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD652"/>
+  <dimension ref="A1:AD650"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2909,6 +2906,7 @@
     <col min="11" max="11" width="8.88671875" customWidth="1"/>
     <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
@@ -14972,7 +14970,7 @@
         <v>74</v>
       </c>
       <c r="Y133" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z133" s="3" t="s">
         <v>76</v>
@@ -15062,7 +15060,7 @@
         <v>74</v>
       </c>
       <c r="Y134" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z134" s="3" t="s">
         <v>76</v>
@@ -15156,7 +15154,7 @@
         <v>74</v>
       </c>
       <c r="Y135" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z135" s="3" t="s">
         <v>76</v>
@@ -15248,7 +15246,7 @@
         <v>74</v>
       </c>
       <c r="Y136" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z136" s="3" t="s">
         <v>76</v>
@@ -15342,7 +15340,7 @@
         <v>74</v>
       </c>
       <c r="Y137" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z137" s="3" t="s">
         <v>76</v>
@@ -15434,7 +15432,7 @@
         <v>74</v>
       </c>
       <c r="Y138" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z138" s="3" t="s">
         <v>76</v>
@@ -16511,7 +16509,9 @@
       <c r="X150" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y150" s="3"/>
+      <c r="Y150" s="3" t="s">
+        <v>747</v>
+      </c>
       <c r="Z150" s="3" t="s">
         <v>101</v>
       </c>
@@ -16599,7 +16599,9 @@
       <c r="X151" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y151" s="3"/>
+      <c r="Y151" s="3" t="s">
+        <v>747</v>
+      </c>
       <c r="Z151" s="3" t="s">
         <v>101</v>
       </c>
@@ -16689,7 +16691,9 @@
       <c r="X152" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y152" s="3"/>
+      <c r="Y152" s="3" t="s">
+        <v>747</v>
+      </c>
       <c r="Z152" s="3" t="s">
         <v>101</v>
       </c>
@@ -16777,7 +16781,9 @@
       <c r="X153" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y153" s="3"/>
+      <c r="Y153" s="3" t="s">
+        <v>747</v>
+      </c>
       <c r="Z153" s="3" t="s">
         <v>101</v>
       </c>
@@ -16866,7 +16872,9 @@
       <c r="X154" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y154" s="3"/>
+      <c r="Y154" s="3" t="s">
+        <v>747</v>
+      </c>
       <c r="Z154" s="3" t="s">
         <v>101</v>
       </c>
@@ -16957,7 +16965,7 @@
         <v>74</v>
       </c>
       <c r="Y155" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z155" s="3" t="s">
         <v>76</v>
@@ -17051,7 +17059,7 @@
         <v>74</v>
       </c>
       <c r="Y156" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z156" s="3" t="s">
         <v>76</v>
@@ -17145,7 +17153,7 @@
         <v>74</v>
       </c>
       <c r="Y157" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z157" s="3" t="s">
         <v>76</v>
@@ -17237,7 +17245,7 @@
         <v>74</v>
       </c>
       <c r="Y158" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z158" s="3" t="s">
         <v>76</v>
@@ -17331,7 +17339,7 @@
         <v>74</v>
       </c>
       <c r="Y159" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z159" s="3" t="s">
         <v>76</v>
@@ -17425,7 +17433,7 @@
         <v>74</v>
       </c>
       <c r="Y160" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z160" s="3" t="s">
         <v>76</v>
@@ -17517,7 +17525,7 @@
         <v>74</v>
       </c>
       <c r="Y161" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z161" s="3" t="s">
         <v>76</v>
@@ -17611,7 +17619,7 @@
         <v>74</v>
       </c>
       <c r="Y162" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z162" s="3" t="s">
         <v>76</v>
@@ -17705,7 +17713,7 @@
         <v>74</v>
       </c>
       <c r="Y163" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z163" s="3" t="s">
         <v>76</v>
@@ -28744,7 +28752,7 @@
         <v>74</v>
       </c>
       <c r="Y283" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z283" s="3" t="s">
         <v>86</v>
@@ -28838,7 +28846,7 @@
         <v>74</v>
       </c>
       <c r="Y284" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z284" s="3" t="s">
         <v>86</v>
@@ -28930,7 +28938,7 @@
         <v>74</v>
       </c>
       <c r="Y285" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z285" s="3" t="s">
         <v>86</v>
@@ -29024,7 +29032,7 @@
         <v>74</v>
       </c>
       <c r="Y286" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z286" s="3" t="s">
         <v>86</v>
@@ -29118,7 +29126,7 @@
         <v>74</v>
       </c>
       <c r="Y287" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z287" s="3" t="s">
         <v>86</v>
@@ -29210,7 +29218,7 @@
         <v>74</v>
       </c>
       <c r="Y288" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z288" s="3" t="s">
         <v>86</v>
@@ -29304,7 +29312,7 @@
         <v>74</v>
       </c>
       <c r="Y289" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z289" s="3" t="s">
         <v>86</v>
@@ -29398,7 +29406,7 @@
         <v>74</v>
       </c>
       <c r="Y290" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z290" s="3" t="s">
         <v>86</v>
@@ -29490,7 +29498,7 @@
         <v>74</v>
       </c>
       <c r="Y291" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z291" s="3" t="s">
         <v>86</v>
@@ -29584,7 +29592,7 @@
         <v>74</v>
       </c>
       <c r="Y292" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z292" s="3" t="s">
         <v>86</v>
@@ -29678,7 +29686,7 @@
         <v>74</v>
       </c>
       <c r="Y293" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z293" s="3" t="s">
         <v>86</v>
@@ -29771,7 +29779,9 @@
       <c r="X294" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y294" s="3"/>
+      <c r="Y294" s="3" t="s">
+        <v>748</v>
+      </c>
       <c r="Z294" s="3" t="s">
         <v>86</v>
       </c>
@@ -29863,7 +29873,9 @@
       <c r="X295" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y295" s="3"/>
+      <c r="Y295" s="3" t="s">
+        <v>748</v>
+      </c>
       <c r="Z295" s="3" t="s">
         <v>86</v>
       </c>
@@ -29953,7 +29965,9 @@
       <c r="X296" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y296" s="3"/>
+      <c r="Y296" s="3" t="s">
+        <v>748</v>
+      </c>
       <c r="Z296" s="3" t="s">
         <v>86</v>
       </c>
@@ -30045,7 +30059,9 @@
       <c r="X297" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y297" s="3"/>
+      <c r="Y297" s="3" t="s">
+        <v>748</v>
+      </c>
       <c r="Z297" s="3" t="s">
         <v>86</v>
       </c>
@@ -30137,7 +30153,9 @@
       <c r="X298" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y298" s="3"/>
+      <c r="Y298" s="3" t="s">
+        <v>748</v>
+      </c>
       <c r="Z298" s="3" t="s">
         <v>86</v>
       </c>
@@ -30227,7 +30245,9 @@
       <c r="X299" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y299" s="3"/>
+      <c r="Y299" s="3" t="s">
+        <v>748</v>
+      </c>
       <c r="Z299" s="3" t="s">
         <v>86</v>
       </c>
@@ -30319,7 +30339,9 @@
       <c r="X300" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y300" s="3"/>
+      <c r="Y300" s="3" t="s">
+        <v>748</v>
+      </c>
       <c r="Z300" s="3" t="s">
         <v>86</v>
       </c>
@@ -30411,7 +30433,9 @@
       <c r="X301" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y301" s="3"/>
+      <c r="Y301" s="3" t="s">
+        <v>748</v>
+      </c>
       <c r="Z301" s="3" t="s">
         <v>86</v>
       </c>
@@ -32896,7 +32920,7 @@
         <v>100</v>
       </c>
       <c r="Y329" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z329" s="3" t="s">
         <v>134</v>
@@ -32984,7 +33008,7 @@
         <v>100</v>
       </c>
       <c r="Y330" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z330" s="3" t="s">
         <v>134</v>
@@ -33074,7 +33098,7 @@
         <v>100</v>
       </c>
       <c r="Y331" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z331" s="3" t="s">
         <v>134</v>
@@ -33162,7 +33186,7 @@
         <v>100</v>
       </c>
       <c r="Y332" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z332" s="3" t="s">
         <v>134</v>
@@ -33250,7 +33274,7 @@
         <v>100</v>
       </c>
       <c r="Y333" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z333" s="3" t="s">
         <v>134</v>
@@ -33340,7 +33364,7 @@
         <v>100</v>
       </c>
       <c r="Y334" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z334" s="3" t="s">
         <v>134</v>
@@ -33432,7 +33456,7 @@
         <v>100</v>
       </c>
       <c r="Y335" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z335" s="3" t="s">
         <v>134</v>
@@ -33520,7 +33544,7 @@
         <v>100</v>
       </c>
       <c r="Y336" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z336" s="3" t="s">
         <v>134</v>
@@ -33610,7 +33634,7 @@
         <v>100</v>
       </c>
       <c r="Y337" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z337" s="3" t="s">
         <v>134</v>
@@ -33702,7 +33726,7 @@
         <v>100</v>
       </c>
       <c r="Y338" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z338" s="3" t="s">
         <v>134</v>
@@ -33792,7 +33816,7 @@
         <v>100</v>
       </c>
       <c r="Y339" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z339" s="3" t="s">
         <v>134</v>
@@ -33882,7 +33906,7 @@
         <v>100</v>
       </c>
       <c r="Y340" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z340" s="3" t="s">
         <v>134</v>
@@ -33970,7 +33994,7 @@
         <v>100</v>
       </c>
       <c r="Y341" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z341" s="3" t="s">
         <v>134</v>
@@ -34060,7 +34084,7 @@
         <v>100</v>
       </c>
       <c r="Y342" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z342" s="3" t="s">
         <v>134</v>
@@ -34148,7 +34172,7 @@
         <v>100</v>
       </c>
       <c r="Y343" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z343" s="3" t="s">
         <v>134</v>
@@ -34238,7 +34262,7 @@
         <v>100</v>
       </c>
       <c r="Y344" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z344" s="3" t="s">
         <v>134</v>
@@ -34330,7 +34354,7 @@
         <v>100</v>
       </c>
       <c r="Y345" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z345" s="3" t="s">
         <v>134</v>
@@ -34421,7 +34445,9 @@
       <c r="X346" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y346" s="3"/>
+      <c r="Y346" s="3" t="s">
+        <v>749</v>
+      </c>
       <c r="Z346" s="3" t="s">
         <v>134</v>
       </c>
@@ -34509,7 +34535,9 @@
       <c r="X347" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y347" s="3"/>
+      <c r="Y347" s="3" t="s">
+        <v>749</v>
+      </c>
       <c r="Z347" s="3" t="s">
         <v>134</v>
       </c>
@@ -34599,7 +34627,9 @@
       <c r="X348" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y348" s="3"/>
+      <c r="Y348" s="3" t="s">
+        <v>749</v>
+      </c>
       <c r="Z348" s="3" t="s">
         <v>134</v>
       </c>
@@ -34687,7 +34717,9 @@
       <c r="X349" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y349" s="3"/>
+      <c r="Y349" s="3" t="s">
+        <v>749</v>
+      </c>
       <c r="Z349" s="3" t="s">
         <v>134</v>
       </c>
@@ -34775,7 +34807,9 @@
       <c r="X350" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y350" s="3"/>
+      <c r="Y350" s="3" t="s">
+        <v>749</v>
+      </c>
       <c r="Z350" s="3" t="s">
         <v>134</v>
       </c>
@@ -34868,7 +34902,7 @@
         <v>74</v>
       </c>
       <c r="Y351" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z351" s="3" t="s">
         <v>86</v>
@@ -34960,7 +34994,7 @@
         <v>74</v>
       </c>
       <c r="Y352" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z352" s="3" t="s">
         <v>86</v>
@@ -35052,7 +35086,7 @@
         <v>74</v>
       </c>
       <c r="Y353" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z353" s="3" t="s">
         <v>86</v>
@@ -35142,7 +35176,7 @@
         <v>74</v>
       </c>
       <c r="Y354" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z354" s="3" t="s">
         <v>86</v>
@@ -35234,7 +35268,7 @@
         <v>74</v>
       </c>
       <c r="Y355" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z355" s="3" t="s">
         <v>86</v>
@@ -35324,7 +35358,7 @@
         <v>74</v>
       </c>
       <c r="Y356" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z356" s="3" t="s">
         <v>86</v>
@@ -35416,7 +35450,7 @@
         <v>74</v>
       </c>
       <c r="Y357" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z357" s="3" t="s">
         <v>86</v>
@@ -35506,7 +35540,7 @@
         <v>74</v>
       </c>
       <c r="Y358" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z358" s="3" t="s">
         <v>86</v>
@@ -46753,7 +46787,7 @@
         <v>74</v>
       </c>
       <c r="Y480" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z480" s="3" t="s">
         <v>76</v>
@@ -46937,7 +46971,9 @@
       <c r="X482" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y482" s="3"/>
+      <c r="Y482" s="3" t="s">
+        <v>747</v>
+      </c>
       <c r="Z482" s="3" t="s">
         <v>101</v>
       </c>
@@ -47658,7 +47694,7 @@
         <v>100</v>
       </c>
       <c r="Y490" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z490" s="3" t="s">
         <v>134</v>
@@ -47844,7 +47880,7 @@
         <v>74</v>
       </c>
       <c r="Y492" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z492" s="3" t="s">
         <v>76</v>
@@ -47936,7 +47972,7 @@
         <v>74</v>
       </c>
       <c r="Y493" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z493" s="3" t="s">
         <v>76</v>
@@ -48490,7 +48526,7 @@
         <v>74</v>
       </c>
       <c r="Y499" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z499" s="3" t="s">
         <v>86</v>
@@ -48581,7 +48617,9 @@
       <c r="X500" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y500" s="3"/>
+      <c r="Y500" s="3" t="s">
+        <v>748</v>
+      </c>
       <c r="Z500" s="3" t="s">
         <v>86</v>
       </c>
@@ -49505,7 +49543,7 @@
         <v>74</v>
       </c>
       <c r="Y510" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z510" s="3" t="s">
         <v>76</v>
@@ -49777,7 +49815,9 @@
       <c r="X513" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y513" s="3"/>
+      <c r="Y513" s="3" t="s">
+        <v>747</v>
+      </c>
       <c r="Z513" s="3" t="s">
         <v>101</v>
       </c>
@@ -49868,7 +49908,7 @@
         <v>74</v>
       </c>
       <c r="Y514" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z514" s="3" t="s">
         <v>76</v>
@@ -50874,7 +50914,7 @@
         <v>74</v>
       </c>
       <c r="Y525" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z525" s="3" t="s">
         <v>86</v>
@@ -50965,7 +51005,9 @@
       <c r="X526" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y526" s="3"/>
+      <c r="Y526" s="3" t="s">
+        <v>748</v>
+      </c>
       <c r="Z526" s="3" t="s">
         <v>86</v>
       </c>
@@ -51054,7 +51096,7 @@
         <v>100</v>
       </c>
       <c r="Y527" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z527" s="3" t="s">
         <v>134</v>
@@ -52806,7 +52848,9 @@
       <c r="X546" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="Y546" s="3"/>
+      <c r="Y546" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="Z546" s="3" t="s">
         <v>41</v>
       </c>
@@ -52896,7 +52940,9 @@
       <c r="X547" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="Y547" s="3"/>
+      <c r="Y547" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="Z547" s="3" t="s">
         <v>41</v>
       </c>
@@ -53358,7 +53404,9 @@
       <c r="X552" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y552" s="3"/>
+      <c r="Y552" s="3" t="s">
+        <v>351</v>
+      </c>
       <c r="Z552" s="3" t="s">
         <v>101</v>
       </c>
@@ -53639,7 +53687,7 @@
         <v>74</v>
       </c>
       <c r="Y555" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z555" s="3" t="s">
         <v>86</v>
@@ -53733,7 +53781,7 @@
         <v>74</v>
       </c>
       <c r="Y556" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z556" s="3" t="s">
         <v>86</v>
@@ -54465,7 +54513,7 @@
         <v>74</v>
       </c>
       <c r="Y564" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z564" s="3" t="s">
         <v>76</v>
@@ -54739,7 +54787,7 @@
         <v>74</v>
       </c>
       <c r="Y567" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z567" s="3" t="s">
         <v>76</v>
@@ -55021,7 +55069,7 @@
         <v>74</v>
       </c>
       <c r="Y570" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z570" s="3" t="s">
         <v>86</v>
@@ -55115,7 +55163,7 @@
         <v>74</v>
       </c>
       <c r="Y571" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z571" s="3" t="s">
         <v>86</v>
@@ -56035,7 +56083,7 @@
         <v>74</v>
       </c>
       <c r="Y581" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z581" s="3" t="s">
         <v>86</v>
@@ -56475,7 +56523,7 @@
         <v>74</v>
       </c>
       <c r="Y586" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z586" s="3" t="s">
         <v>86</v>
@@ -56833,7 +56881,7 @@
         <v>74</v>
       </c>
       <c r="Y590" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z590" s="3" t="s">
         <v>76</v>
@@ -57197,7 +57245,7 @@
         <v>74</v>
       </c>
       <c r="Y594" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z594" s="3" t="s">
         <v>76</v>
@@ -57835,7 +57883,7 @@
         <v>74</v>
       </c>
       <c r="Y601" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z601" s="3" t="s">
         <v>86</v>
@@ -57927,7 +57975,7 @@
         <v>74</v>
       </c>
       <c r="Y602" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z602" s="3" t="s">
         <v>86</v>
@@ -58021,7 +58069,7 @@
         <v>74</v>
       </c>
       <c r="Y603" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z603" s="3" t="s">
         <v>86</v>
@@ -58299,7 +58347,7 @@
         <v>100</v>
       </c>
       <c r="Y606" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z606" s="3"/>
       <c r="AA606" s="3"/>
@@ -58929,7 +58977,7 @@
         <v>74</v>
       </c>
       <c r="Y613" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z613" s="3"/>
       <c r="AA613" s="3"/>
@@ -59201,7 +59249,7 @@
         <v>74</v>
       </c>
       <c r="Y616" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z616" s="3" t="s">
         <v>86</v>
@@ -59381,7 +59429,7 @@
         <v>100</v>
       </c>
       <c r="Y618" s="3" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="Z618" s="3"/>
       <c r="AA618" s="3"/>
@@ -59464,7 +59512,9 @@
       <c r="X619" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y619" s="3"/>
+      <c r="Y619" s="3" t="s">
+        <v>351</v>
+      </c>
       <c r="Z619" s="3" t="s">
         <v>101</v>
       </c>
@@ -59555,7 +59605,7 @@
         <v>74</v>
       </c>
       <c r="Y620" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z620" s="3"/>
       <c r="AA620" s="3"/>
@@ -59642,7 +59692,9 @@
       <c r="X621" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="Y621" s="3"/>
+      <c r="Y621" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="Z621" s="3" t="s">
         <v>41</v>
       </c>
@@ -59733,7 +59785,7 @@
         <v>74</v>
       </c>
       <c r="Y622" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z622" s="3" t="s">
         <v>86</v>
@@ -59825,7 +59877,7 @@
         <v>74</v>
       </c>
       <c r="Y623" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z623" s="3" t="s">
         <v>86</v>
@@ -61137,7 +61189,7 @@
         <v>74</v>
       </c>
       <c r="Y638" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z638" s="3"/>
       <c r="AA638" s="3"/>
@@ -61207,7 +61259,7 @@
         <v>74</v>
       </c>
       <c r="Y639" s="3" t="s">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Z639" s="3"/>
       <c r="AA639" s="3"/>
@@ -61268,7 +61320,7 @@
         <v>37</v>
       </c>
       <c r="V640" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="W640" s="3" t="s">
         <v>73</v>
@@ -61277,7 +61329,7 @@
         <v>218</v>
       </c>
       <c r="Y640" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="Z640" s="3"/>
       <c r="AA640" s="3"/>
@@ -61338,16 +61390,16 @@
         <v>37</v>
       </c>
       <c r="V641" s="3" t="s">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="W641" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="X641" s="6" t="s">
-        <v>218</v>
+        <v>312</v>
+      </c>
+      <c r="X641" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="Y641" s="3" t="s">
-        <v>219</v>
+        <v>634</v>
       </c>
       <c r="Z641" s="3"/>
       <c r="AA641" s="3"/>
@@ -61408,16 +61460,16 @@
         <v>37</v>
       </c>
       <c r="V642" s="3" t="s">
-        <v>83</v>
+        <v>560</v>
       </c>
       <c r="W642" s="3" t="s">
         <v>312</v>
       </c>
       <c r="X642" s="3" t="s">
-        <v>313</v>
+        <v>629</v>
       </c>
       <c r="Y642" s="3" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="Z642" s="3"/>
       <c r="AA642" s="3"/>
@@ -61478,16 +61530,16 @@
         <v>37</v>
       </c>
       <c r="V643" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="W643" s="3" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="X643" s="3" t="s">
-        <v>629</v>
+        <v>113</v>
       </c>
       <c r="Y643" s="3" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="Z643" s="3"/>
       <c r="AA643" s="3"/>
@@ -61618,16 +61670,16 @@
         <v>37</v>
       </c>
       <c r="V645" s="3" t="s">
-        <v>561</v>
+        <v>30</v>
       </c>
       <c r="W645" s="3" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="X645" s="3" t="s">
-        <v>113</v>
+        <v>262</v>
       </c>
       <c r="Y645" s="3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="Z645" s="3"/>
       <c r="AA645" s="3"/>
@@ -61688,16 +61740,16 @@
         <v>37</v>
       </c>
       <c r="V646" s="3" t="s">
-        <v>560</v>
+        <v>260</v>
       </c>
       <c r="W646" s="3" t="s">
         <v>60</v>
       </c>
       <c r="X646" s="3" t="s">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="Y646" s="3" t="s">
-        <v>62</v>
+        <v>263</v>
       </c>
       <c r="Z646" s="3"/>
       <c r="AA646" s="3"/>
@@ -61758,7 +61810,7 @@
         <v>37</v>
       </c>
       <c r="V647" s="3" t="s">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="W647" s="3" t="s">
         <v>60</v>
@@ -61767,7 +61819,7 @@
         <v>262</v>
       </c>
       <c r="Y647" s="3" t="s">
-        <v>637</v>
+        <v>263</v>
       </c>
       <c r="Z647" s="3"/>
       <c r="AA647" s="3"/>
@@ -61785,7 +61837,7 @@
       <c r="A648" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="B648" s="6" t="s">
+      <c r="B648" s="3" t="s">
         <v>740</v>
       </c>
       <c r="C648" s="3" t="s">
@@ -61898,16 +61950,16 @@
         <v>37</v>
       </c>
       <c r="V649" s="3" t="s">
-        <v>260</v>
+        <v>560</v>
       </c>
       <c r="W649" s="3" t="s">
-        <v>60</v>
+        <v>312</v>
       </c>
       <c r="X649" s="3" t="s">
-        <v>262</v>
+        <v>629</v>
       </c>
       <c r="Y649" s="3" t="s">
-        <v>263</v>
+        <v>630</v>
       </c>
       <c r="Z649" s="3"/>
       <c r="AA649" s="3"/>
@@ -61925,7 +61977,7 @@
       <c r="A650" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="B650" s="3" t="s">
+      <c r="B650" s="6" t="s">
         <v>744</v>
       </c>
       <c r="C650" s="3" t="s">
@@ -61968,16 +62020,16 @@
         <v>37</v>
       </c>
       <c r="V650" s="3" t="s">
-        <v>260</v>
+        <v>560</v>
       </c>
       <c r="W650" s="3" t="s">
-        <v>60</v>
+        <v>312</v>
       </c>
       <c r="X650" s="3" t="s">
-        <v>262</v>
+        <v>629</v>
       </c>
       <c r="Y650" s="3" t="s">
-        <v>263</v>
+        <v>630</v>
       </c>
       <c r="Z650" s="3"/>
       <c r="AA650" s="3"/>
@@ -61991,147 +62043,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A651" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="B651" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="C651" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D651" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E651" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F651" s="12">
-        <v>46023</v>
-      </c>
-      <c r="G651" s="8">
-        <v>2026</v>
-      </c>
-      <c r="H651" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="I651" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="J651" s="3"/>
-      <c r="K651" s="3"/>
-      <c r="L651" s="3"/>
-      <c r="M651" s="3"/>
-      <c r="N651" s="3"/>
-      <c r="O651" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="P651" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q651" s="3"/>
-      <c r="R651" s="3"/>
-      <c r="S651" s="3"/>
-      <c r="T651" s="3"/>
-      <c r="U651" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V651" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="W651" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="X651" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="Y651" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="Z651" s="3"/>
-      <c r="AA651" s="3"/>
-      <c r="AB651" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC651" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD651" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="652" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A652" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="B652" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="C652" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D652" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E652" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F652" s="12">
-        <v>46023</v>
-      </c>
-      <c r="G652" s="8">
-        <v>2026</v>
-      </c>
-      <c r="H652" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="I652" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="J652" s="3"/>
-      <c r="K652" s="3"/>
-      <c r="L652" s="3"/>
-      <c r="M652" s="3"/>
-      <c r="N652" s="3"/>
-      <c r="O652" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="P652" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q652" s="3"/>
-      <c r="R652" s="3"/>
-      <c r="S652" s="3"/>
-      <c r="T652" s="3"/>
-      <c r="U652" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V652" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="W652" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="X652" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="Y652" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="Z652" s="3"/>
-      <c r="AA652" s="3"/>
-      <c r="AB652" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC652" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD652" s="3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:AD650" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC477">
     <sortCondition ref="A2:A477"/>
     <sortCondition ref="F2:F477"/>
@@ -62154,26 +62067,26 @@
     <cfRule type="duplicateValues" dxfId="8" priority="12"/>
     <cfRule type="duplicateValues" dxfId="7" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A638:A652">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  <conditionalFormatting sqref="A649">
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A651">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  <conditionalFormatting sqref="A650">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A652">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  <conditionalFormatting sqref="B649">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B651">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  <conditionalFormatting sqref="B650">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B652">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="A638:A648">
+    <cfRule type="duplicateValues" dxfId="2" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A638:A650">
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B638:B650">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+  <conditionalFormatting sqref="B638:B648">
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
